--- a/WarShips/中国海军舰艇大全.xlsx
+++ b/WarShips/中国海军舰艇大全.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\james_home\local_src\codebase\WarShips\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C288B0-0EFD-4DD7-AA17-6A9EE623B46E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8DBEAF0-F43E-42B0-9402-6B8ABEE720E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="9210" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="408">
   <si>
     <t>序号</t>
   </si>
@@ -829,44 +829,6 @@
         <charset val="1"/>
       </rPr>
       <t>型导弹驱逐舰</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>346</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>型相控阵特写，弧形外罩内充满了用来冷却天线的冷空气。外罩中间鼓起是因为中间的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>T/R</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>组件最多，需要更大的通风量</t>
     </r>
   </si>
   <si>
@@ -6264,6 +6226,53 @@
   </si>
   <si>
     <t>柴油机 X 4</t>
+  </si>
+  <si>
+    <t>全蒸七子</t>
+  </si>
+  <si>
+    <t>全蒸七子,已改装</t>
+  </si>
+  <si>
+    <t>江南四杰</t>
+  </si>
+  <si>
+    <t>江南四杰,已改装</t>
+  </si>
+  <si>
+    <r>
+      <t>346</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>型相控阵，弧形外罩内充满了用来冷却天线的冷空气。外罩中间鼓起是因为中间的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>T/R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>组件最多，需要更大的通风量</t>
+    </r>
+  </si>
+  <si>
+    <t>075两栖攻击舰</t>
   </si>
 </sst>
 </file>
@@ -6571,49 +6580,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -6635,13 +6601,56 @@
     <xf numFmtId="49" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -12762,7 +12771,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K10" sqref="K10"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
@@ -12823,19 +12832,19 @@
       <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="12">
@@ -12845,7 +12854,7 @@
         <v>16</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>13</v>
@@ -12877,7 +12886,7 @@
         <v>17</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>17</v>
@@ -12909,7 +12918,7 @@
         <v>18</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>20</v>
@@ -12933,21 +12942,21 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="12"/>
-      <c r="B6" s="58" t="s">
-        <v>389</v>
-      </c>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="60"/>
+      <c r="B6" s="68" t="s">
+        <v>407</v>
+      </c>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="70"/>
       <c r="M6" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -12956,23 +12965,23 @@
         <v>31</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E7" s="16"/>
       <c r="F7" s="16">
         <v>40000</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
       <c r="J7" s="14"/>
       <c r="K7" s="14" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="L7" s="16"/>
     </row>
@@ -12982,23 +12991,23 @@
         <v>32</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E8" s="16"/>
       <c r="F8" s="16">
         <v>40000</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
       <c r="J8" s="14"/>
       <c r="K8" s="14" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="L8" s="16"/>
     </row>
@@ -13008,23 +13017,23 @@
         <v>33</v>
       </c>
       <c r="C9" s="14" t="s">
+        <v>396</v>
+      </c>
+      <c r="D9" s="15" t="s">
         <v>397</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>398</v>
       </c>
       <c r="E9" s="16"/>
       <c r="F9" s="16">
         <v>40000</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
       <c r="J9" s="14"/>
       <c r="K9" s="14" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="L9" s="16"/>
     </row>
@@ -13035,20 +13044,20 @@
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="15" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E10" s="16"/>
       <c r="F10" s="16">
         <v>40000</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
       <c r="J10" s="14"/>
       <c r="K10" s="14" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="L10" s="16"/>
     </row>
@@ -13056,19 +13065,19 @@
       <c r="A11" s="12">
         <v>5</v>
       </c>
-      <c r="B11" s="48" t="s">
+      <c r="B11" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="48"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="67"/>
+      <c r="L11" s="67"/>
       <c r="M11" t="s">
         <v>23</v>
       </c>
@@ -13083,7 +13092,7 @@
       <c r="C12" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="49" t="s">
+      <c r="D12" s="64" t="s">
         <v>25</v>
       </c>
       <c r="E12" s="18" t="s">
@@ -13122,7 +13131,7 @@
       <c r="C13" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="49"/>
+      <c r="D13" s="64"/>
       <c r="E13" s="18" t="s">
         <v>14</v>
       </c>
@@ -13156,7 +13165,7 @@
       <c r="C14" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="49"/>
+      <c r="D14" s="64"/>
       <c r="E14" s="18" t="s">
         <v>14</v>
       </c>
@@ -13190,7 +13199,7 @@
       <c r="C15" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="49"/>
+      <c r="D15" s="64"/>
       <c r="E15" s="18" t="s">
         <v>14</v>
       </c>
@@ -13224,7 +13233,7 @@
       <c r="C16" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="49"/>
+      <c r="D16" s="64"/>
       <c r="E16" s="18" t="s">
         <v>18</v>
       </c>
@@ -13258,7 +13267,7 @@
       <c r="C17" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="49"/>
+      <c r="D17" s="64"/>
       <c r="E17" s="18" t="s">
         <v>18</v>
       </c>
@@ -13292,7 +13301,7 @@
       <c r="C18" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="49"/>
+      <c r="D18" s="64"/>
       <c r="E18" s="18" t="s">
         <v>18</v>
       </c>
@@ -13326,7 +13335,7 @@
       <c r="C19" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="49"/>
+      <c r="D19" s="64"/>
       <c r="E19" s="18" t="s">
         <v>18</v>
       </c>
@@ -13354,19 +13363,19 @@
       <c r="A20" s="12">
         <v>14</v>
       </c>
-      <c r="B20" s="50" t="s">
+      <c r="B20" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="50"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="50"/>
-      <c r="H20" s="50"/>
-      <c r="I20" s="50"/>
-      <c r="J20" s="50"/>
-      <c r="K20" s="50"/>
-      <c r="L20" s="50"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="63"/>
+      <c r="K20" s="63"/>
+      <c r="L20" s="63"/>
       <c r="M20" t="s">
         <v>38</v>
       </c>
@@ -13381,7 +13390,7 @@
       <c r="C21" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="49" t="s">
+      <c r="D21" s="64" t="s">
         <v>40</v>
       </c>
       <c r="E21" s="18" t="s">
@@ -13407,7 +13416,7 @@
       </c>
       <c r="L21" s="18"/>
       <c r="M21" s="20" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -13420,7 +13429,7 @@
       <c r="C22" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="49"/>
+      <c r="D22" s="64"/>
       <c r="E22" s="18" t="s">
         <v>18</v>
       </c>
@@ -13454,7 +13463,7 @@
       <c r="C23" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="49"/>
+      <c r="D23" s="64"/>
       <c r="E23" s="18" t="s">
         <v>18</v>
       </c>
@@ -13488,7 +13497,7 @@
       <c r="C24" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="49"/>
+      <c r="D24" s="64"/>
       <c r="E24" s="18" t="s">
         <v>18</v>
       </c>
@@ -13522,7 +13531,7 @@
       <c r="C25" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D25" s="49"/>
+      <c r="D25" s="64"/>
       <c r="E25" s="18" t="s">
         <v>14</v>
       </c>
@@ -13556,7 +13565,7 @@
       <c r="C26" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="D26" s="49"/>
+      <c r="D26" s="64"/>
       <c r="E26" s="18" t="s">
         <v>48</v>
       </c>
@@ -13590,7 +13599,7 @@
       <c r="C27" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="D27" s="49"/>
+      <c r="D27" s="64"/>
       <c r="E27" s="18" t="s">
         <v>14</v>
       </c>
@@ -13624,7 +13633,7 @@
       <c r="C28" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="D28" s="49"/>
+      <c r="D28" s="64"/>
       <c r="E28" s="18" t="s">
         <v>14</v>
       </c>
@@ -13658,7 +13667,7 @@
       <c r="C29" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="D29" s="49" t="s">
+      <c r="D29" s="64" t="s">
         <v>52</v>
       </c>
       <c r="E29" s="18" t="s">
@@ -13694,7 +13703,7 @@
       <c r="C30" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D30" s="49"/>
+      <c r="D30" s="64"/>
       <c r="E30" s="18" t="s">
         <v>14</v>
       </c>
@@ -13728,7 +13737,7 @@
       <c r="C31" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D31" s="49" t="s">
+      <c r="D31" s="64" t="s">
         <v>55</v>
       </c>
       <c r="E31" s="18" t="s">
@@ -13764,7 +13773,7 @@
       <c r="C32" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="D32" s="49"/>
+      <c r="D32" s="64"/>
       <c r="E32" s="18" t="s">
         <v>18</v>
       </c>
@@ -13798,7 +13807,7 @@
       <c r="C33" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="D33" s="49"/>
+      <c r="D33" s="64"/>
       <c r="E33" s="18" t="s">
         <v>14</v>
       </c>
@@ -13832,7 +13841,7 @@
       <c r="C34" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="D34" s="51" t="s">
+      <c r="D34" s="65" t="s">
         <v>60</v>
       </c>
       <c r="E34" s="18" t="s">
@@ -13868,7 +13877,7 @@
       <c r="C35" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="D35" s="51"/>
+      <c r="D35" s="65"/>
       <c r="E35" s="18" t="s">
         <v>14</v>
       </c>
@@ -13902,7 +13911,7 @@
       <c r="C36" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="D36" s="51"/>
+      <c r="D36" s="65"/>
       <c r="E36" s="18" t="s">
         <v>48</v>
       </c>
@@ -13936,7 +13945,7 @@
       <c r="C37" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="D37" s="51"/>
+      <c r="D37" s="65"/>
       <c r="E37" s="18" t="s">
         <v>14</v>
       </c>
@@ -13970,7 +13979,7 @@
       <c r="C38" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="D38" s="51"/>
+      <c r="D38" s="65"/>
       <c r="E38" s="18" t="s">
         <v>18</v>
       </c>
@@ -14004,7 +14013,7 @@
       <c r="C39" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="D39" s="51"/>
+      <c r="D39" s="65"/>
       <c r="E39" s="18" t="s">
         <v>14</v>
       </c>
@@ -14038,7 +14047,7 @@
       <c r="C40" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="D40" s="51"/>
+      <c r="D40" s="65"/>
       <c r="E40" s="18" t="s">
         <v>18</v>
       </c>
@@ -14072,7 +14081,7 @@
       <c r="C41" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="D41" s="51"/>
+      <c r="D41" s="65"/>
       <c r="E41" s="18" t="s">
         <v>48</v>
       </c>
@@ -14106,7 +14115,7 @@
       <c r="C42" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="D42" s="51"/>
+      <c r="D42" s="65"/>
       <c r="E42" s="18" t="s">
         <v>48</v>
       </c>
@@ -14140,7 +14149,7 @@
       <c r="C43" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="D43" s="51"/>
+      <c r="D43" s="65"/>
       <c r="E43" s="18" t="s">
         <v>18</v>
       </c>
@@ -14174,7 +14183,7 @@
       <c r="C44" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="D44" s="51"/>
+      <c r="D44" s="65"/>
       <c r="E44" s="18" t="s">
         <v>18</v>
       </c>
@@ -14208,7 +14217,7 @@
       <c r="C45" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="D45" s="51"/>
+      <c r="D45" s="65"/>
       <c r="E45" s="18" t="s">
         <v>48</v>
       </c>
@@ -14236,21 +14245,21 @@
       <c r="A46" s="12">
         <v>40</v>
       </c>
-      <c r="B46" s="50" t="s">
+      <c r="B46" s="63" t="s">
         <v>72</v>
       </c>
-      <c r="C46" s="50"/>
-      <c r="D46" s="50"/>
-      <c r="E46" s="50"/>
-      <c r="F46" s="50"/>
-      <c r="G46" s="50"/>
-      <c r="H46" s="50"/>
-      <c r="I46" s="50"/>
-      <c r="J46" s="50"/>
-      <c r="K46" s="50"/>
-      <c r="L46" s="50"/>
+      <c r="C46" s="63"/>
+      <c r="D46" s="63"/>
+      <c r="E46" s="63"/>
+      <c r="F46" s="63"/>
+      <c r="G46" s="63"/>
+      <c r="H46" s="63"/>
+      <c r="I46" s="63"/>
+      <c r="J46" s="63"/>
+      <c r="K46" s="63"/>
+      <c r="L46" s="63"/>
       <c r="M46" t="s">
-        <v>73</v>
+        <v>406</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -14261,10 +14270,10 @@
         <v>170</v>
       </c>
       <c r="C47" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="D47" s="21" t="s">
         <v>74</v>
-      </c>
-      <c r="D47" s="21" t="s">
-        <v>75</v>
       </c>
       <c r="E47" s="18" t="s">
         <v>18</v>
@@ -14282,14 +14291,16 @@
         <v>48</v>
       </c>
       <c r="J47" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="K47" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="K47" s="18" t="s">
+      <c r="L47" s="18" t="s">
+        <v>404</v>
+      </c>
+      <c r="M47" s="22" t="s">
         <v>77</v>
-      </c>
-      <c r="L47" s="18"/>
-      <c r="M47" s="22" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -14300,10 +14311,10 @@
         <v>171</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D48" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E48" s="18" t="s">
         <v>18</v>
@@ -14321,14 +14332,16 @@
         <v>48</v>
       </c>
       <c r="J48" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="K48" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="K48" s="18" t="s">
+      <c r="L48" s="18" t="s">
+        <v>404</v>
+      </c>
+      <c r="M48" s="22" t="s">
         <v>77</v>
-      </c>
-      <c r="L48" s="18"/>
-      <c r="M48" s="22" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -14339,10 +14352,10 @@
         <v>150</v>
       </c>
       <c r="C49" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="D49" s="21" t="s">
         <v>80</v>
-      </c>
-      <c r="D49" s="21" t="s">
-        <v>81</v>
       </c>
       <c r="E49" s="18" t="s">
         <v>48</v>
@@ -14360,14 +14373,14 @@
         <v>48</v>
       </c>
       <c r="J49" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K49" s="18" t="s">
         <v>42</v>
       </c>
       <c r="L49" s="18"/>
       <c r="M49" s="22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -14378,10 +14391,10 @@
         <v>151</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D50" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E50" s="18" t="s">
         <v>48</v>
@@ -14399,14 +14412,14 @@
         <v>48</v>
       </c>
       <c r="J50" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K50" s="18" t="s">
         <v>42</v>
       </c>
       <c r="L50" s="18"/>
       <c r="M50" s="22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -14417,10 +14430,10 @@
         <v>152</v>
       </c>
       <c r="C51" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D51" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E51" s="18" t="s">
         <v>48</v>
@@ -14438,14 +14451,14 @@
         <v>48</v>
       </c>
       <c r="J51" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K51" s="18" t="s">
         <v>42</v>
       </c>
       <c r="L51" s="18"/>
       <c r="M51" s="22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -14456,10 +14469,10 @@
         <v>153</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D52" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E52" s="18" t="s">
         <v>48</v>
@@ -14477,35 +14490,35 @@
         <v>48</v>
       </c>
       <c r="J52" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K52" s="18" t="s">
         <v>42</v>
       </c>
       <c r="L52" s="18"/>
       <c r="M52" s="22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="12">
         <v>47</v>
       </c>
-      <c r="B53" s="50" t="s">
+      <c r="B53" s="63" t="s">
+        <v>84</v>
+      </c>
+      <c r="C53" s="63"/>
+      <c r="D53" s="63"/>
+      <c r="E53" s="63"/>
+      <c r="F53" s="63"/>
+      <c r="G53" s="63"/>
+      <c r="H53" s="63"/>
+      <c r="I53" s="63"/>
+      <c r="J53" s="63"/>
+      <c r="K53" s="63"/>
+      <c r="L53" s="63"/>
+      <c r="M53" s="22" t="s">
         <v>85</v>
-      </c>
-      <c r="C53" s="50"/>
-      <c r="D53" s="50"/>
-      <c r="E53" s="50"/>
-      <c r="F53" s="50"/>
-      <c r="G53" s="50"/>
-      <c r="H53" s="50"/>
-      <c r="I53" s="50"/>
-      <c r="J53" s="50"/>
-      <c r="K53" s="50"/>
-      <c r="L53" s="50"/>
-      <c r="M53" s="22" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -14516,7 +14529,7 @@
         <v>168</v>
       </c>
       <c r="C54" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D54" s="21"/>
       <c r="E54" s="18" t="s">
@@ -14533,16 +14546,16 @@
         <v>32</v>
       </c>
       <c r="J54" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K54" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L54" s="18" t="s">
+        <v>405</v>
+      </c>
+      <c r="M54" t="s">
         <v>89</v>
-      </c>
-      <c r="M54" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -14553,7 +14566,7 @@
         <v>169</v>
       </c>
       <c r="C55" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D55" s="21"/>
       <c r="E55" s="18" t="s">
@@ -14570,37 +14583,37 @@
         <v>32</v>
       </c>
       <c r="J55" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K55" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L55" s="18" t="s">
+        <v>405</v>
+      </c>
+      <c r="M55" t="s">
         <v>89</v>
-      </c>
-      <c r="M55" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="12">
         <v>50</v>
       </c>
-      <c r="B56" s="50" t="s">
+      <c r="B56" s="63" t="s">
+        <v>91</v>
+      </c>
+      <c r="C56" s="63"/>
+      <c r="D56" s="63"/>
+      <c r="E56" s="63"/>
+      <c r="F56" s="63"/>
+      <c r="G56" s="63"/>
+      <c r="H56" s="63"/>
+      <c r="I56" s="63"/>
+      <c r="J56" s="63"/>
+      <c r="K56" s="63"/>
+      <c r="L56" s="63"/>
+      <c r="M56" s="22" t="s">
         <v>92</v>
-      </c>
-      <c r="C56" s="50"/>
-      <c r="D56" s="50"/>
-      <c r="E56" s="50"/>
-      <c r="F56" s="50"/>
-      <c r="G56" s="50"/>
-      <c r="H56" s="50"/>
-      <c r="I56" s="50"/>
-      <c r="J56" s="50"/>
-      <c r="K56" s="50"/>
-      <c r="L56" s="50"/>
-      <c r="M56" s="22" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -14611,7 +14624,7 @@
         <v>115</v>
       </c>
       <c r="C57" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D57" s="21"/>
       <c r="E57" s="18" t="s">
@@ -14628,14 +14641,16 @@
         <v>48</v>
       </c>
       <c r="J57" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="K57" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="K57" s="18" t="s">
+      <c r="L57" s="18" t="s">
+        <v>402</v>
+      </c>
+      <c r="M57" t="s">
         <v>96</v>
-      </c>
-      <c r="L57" s="18"/>
-      <c r="M57" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -14646,7 +14661,7 @@
         <v>116</v>
       </c>
       <c r="C58" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D58" s="21"/>
       <c r="E58" s="18" t="s">
@@ -14663,35 +14678,37 @@
         <v>48</v>
       </c>
       <c r="J58" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="K58" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="K58" s="18" t="s">
+      <c r="L58" s="18" t="s">
+        <v>402</v>
+      </c>
+      <c r="M58" t="s">
         <v>96</v>
-      </c>
-      <c r="L58" s="18"/>
-      <c r="M58" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="12">
         <v>53</v>
       </c>
-      <c r="B59" s="50" t="s">
+      <c r="B59" s="63" t="s">
+        <v>98</v>
+      </c>
+      <c r="C59" s="63"/>
+      <c r="D59" s="63"/>
+      <c r="E59" s="63"/>
+      <c r="F59" s="63"/>
+      <c r="G59" s="63"/>
+      <c r="H59" s="63"/>
+      <c r="I59" s="63"/>
+      <c r="J59" s="63"/>
+      <c r="K59" s="63"/>
+      <c r="L59" s="63"/>
+      <c r="M59" s="22" t="s">
         <v>99</v>
-      </c>
-      <c r="C59" s="50"/>
-      <c r="D59" s="50"/>
-      <c r="E59" s="50"/>
-      <c r="F59" s="50"/>
-      <c r="G59" s="50"/>
-      <c r="H59" s="50"/>
-      <c r="I59" s="50"/>
-      <c r="J59" s="50"/>
-      <c r="K59" s="50"/>
-      <c r="L59" s="50"/>
-      <c r="M59" s="22" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="60" spans="1:13">
@@ -14702,7 +14719,7 @@
         <v>167</v>
       </c>
       <c r="C60" s="18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D60" s="21"/>
       <c r="E60" s="18" t="s">
@@ -14719,35 +14736,35 @@
         <v>32</v>
       </c>
       <c r="J60" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K60" s="23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L60" s="18" t="s">
-        <v>89</v>
+        <v>403</v>
       </c>
       <c r="M60" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="12">
         <v>55</v>
       </c>
-      <c r="B61" s="50" t="s">
-        <v>103</v>
-      </c>
-      <c r="C61" s="50"/>
-      <c r="D61" s="50"/>
-      <c r="E61" s="50"/>
-      <c r="F61" s="50"/>
-      <c r="G61" s="50"/>
-      <c r="H61" s="50"/>
-      <c r="I61" s="50"/>
-      <c r="J61" s="50"/>
-      <c r="K61" s="50"/>
-      <c r="L61" s="50"/>
+      <c r="B61" s="63" t="s">
+        <v>102</v>
+      </c>
+      <c r="C61" s="63"/>
+      <c r="D61" s="63"/>
+      <c r="E61" s="63"/>
+      <c r="F61" s="63"/>
+      <c r="G61" s="63"/>
+      <c r="H61" s="63"/>
+      <c r="I61" s="63"/>
+      <c r="J61" s="63"/>
+      <c r="K61" s="63"/>
+      <c r="L61" s="63"/>
     </row>
     <row r="62" spans="1:13">
       <c r="A62" s="12">
@@ -14757,7 +14774,7 @@
         <v>112</v>
       </c>
       <c r="C62" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D62" s="21"/>
       <c r="E62" s="18" t="s">
@@ -14773,13 +14790,13 @@
       <c r="I62" s="18"/>
       <c r="J62" s="18"/>
       <c r="K62" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="L62" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="M62" s="20" t="s">
         <v>105</v>
-      </c>
-      <c r="L62" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="M62" s="20" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="63" spans="1:13">
@@ -14790,7 +14807,7 @@
         <v>113</v>
       </c>
       <c r="C63" s="18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D63" s="21"/>
       <c r="E63" s="18" t="s">
@@ -14806,32 +14823,32 @@
       <c r="I63" s="18"/>
       <c r="J63" s="18"/>
       <c r="K63" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="L63" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="M63" s="20" t="s">
         <v>105</v>
-      </c>
-      <c r="L63" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="M63" s="20" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="64" spans="1:13">
       <c r="A64" s="12">
         <v>58</v>
       </c>
-      <c r="B64" s="50" t="s">
-        <v>108</v>
-      </c>
-      <c r="C64" s="50"/>
-      <c r="D64" s="50"/>
-      <c r="E64" s="50"/>
-      <c r="F64" s="50"/>
-      <c r="G64" s="50"/>
-      <c r="H64" s="50"/>
-      <c r="I64" s="50"/>
-      <c r="J64" s="50"/>
-      <c r="K64" s="50"/>
-      <c r="L64" s="50"/>
+      <c r="B64" s="63" t="s">
+        <v>107</v>
+      </c>
+      <c r="C64" s="63"/>
+      <c r="D64" s="63"/>
+      <c r="E64" s="63"/>
+      <c r="F64" s="63"/>
+      <c r="G64" s="63"/>
+      <c r="H64" s="63"/>
+      <c r="I64" s="63"/>
+      <c r="J64" s="63"/>
+      <c r="K64" s="63"/>
+      <c r="L64" s="63"/>
     </row>
     <row r="65" spans="1:13">
       <c r="A65" s="12">
@@ -14841,10 +14858,10 @@
         <v>136</v>
       </c>
       <c r="C65" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="D65" s="24" t="s">
         <v>109</v>
-      </c>
-      <c r="D65" s="24" t="s">
-        <v>110</v>
       </c>
       <c r="E65" s="18" t="s">
         <v>48</v>
@@ -14860,16 +14877,16 @@
         <v>32</v>
       </c>
       <c r="J65" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K65" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="L65" s="18" t="s">
+        <v>403</v>
+      </c>
+      <c r="M65" s="20" t="s">
         <v>111</v>
-      </c>
-      <c r="L65" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="M65" s="20" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="66" spans="1:13">
@@ -14880,10 +14897,10 @@
         <v>137</v>
       </c>
       <c r="C66" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D66" s="24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E66" s="18" t="s">
         <v>48</v>
@@ -14899,16 +14916,16 @@
         <v>32</v>
       </c>
       <c r="J66" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K66" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="L66" s="18" t="s">
+        <v>403</v>
+      </c>
+      <c r="M66" s="20" t="s">
         <v>111</v>
-      </c>
-      <c r="L66" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="M66" s="20" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="67" spans="1:13">
@@ -14919,10 +14936,10 @@
         <v>138</v>
       </c>
       <c r="C67" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="D67" s="24" t="s">
         <v>114</v>
-      </c>
-      <c r="D67" s="24" t="s">
-        <v>115</v>
       </c>
       <c r="E67" s="18" t="s">
         <v>48</v>
@@ -14937,11 +14954,13 @@
       <c r="I67" s="18"/>
       <c r="J67" s="18"/>
       <c r="K67" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="L67" s="18"/>
+        <v>110</v>
+      </c>
+      <c r="L67" s="18" t="s">
+        <v>402</v>
+      </c>
       <c r="M67" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="68" spans="1:13">
@@ -14952,10 +14971,10 @@
         <v>139</v>
       </c>
       <c r="C68" s="18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D68" s="24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E68" s="18" t="s">
         <v>48</v>
@@ -14970,32 +14989,34 @@
       <c r="I68" s="18"/>
       <c r="J68" s="18"/>
       <c r="K68" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="L68" s="18"/>
+        <v>110</v>
+      </c>
+      <c r="L68" s="18" t="s">
+        <v>402</v>
+      </c>
       <c r="M68" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="69" spans="1:13">
       <c r="A69" s="12">
         <v>63</v>
       </c>
-      <c r="B69" s="52" t="s">
+      <c r="B69" s="62" t="s">
+        <v>117</v>
+      </c>
+      <c r="C69" s="62"/>
+      <c r="D69" s="62"/>
+      <c r="E69" s="62"/>
+      <c r="F69" s="62"/>
+      <c r="G69" s="62"/>
+      <c r="H69" s="62"/>
+      <c r="I69" s="62"/>
+      <c r="J69" s="62"/>
+      <c r="K69" s="62"/>
+      <c r="L69" s="62"/>
+      <c r="M69" t="s">
         <v>118</v>
-      </c>
-      <c r="C69" s="52"/>
-      <c r="D69" s="52"/>
-      <c r="E69" s="52"/>
-      <c r="F69" s="52"/>
-      <c r="G69" s="52"/>
-      <c r="H69" s="52"/>
-      <c r="I69" s="52"/>
-      <c r="J69" s="52"/>
-      <c r="K69" s="52"/>
-      <c r="L69" s="52"/>
-      <c r="M69" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="70" spans="1:13">
@@ -15006,7 +15027,7 @@
         <v>500</v>
       </c>
       <c r="C70" s="26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D70" s="27"/>
       <c r="E70" s="26" t="s">
@@ -15016,17 +15037,17 @@
         <v>4500</v>
       </c>
       <c r="G70" s="26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H70" s="26"/>
       <c r="I70" s="26">
         <v>32</v>
       </c>
       <c r="J70" s="26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K70" s="26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L70" s="26"/>
     </row>
@@ -15038,7 +15059,7 @@
         <v>501</v>
       </c>
       <c r="C71" s="26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D71" s="27"/>
       <c r="E71" s="26" t="s">
@@ -15048,17 +15069,17 @@
         <v>4500</v>
       </c>
       <c r="G71" s="26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H71" s="26"/>
       <c r="I71" s="26">
         <v>32</v>
       </c>
       <c r="J71" s="26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K71" s="26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L71" s="26"/>
     </row>
@@ -15070,7 +15091,7 @@
         <v>522</v>
       </c>
       <c r="C72" s="26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D72" s="27"/>
       <c r="E72" s="26" t="s">
@@ -15080,17 +15101,17 @@
         <v>4500</v>
       </c>
       <c r="G72" s="26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H72" s="26"/>
       <c r="I72" s="26">
         <v>32</v>
       </c>
       <c r="J72" s="26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K72" s="26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L72" s="26"/>
     </row>
@@ -15102,7 +15123,7 @@
         <v>515</v>
       </c>
       <c r="C73" s="26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D73" s="27"/>
       <c r="E73" s="26" t="s">
@@ -15112,17 +15133,17 @@
         <v>4500</v>
       </c>
       <c r="G73" s="26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H73" s="26"/>
       <c r="I73" s="26">
         <v>32</v>
       </c>
       <c r="J73" s="26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K73" s="26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L73" s="26"/>
     </row>
@@ -15134,7 +15155,7 @@
         <v>529</v>
       </c>
       <c r="C74" s="26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D74" s="27"/>
       <c r="E74" s="26" t="s">
@@ -15144,17 +15165,17 @@
         <v>4500</v>
       </c>
       <c r="G74" s="26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H74" s="26"/>
       <c r="I74" s="26">
         <v>32</v>
       </c>
       <c r="J74" s="26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K74" s="26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L74" s="26"/>
     </row>
@@ -15166,7 +15187,7 @@
         <v>530</v>
       </c>
       <c r="C75" s="26" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D75" s="27"/>
       <c r="E75" s="26" t="s">
@@ -15176,17 +15197,17 @@
         <v>4500</v>
       </c>
       <c r="G75" s="26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H75" s="26"/>
       <c r="I75" s="26">
         <v>32</v>
       </c>
       <c r="J75" s="26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K75" s="26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L75" s="26"/>
     </row>
@@ -15198,7 +15219,7 @@
         <v>531</v>
       </c>
       <c r="C76" s="26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D76" s="27"/>
       <c r="E76" s="26" t="s">
@@ -15208,17 +15229,17 @@
         <v>4500</v>
       </c>
       <c r="G76" s="26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H76" s="26"/>
       <c r="I76" s="26">
         <v>32</v>
       </c>
       <c r="J76" s="26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K76" s="26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L76" s="26"/>
     </row>
@@ -15230,7 +15251,7 @@
         <v>532</v>
       </c>
       <c r="C77" s="26" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D77" s="27"/>
       <c r="E77" s="26" t="s">
@@ -15240,17 +15261,17 @@
         <v>4500</v>
       </c>
       <c r="G77" s="26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H77" s="26"/>
       <c r="I77" s="26">
         <v>32</v>
       </c>
       <c r="J77" s="26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K77" s="26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L77" s="26"/>
     </row>
@@ -15262,7 +15283,7 @@
         <v>533</v>
       </c>
       <c r="C78" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D78" s="27"/>
       <c r="E78" s="26" t="s">
@@ -15272,17 +15293,17 @@
         <v>4500</v>
       </c>
       <c r="G78" s="26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H78" s="26"/>
       <c r="I78" s="26">
         <v>32</v>
       </c>
       <c r="J78" s="26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K78" s="26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L78" s="26"/>
     </row>
@@ -15294,7 +15315,7 @@
         <v>536</v>
       </c>
       <c r="C79" s="26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D79" s="27"/>
       <c r="E79" s="26" t="s">
@@ -15304,17 +15325,17 @@
         <v>4500</v>
       </c>
       <c r="G79" s="26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H79" s="26"/>
       <c r="I79" s="26">
         <v>32</v>
       </c>
       <c r="J79" s="26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K79" s="26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L79" s="26"/>
     </row>
@@ -15326,7 +15347,7 @@
         <v>538</v>
       </c>
       <c r="C80" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D80" s="27"/>
       <c r="E80" s="26" t="s">
@@ -15336,17 +15357,17 @@
         <v>4500</v>
       </c>
       <c r="G80" s="26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H80" s="26"/>
       <c r="I80" s="26">
         <v>32</v>
       </c>
       <c r="J80" s="26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K80" s="26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L80" s="26"/>
     </row>
@@ -15358,7 +15379,7 @@
         <v>539</v>
       </c>
       <c r="C81" s="26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D81" s="27"/>
       <c r="E81" s="26" t="s">
@@ -15368,17 +15389,17 @@
         <v>4500</v>
       </c>
       <c r="G81" s="26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H81" s="26"/>
       <c r="I81" s="26">
         <v>32</v>
       </c>
       <c r="J81" s="26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K81" s="26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L81" s="26"/>
     </row>
@@ -15390,7 +15411,7 @@
         <v>542</v>
       </c>
       <c r="C82" s="26" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D82" s="27"/>
       <c r="E82" s="26" t="s">
@@ -15400,17 +15421,17 @@
         <v>4500</v>
       </c>
       <c r="G82" s="26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H82" s="26"/>
       <c r="I82" s="26">
         <v>32</v>
       </c>
       <c r="J82" s="26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K82" s="26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L82" s="26"/>
     </row>
@@ -15422,7 +15443,7 @@
         <v>546</v>
       </c>
       <c r="C83" s="26" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D83" s="27"/>
       <c r="E83" s="26" t="s">
@@ -15432,17 +15453,17 @@
         <v>4500</v>
       </c>
       <c r="G83" s="26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H83" s="26"/>
       <c r="I83" s="26">
         <v>32</v>
       </c>
       <c r="J83" s="26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K83" s="26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L83" s="26"/>
     </row>
@@ -15454,7 +15475,7 @@
         <v>547</v>
       </c>
       <c r="C84" s="26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D84" s="27"/>
       <c r="E84" s="26" t="s">
@@ -15464,20 +15485,20 @@
         <v>4500</v>
       </c>
       <c r="G84" s="26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H84" s="26"/>
       <c r="I84" s="26">
         <v>32</v>
       </c>
       <c r="J84" s="26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K84" s="26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L84" s="26" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -15488,7 +15509,7 @@
         <v>548</v>
       </c>
       <c r="C85" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D85" s="27"/>
       <c r="E85" s="26" t="s">
@@ -15498,17 +15519,17 @@
         <v>4500</v>
       </c>
       <c r="G85" s="26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H85" s="26"/>
       <c r="I85" s="26">
         <v>32</v>
       </c>
       <c r="J85" s="26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K85" s="26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L85" s="26"/>
     </row>
@@ -15520,7 +15541,7 @@
         <v>549</v>
       </c>
       <c r="C86" s="26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D86" s="27"/>
       <c r="E86" s="26" t="s">
@@ -15530,17 +15551,17 @@
         <v>4500</v>
       </c>
       <c r="G86" s="26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H86" s="26"/>
       <c r="I86" s="26">
         <v>32</v>
       </c>
       <c r="J86" s="26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K86" s="26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L86" s="26"/>
     </row>
@@ -15552,7 +15573,7 @@
         <v>550</v>
       </c>
       <c r="C87" s="26" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D87" s="27"/>
       <c r="E87" s="26" t="s">
@@ -15562,17 +15583,17 @@
         <v>4500</v>
       </c>
       <c r="G87" s="26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H87" s="26"/>
       <c r="I87" s="26">
         <v>32</v>
       </c>
       <c r="J87" s="26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K87" s="26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L87" s="26"/>
     </row>
@@ -15584,7 +15605,7 @@
         <v>568</v>
       </c>
       <c r="C88" s="26" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D88" s="27"/>
       <c r="E88" s="26" t="s">
@@ -15594,20 +15615,20 @@
         <v>4500</v>
       </c>
       <c r="G88" s="26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H88" s="26"/>
       <c r="I88" s="26">
         <v>32</v>
       </c>
       <c r="J88" s="26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K88" s="26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L88" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -15618,7 +15639,7 @@
         <v>569</v>
       </c>
       <c r="C89" s="26" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D89" s="27"/>
       <c r="E89" s="26" t="s">
@@ -15628,17 +15649,17 @@
         <v>4500</v>
       </c>
       <c r="G89" s="26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H89" s="26"/>
       <c r="I89" s="26">
         <v>32</v>
       </c>
       <c r="J89" s="26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K89" s="26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L89" s="28"/>
     </row>
@@ -15650,7 +15671,7 @@
         <v>570</v>
       </c>
       <c r="C90" s="26" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D90" s="27"/>
       <c r="E90" s="26" t="s">
@@ -15660,17 +15681,17 @@
         <v>4500</v>
       </c>
       <c r="G90" s="26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H90" s="26"/>
       <c r="I90" s="26">
         <v>32</v>
       </c>
       <c r="J90" s="26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K90" s="26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L90" s="28"/>
     </row>
@@ -15682,7 +15703,7 @@
         <v>571</v>
       </c>
       <c r="C91" s="26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D91" s="27"/>
       <c r="E91" s="26" t="s">
@@ -15692,17 +15713,17 @@
         <v>4500</v>
       </c>
       <c r="G91" s="26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H91" s="26"/>
       <c r="I91" s="26">
         <v>32</v>
       </c>
       <c r="J91" s="26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K91" s="26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L91" s="28"/>
     </row>
@@ -15714,7 +15735,7 @@
         <v>572</v>
       </c>
       <c r="C92" s="26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D92" s="27"/>
       <c r="E92" s="26" t="s">
@@ -15724,17 +15745,17 @@
         <v>4500</v>
       </c>
       <c r="G92" s="26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H92" s="26"/>
       <c r="I92" s="26">
         <v>32</v>
       </c>
       <c r="J92" s="26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K92" s="26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L92" s="28"/>
     </row>
@@ -15746,7 +15767,7 @@
         <v>573</v>
       </c>
       <c r="C93" s="26" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D93" s="27"/>
       <c r="E93" s="26" t="s">
@@ -15756,17 +15777,17 @@
         <v>4500</v>
       </c>
       <c r="G93" s="26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H93" s="26"/>
       <c r="I93" s="26">
         <v>32</v>
       </c>
       <c r="J93" s="26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K93" s="26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L93" s="28"/>
     </row>
@@ -15778,7 +15799,7 @@
         <v>574</v>
       </c>
       <c r="C94" s="26" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D94" s="27"/>
       <c r="E94" s="26" t="s">
@@ -15788,17 +15809,17 @@
         <v>4500</v>
       </c>
       <c r="G94" s="26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H94" s="26"/>
       <c r="I94" s="26">
         <v>32</v>
       </c>
       <c r="J94" s="26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K94" s="26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L94" s="28"/>
     </row>
@@ -15810,7 +15831,7 @@
         <v>575</v>
       </c>
       <c r="C95" s="26" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D95" s="27"/>
       <c r="E95" s="26" t="s">
@@ -15820,17 +15841,17 @@
         <v>4500</v>
       </c>
       <c r="G95" s="26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H95" s="26"/>
       <c r="I95" s="26">
         <v>32</v>
       </c>
       <c r="J95" s="26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K95" s="26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L95" s="28"/>
     </row>
@@ -15842,7 +15863,7 @@
         <v>576</v>
       </c>
       <c r="C96" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D96" s="27"/>
       <c r="E96" s="26" t="s">
@@ -15852,17 +15873,17 @@
         <v>4500</v>
       </c>
       <c r="G96" s="26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H96" s="26"/>
       <c r="I96" s="26">
         <v>32</v>
       </c>
       <c r="J96" s="26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K96" s="26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L96" s="28"/>
     </row>
@@ -15874,7 +15895,7 @@
         <v>577</v>
       </c>
       <c r="C97" s="26" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D97" s="27"/>
       <c r="E97" s="26" t="s">
@@ -15884,17 +15905,17 @@
         <v>4500</v>
       </c>
       <c r="G97" s="26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H97" s="26"/>
       <c r="I97" s="26">
         <v>32</v>
       </c>
       <c r="J97" s="26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K97" s="26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L97" s="28"/>
     </row>
@@ -15906,7 +15927,7 @@
         <v>578</v>
       </c>
       <c r="C98" s="26" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D98" s="27"/>
       <c r="E98" s="26" t="s">
@@ -15916,17 +15937,17 @@
         <v>4500</v>
       </c>
       <c r="G98" s="26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H98" s="26"/>
       <c r="I98" s="26">
         <v>32</v>
       </c>
       <c r="J98" s="26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K98" s="26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L98" s="28"/>
     </row>
@@ -15938,7 +15959,7 @@
         <v>579</v>
       </c>
       <c r="C99" s="26" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D99" s="27"/>
       <c r="E99" s="26" t="s">
@@ -15948,17 +15969,17 @@
         <v>4500</v>
       </c>
       <c r="G99" s="26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H99" s="26"/>
       <c r="I99" s="26">
         <v>32</v>
       </c>
       <c r="J99" s="26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K99" s="26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L99" s="28"/>
     </row>
@@ -15970,7 +15991,7 @@
         <v>598</v>
       </c>
       <c r="C100" s="26" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D100" s="27"/>
       <c r="E100" s="26" t="s">
@@ -15980,17 +16001,17 @@
         <v>4500</v>
       </c>
       <c r="G100" s="26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H100" s="26"/>
       <c r="I100" s="26">
         <v>32</v>
       </c>
       <c r="J100" s="26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K100" s="26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L100" s="28"/>
     </row>
@@ -16002,7 +16023,7 @@
         <v>599</v>
       </c>
       <c r="C101" s="26" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D101" s="27"/>
       <c r="E101" s="26" t="s">
@@ -16012,17 +16033,17 @@
         <v>4500</v>
       </c>
       <c r="G101" s="26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H101" s="26"/>
       <c r="I101" s="26">
         <v>32</v>
       </c>
       <c r="J101" s="26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K101" s="26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L101" s="28"/>
     </row>
@@ -16030,19 +16051,19 @@
       <c r="A102" s="12">
         <v>96</v>
       </c>
-      <c r="B102" s="52" t="s">
-        <v>156</v>
-      </c>
-      <c r="C102" s="52"/>
-      <c r="D102" s="52"/>
-      <c r="E102" s="52"/>
-      <c r="F102" s="52"/>
-      <c r="G102" s="52"/>
-      <c r="H102" s="52"/>
-      <c r="I102" s="52"/>
-      <c r="J102" s="52"/>
-      <c r="K102" s="52"/>
-      <c r="L102" s="52"/>
+      <c r="B102" s="62" t="s">
+        <v>155</v>
+      </c>
+      <c r="C102" s="62"/>
+      <c r="D102" s="62"/>
+      <c r="E102" s="62"/>
+      <c r="F102" s="62"/>
+      <c r="G102" s="62"/>
+      <c r="H102" s="62"/>
+      <c r="I102" s="62"/>
+      <c r="J102" s="62"/>
+      <c r="K102" s="62"/>
+      <c r="L102" s="62"/>
     </row>
     <row r="103" spans="1:12">
       <c r="A103" s="12">
@@ -16052,7 +16073,7 @@
         <v>525</v>
       </c>
       <c r="C103" s="26" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D103" s="27"/>
       <c r="E103" s="26" t="s">
@@ -16062,13 +16083,13 @@
         <v>3900</v>
       </c>
       <c r="G103" s="26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H103" s="26"/>
       <c r="I103" s="26"/>
       <c r="J103" s="26"/>
       <c r="K103" s="26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L103" s="28"/>
     </row>
@@ -16080,7 +16101,7 @@
         <v>526</v>
       </c>
       <c r="C104" s="26" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D104" s="27"/>
       <c r="E104" s="26" t="s">
@@ -16090,13 +16111,13 @@
         <v>3900</v>
       </c>
       <c r="G104" s="26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H104" s="26"/>
       <c r="I104" s="26"/>
       <c r="J104" s="26"/>
       <c r="K104" s="26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L104" s="28"/>
     </row>
@@ -16104,19 +16125,19 @@
       <c r="A105" s="12">
         <v>99</v>
       </c>
-      <c r="B105" s="52" t="s">
-        <v>159</v>
-      </c>
-      <c r="C105" s="52"/>
-      <c r="D105" s="52"/>
-      <c r="E105" s="52"/>
-      <c r="F105" s="52"/>
-      <c r="G105" s="52"/>
-      <c r="H105" s="52"/>
-      <c r="I105" s="52"/>
-      <c r="J105" s="52"/>
-      <c r="K105" s="52"/>
-      <c r="L105" s="52"/>
+      <c r="B105" s="62" t="s">
+        <v>158</v>
+      </c>
+      <c r="C105" s="62"/>
+      <c r="D105" s="62"/>
+      <c r="E105" s="62"/>
+      <c r="F105" s="62"/>
+      <c r="G105" s="62"/>
+      <c r="H105" s="62"/>
+      <c r="I105" s="62"/>
+      <c r="J105" s="62"/>
+      <c r="K105" s="62"/>
+      <c r="L105" s="62"/>
     </row>
     <row r="106" spans="1:12">
       <c r="A106" s="12">
@@ -16126,7 +16147,7 @@
         <v>615</v>
       </c>
       <c r="C106" s="26" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D106" s="27"/>
       <c r="E106" s="26" t="s">
@@ -16136,7 +16157,7 @@
         <v>1400</v>
       </c>
       <c r="G106" s="26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H106" s="26"/>
       <c r="I106" s="26"/>
@@ -16152,7 +16173,7 @@
         <v>616</v>
       </c>
       <c r="C107" s="26" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D107" s="27"/>
       <c r="E107" s="26" t="s">
@@ -16162,7 +16183,7 @@
         <v>1400</v>
       </c>
       <c r="G107" s="26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H107" s="26"/>
       <c r="I107" s="26"/>
@@ -16178,7 +16199,7 @@
         <v>617</v>
       </c>
       <c r="C108" s="26" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D108" s="27"/>
       <c r="E108" s="26" t="s">
@@ -16188,7 +16209,7 @@
         <v>1400</v>
       </c>
       <c r="G108" s="26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H108" s="26"/>
       <c r="I108" s="26"/>
@@ -16204,7 +16225,7 @@
         <v>618</v>
       </c>
       <c r="C109" s="26" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D109" s="27"/>
       <c r="E109" s="26" t="s">
@@ -16214,7 +16235,7 @@
         <v>1400</v>
       </c>
       <c r="G109" s="26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H109" s="26"/>
       <c r="I109" s="26"/>
@@ -16230,7 +16251,7 @@
         <v>619</v>
       </c>
       <c r="C110" s="26" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D110" s="27"/>
       <c r="E110" s="26" t="s">
@@ -16240,7 +16261,7 @@
         <v>1400</v>
       </c>
       <c r="G110" s="26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H110" s="26"/>
       <c r="I110" s="26"/>
@@ -16256,7 +16277,7 @@
         <v>620</v>
       </c>
       <c r="C111" s="26" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D111" s="27"/>
       <c r="E111" s="26" t="s">
@@ -16266,7 +16287,7 @@
         <v>1400</v>
       </c>
       <c r="G111" s="26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H111" s="26"/>
       <c r="I111" s="26"/>
@@ -16282,7 +16303,7 @@
         <v>621</v>
       </c>
       <c r="C112" s="26" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D112" s="27"/>
       <c r="E112" s="26" t="s">
@@ -16292,7 +16313,7 @@
         <v>1400</v>
       </c>
       <c r="G112" s="26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H112" s="26"/>
       <c r="I112" s="26"/>
@@ -16308,7 +16329,7 @@
         <v>622</v>
       </c>
       <c r="C113" s="26" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D113" s="27"/>
       <c r="E113" s="26" t="s">
@@ -16318,7 +16339,7 @@
         <v>1400</v>
       </c>
       <c r="G113" s="26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H113" s="26"/>
       <c r="I113" s="26"/>
@@ -16334,7 +16355,7 @@
         <v>623</v>
       </c>
       <c r="C114" s="26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D114" s="27"/>
       <c r="E114" s="26" t="s">
@@ -16344,7 +16365,7 @@
         <v>1400</v>
       </c>
       <c r="G114" s="26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H114" s="26"/>
       <c r="I114" s="26"/>
@@ -16360,7 +16381,7 @@
         <v>624</v>
       </c>
       <c r="C115" s="26" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D115" s="27"/>
       <c r="E115" s="26" t="s">
@@ -16370,7 +16391,7 @@
         <v>1400</v>
       </c>
       <c r="G115" s="26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H115" s="26"/>
       <c r="I115" s="26"/>
@@ -16386,7 +16407,7 @@
         <v>625</v>
       </c>
       <c r="C116" s="26" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D116" s="27"/>
       <c r="E116" s="26" t="s">
@@ -16396,7 +16417,7 @@
         <v>1400</v>
       </c>
       <c r="G116" s="26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H116" s="26"/>
       <c r="I116" s="26"/>
@@ -16412,7 +16433,7 @@
         <v>626</v>
       </c>
       <c r="C117" s="26" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D117" s="27"/>
       <c r="E117" s="26" t="s">
@@ -16422,7 +16443,7 @@
         <v>1400</v>
       </c>
       <c r="G117" s="26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H117" s="26"/>
       <c r="I117" s="26"/>
@@ -16438,7 +16459,7 @@
         <v>627</v>
       </c>
       <c r="C118" s="26" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D118" s="27"/>
       <c r="E118" s="26" t="s">
@@ -16448,7 +16469,7 @@
         <v>1400</v>
       </c>
       <c r="G118" s="26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H118" s="26"/>
       <c r="I118" s="26"/>
@@ -16464,7 +16485,7 @@
         <v>628</v>
       </c>
       <c r="C119" s="26" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D119" s="27"/>
       <c r="E119" s="26" t="s">
@@ -16474,7 +16495,7 @@
         <v>1400</v>
       </c>
       <c r="G119" s="26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H119" s="26"/>
       <c r="I119" s="26"/>
@@ -16490,7 +16511,7 @@
         <v>629</v>
       </c>
       <c r="C120" s="26" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D120" s="27"/>
       <c r="E120" s="26" t="s">
@@ -16500,7 +16521,7 @@
         <v>1400</v>
       </c>
       <c r="G120" s="26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H120" s="26"/>
       <c r="I120" s="26"/>
@@ -16516,7 +16537,7 @@
         <v>630</v>
       </c>
       <c r="C121" s="26" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D121" s="27"/>
       <c r="E121" s="26" t="s">
@@ -16526,7 +16547,7 @@
         <v>1400</v>
       </c>
       <c r="G121" s="26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H121" s="26"/>
       <c r="I121" s="26"/>
@@ -16542,7 +16563,7 @@
         <v>631</v>
       </c>
       <c r="C122" s="26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D122" s="27"/>
       <c r="E122" s="26" t="s">
@@ -16552,7 +16573,7 @@
         <v>1400</v>
       </c>
       <c r="G122" s="26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H122" s="26"/>
       <c r="I122" s="26"/>
@@ -16568,7 +16589,7 @@
         <v>636</v>
       </c>
       <c r="C123" s="26" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D123" s="27"/>
       <c r="E123" s="26" t="s">
@@ -16578,7 +16599,7 @@
         <v>1400</v>
       </c>
       <c r="G123" s="26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H123" s="26"/>
       <c r="I123" s="26"/>
@@ -16594,7 +16615,7 @@
         <v>637</v>
       </c>
       <c r="C124" s="26" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D124" s="27"/>
       <c r="E124" s="26" t="s">
@@ -16604,7 +16625,7 @@
         <v>1400</v>
       </c>
       <c r="G124" s="26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H124" s="26"/>
       <c r="I124" s="26"/>
@@ -16620,7 +16641,7 @@
         <v>638</v>
       </c>
       <c r="C125" s="26" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D125" s="27"/>
       <c r="E125" s="26" t="s">
@@ -16630,7 +16651,7 @@
         <v>1400</v>
       </c>
       <c r="G125" s="26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H125" s="26"/>
       <c r="I125" s="26"/>
@@ -16646,7 +16667,7 @@
         <v>639</v>
       </c>
       <c r="C126" s="26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D126" s="27"/>
       <c r="E126" s="26" t="s">
@@ -16656,7 +16677,7 @@
         <v>1400</v>
       </c>
       <c r="G126" s="26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H126" s="26"/>
       <c r="I126" s="26"/>
@@ -16672,7 +16693,7 @@
         <v>640</v>
       </c>
       <c r="C127" s="26" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D127" s="27"/>
       <c r="E127" s="26" t="s">
@@ -16682,7 +16703,7 @@
         <v>1400</v>
       </c>
       <c r="G127" s="26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H127" s="26"/>
       <c r="I127" s="26"/>
@@ -16698,7 +16719,7 @@
         <v>641</v>
       </c>
       <c r="C128" s="26" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D128" s="27"/>
       <c r="E128" s="26" t="s">
@@ -16708,7 +16729,7 @@
         <v>1400</v>
       </c>
       <c r="G128" s="26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H128" s="26"/>
       <c r="I128" s="26"/>
@@ -16724,7 +16745,7 @@
         <v>642</v>
       </c>
       <c r="C129" s="26" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D129" s="27"/>
       <c r="E129" s="26" t="s">
@@ -16734,7 +16755,7 @@
         <v>1400</v>
       </c>
       <c r="G129" s="26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H129" s="26"/>
       <c r="I129" s="26"/>
@@ -16750,7 +16771,7 @@
         <v>643</v>
       </c>
       <c r="C130" s="26" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D130" s="27"/>
       <c r="E130" s="26" t="s">
@@ -16760,7 +16781,7 @@
         <v>1400</v>
       </c>
       <c r="G130" s="26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H130" s="26"/>
       <c r="I130" s="26"/>
@@ -16776,7 +16797,7 @@
         <v>644</v>
       </c>
       <c r="C131" s="26" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D131" s="27"/>
       <c r="E131" s="26" t="s">
@@ -16786,7 +16807,7 @@
         <v>1400</v>
       </c>
       <c r="G131" s="26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H131" s="26"/>
       <c r="I131" s="26"/>
@@ -16802,7 +16823,7 @@
         <v>645</v>
       </c>
       <c r="C132" s="26" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D132" s="27"/>
       <c r="E132" s="26" t="s">
@@ -16812,7 +16833,7 @@
         <v>1400</v>
       </c>
       <c r="G132" s="26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H132" s="26"/>
       <c r="I132" s="26"/>
@@ -16828,7 +16849,7 @@
         <v>646</v>
       </c>
       <c r="C133" s="26" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D133" s="27"/>
       <c r="E133" s="26" t="s">
@@ -16838,7 +16859,7 @@
         <v>1400</v>
       </c>
       <c r="G133" s="26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H133" s="26"/>
       <c r="I133" s="26"/>
@@ -16854,7 +16875,7 @@
         <v>647</v>
       </c>
       <c r="C134" s="26" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D134" s="27"/>
       <c r="E134" s="26" t="s">
@@ -16864,7 +16885,7 @@
         <v>1400</v>
       </c>
       <c r="G134" s="26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H134" s="26"/>
       <c r="I134" s="26"/>
@@ -16880,7 +16901,7 @@
         <v>648</v>
       </c>
       <c r="C135" s="26" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D135" s="27"/>
       <c r="E135" s="26" t="s">
@@ -16890,7 +16911,7 @@
         <v>1400</v>
       </c>
       <c r="G135" s="26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H135" s="26"/>
       <c r="I135" s="26"/>
@@ -16906,7 +16927,7 @@
         <v>649</v>
       </c>
       <c r="C136" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D136" s="27"/>
       <c r="E136" s="26" t="s">
@@ -16916,7 +16937,7 @@
         <v>1400</v>
       </c>
       <c r="G136" s="26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H136" s="26"/>
       <c r="I136" s="26"/>
@@ -16932,7 +16953,7 @@
         <v>654</v>
       </c>
       <c r="C137" s="26" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D137" s="27"/>
       <c r="E137" s="26" t="s">
@@ -16942,7 +16963,7 @@
         <v>1400</v>
       </c>
       <c r="G137" s="26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H137" s="26"/>
       <c r="I137" s="26"/>
@@ -16958,7 +16979,7 @@
         <v>655</v>
       </c>
       <c r="C138" s="26" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D138" s="27"/>
       <c r="E138" s="26" t="s">
@@ -16968,7 +16989,7 @@
         <v>1400</v>
       </c>
       <c r="G138" s="26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H138" s="26"/>
       <c r="I138" s="26"/>
@@ -16984,7 +17005,7 @@
         <v>656</v>
       </c>
       <c r="C139" s="26" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D139" s="27"/>
       <c r="E139" s="26" t="s">
@@ -16994,7 +17015,7 @@
         <v>1400</v>
       </c>
       <c r="G139" s="26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H139" s="26"/>
       <c r="I139" s="26"/>
@@ -17006,31 +17027,31 @@
       <c r="A140" s="12">
         <v>134</v>
       </c>
-      <c r="B140" s="53" t="s">
-        <v>194</v>
-      </c>
-      <c r="C140" s="53"/>
-      <c r="D140" s="53"/>
-      <c r="E140" s="53"/>
-      <c r="F140" s="53"/>
-      <c r="G140" s="53"/>
-      <c r="H140" s="53"/>
-      <c r="I140" s="53"/>
-      <c r="J140" s="53"/>
-      <c r="K140" s="53"/>
-      <c r="L140" s="53"/>
+      <c r="B140" s="60" t="s">
+        <v>193</v>
+      </c>
+      <c r="C140" s="60"/>
+      <c r="D140" s="60"/>
+      <c r="E140" s="60"/>
+      <c r="F140" s="60"/>
+      <c r="G140" s="60"/>
+      <c r="H140" s="60"/>
+      <c r="I140" s="60"/>
+      <c r="J140" s="60"/>
+      <c r="K140" s="60"/>
+      <c r="L140" s="60"/>
     </row>
     <row r="141" spans="1:12">
       <c r="A141" s="12">
         <v>135</v>
       </c>
       <c r="B141" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C141" s="29" t="s">
         <v>195</v>
       </c>
-      <c r="C141" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="D141" s="61"/>
+      <c r="D141" s="47"/>
       <c r="E141" s="29" t="s">
         <v>14</v>
       </c>
@@ -17038,7 +17059,7 @@
         <v>48000</v>
       </c>
       <c r="G141" s="31" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H141" s="31"/>
       <c r="I141" s="31"/>
@@ -17051,12 +17072,12 @@
         <v>136</v>
       </c>
       <c r="B142" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C142" s="29" t="s">
         <v>198</v>
       </c>
-      <c r="C142" s="29" t="s">
-        <v>199</v>
-      </c>
-      <c r="D142" s="61"/>
+      <c r="D142" s="47"/>
       <c r="E142" s="29" t="s">
         <v>18</v>
       </c>
@@ -17064,7 +17085,7 @@
         <v>40000</v>
       </c>
       <c r="G142" s="31" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H142" s="31"/>
       <c r="I142" s="31"/>
@@ -17076,32 +17097,32 @@
       <c r="A143" s="12">
         <v>137</v>
       </c>
-      <c r="B143" s="53" t="s">
-        <v>200</v>
-      </c>
-      <c r="C143" s="53"/>
-      <c r="D143" s="53"/>
-      <c r="E143" s="53"/>
-      <c r="F143" s="53"/>
-      <c r="G143" s="53"/>
-      <c r="H143" s="53"/>
-      <c r="I143" s="53"/>
-      <c r="J143" s="53"/>
-      <c r="K143" s="53"/>
-      <c r="L143" s="53"/>
+      <c r="B143" s="60" t="s">
+        <v>199</v>
+      </c>
+      <c r="C143" s="60"/>
+      <c r="D143" s="60"/>
+      <c r="E143" s="60"/>
+      <c r="F143" s="60"/>
+      <c r="G143" s="60"/>
+      <c r="H143" s="60"/>
+      <c r="I143" s="60"/>
+      <c r="J143" s="60"/>
+      <c r="K143" s="60"/>
+      <c r="L143" s="60"/>
     </row>
     <row r="144" spans="1:12">
       <c r="A144" s="12">
         <v>138</v>
       </c>
       <c r="B144" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C144" s="29" t="s">
         <v>201</v>
       </c>
-      <c r="C144" s="29" t="s">
+      <c r="D144" s="48" t="s">
         <v>202</v>
-      </c>
-      <c r="D144" s="62" t="s">
-        <v>203</v>
       </c>
       <c r="E144" s="29" t="s">
         <v>48</v>
@@ -17110,7 +17131,7 @@
         <v>23000</v>
       </c>
       <c r="G144" s="31" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H144" s="31"/>
       <c r="I144" s="31"/>
@@ -17123,13 +17144,13 @@
         <v>139</v>
       </c>
       <c r="B145" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C145" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="C145" s="29" t="s">
-        <v>205</v>
-      </c>
-      <c r="D145" s="62" t="s">
-        <v>203</v>
+      <c r="D145" s="48" t="s">
+        <v>202</v>
       </c>
       <c r="E145" s="29" t="s">
         <v>18</v>
@@ -17138,7 +17159,7 @@
         <v>23000</v>
       </c>
       <c r="G145" s="31" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H145" s="31"/>
       <c r="I145" s="31"/>
@@ -17151,13 +17172,13 @@
         <v>140</v>
       </c>
       <c r="B146" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C146" s="29" t="s">
         <v>206</v>
       </c>
-      <c r="C146" s="29" t="s">
+      <c r="D146" s="47" t="s">
         <v>207</v>
-      </c>
-      <c r="D146" s="61" t="s">
-        <v>208</v>
       </c>
       <c r="E146" s="29" t="s">
         <v>14</v>
@@ -17166,7 +17187,7 @@
         <v>20000</v>
       </c>
       <c r="G146" s="31" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H146" s="31"/>
       <c r="I146" s="31"/>
@@ -17179,13 +17200,13 @@
         <v>141</v>
       </c>
       <c r="B147" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="C147" s="29" t="s">
         <v>209</v>
       </c>
-      <c r="C147" s="29" t="s">
-        <v>210</v>
-      </c>
-      <c r="D147" s="61" t="s">
-        <v>208</v>
+      <c r="D147" s="47" t="s">
+        <v>207</v>
       </c>
       <c r="E147" s="29" t="s">
         <v>48</v>
@@ -17194,7 +17215,7 @@
         <v>20000</v>
       </c>
       <c r="G147" s="31" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H147" s="31"/>
       <c r="I147" s="31"/>
@@ -17207,13 +17228,13 @@
         <v>142</v>
       </c>
       <c r="B148" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="C148" s="29" t="s">
         <v>211</v>
       </c>
-      <c r="C148" s="29" t="s">
-        <v>212</v>
-      </c>
-      <c r="D148" s="61" t="s">
-        <v>208</v>
+      <c r="D148" s="47" t="s">
+        <v>207</v>
       </c>
       <c r="E148" s="29" t="s">
         <v>14</v>
@@ -17222,7 +17243,7 @@
         <v>20000</v>
       </c>
       <c r="G148" s="31" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H148" s="31"/>
       <c r="I148" s="31"/>
@@ -17235,13 +17256,13 @@
         <v>143</v>
       </c>
       <c r="B149" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="C149" s="29" t="s">
         <v>213</v>
       </c>
-      <c r="C149" s="29" t="s">
-        <v>214</v>
-      </c>
-      <c r="D149" s="61" t="s">
-        <v>208</v>
+      <c r="D149" s="47" t="s">
+        <v>207</v>
       </c>
       <c r="E149" s="29" t="s">
         <v>18</v>
@@ -17250,7 +17271,7 @@
         <v>20000</v>
       </c>
       <c r="G149" s="31" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H149" s="31"/>
       <c r="I149" s="31"/>
@@ -17263,13 +17284,13 @@
         <v>144</v>
       </c>
       <c r="B150" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C150" s="29" t="s">
         <v>215</v>
       </c>
-      <c r="C150" s="29" t="s">
-        <v>216</v>
-      </c>
-      <c r="D150" s="61" t="s">
-        <v>208</v>
+      <c r="D150" s="47" t="s">
+        <v>207</v>
       </c>
       <c r="E150" s="29" t="s">
         <v>18</v>
@@ -17278,7 +17299,7 @@
         <v>20000</v>
       </c>
       <c r="G150" s="31" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H150" s="31"/>
       <c r="I150" s="31"/>
@@ -17291,13 +17312,13 @@
         <v>145</v>
       </c>
       <c r="B151" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C151" s="29" t="s">
         <v>217</v>
       </c>
-      <c r="C151" s="29" t="s">
-        <v>218</v>
-      </c>
-      <c r="D151" s="61" t="s">
-        <v>208</v>
+      <c r="D151" s="47" t="s">
+        <v>207</v>
       </c>
       <c r="E151" s="29" t="s">
         <v>48</v>
@@ -17306,7 +17327,7 @@
         <v>20000</v>
       </c>
       <c r="G151" s="31" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H151" s="31"/>
       <c r="I151" s="31"/>
@@ -17319,13 +17340,13 @@
         <v>146</v>
       </c>
       <c r="B152" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="C152" s="29" t="s">
         <v>219</v>
       </c>
-      <c r="C152" s="29" t="s">
-        <v>220</v>
-      </c>
-      <c r="D152" s="61" t="s">
-        <v>208</v>
+      <c r="D152" s="47" t="s">
+        <v>207</v>
       </c>
       <c r="E152" s="29" t="s">
         <v>14</v>
@@ -17334,7 +17355,7 @@
         <v>20000</v>
       </c>
       <c r="G152" s="31" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H152" s="31"/>
       <c r="I152" s="31"/>
@@ -17346,31 +17367,31 @@
       <c r="A153" s="12">
         <v>147</v>
       </c>
-      <c r="B153" s="53" t="s">
-        <v>221</v>
-      </c>
-      <c r="C153" s="53"/>
-      <c r="D153" s="53"/>
-      <c r="E153" s="53"/>
-      <c r="F153" s="53"/>
-      <c r="G153" s="53"/>
-      <c r="H153" s="53"/>
-      <c r="I153" s="53"/>
-      <c r="J153" s="53"/>
-      <c r="K153" s="53"/>
-      <c r="L153" s="53"/>
+      <c r="B153" s="60" t="s">
+        <v>220</v>
+      </c>
+      <c r="C153" s="60"/>
+      <c r="D153" s="60"/>
+      <c r="E153" s="60"/>
+      <c r="F153" s="60"/>
+      <c r="G153" s="60"/>
+      <c r="H153" s="60"/>
+      <c r="I153" s="60"/>
+      <c r="J153" s="60"/>
+      <c r="K153" s="60"/>
+      <c r="L153" s="60"/>
     </row>
     <row r="154" spans="1:13">
       <c r="A154" s="12">
         <v>148</v>
       </c>
       <c r="B154" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C154" s="29" t="s">
         <v>222</v>
       </c>
-      <c r="C154" s="29" t="s">
-        <v>223</v>
-      </c>
-      <c r="D154" s="61"/>
+      <c r="D154" s="47"/>
       <c r="E154" s="29" t="s">
         <v>18</v>
       </c>
@@ -17378,45 +17399,45 @@
         <v>37000</v>
       </c>
       <c r="G154" s="31" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H154" s="31"/>
       <c r="I154" s="31"/>
       <c r="J154" s="31"/>
       <c r="K154" s="31"/>
       <c r="L154" s="29" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="155" spans="1:13" ht="15.6" customHeight="1">
       <c r="A155" s="12">
         <v>149</v>
       </c>
-      <c r="B155" s="53" t="s">
-        <v>225</v>
-      </c>
-      <c r="C155" s="53"/>
-      <c r="D155" s="53"/>
-      <c r="E155" s="53"/>
-      <c r="F155" s="53"/>
-      <c r="G155" s="53"/>
-      <c r="H155" s="53"/>
-      <c r="I155" s="53"/>
-      <c r="J155" s="53"/>
-      <c r="K155" s="53"/>
-      <c r="L155" s="53"/>
+      <c r="B155" s="60" t="s">
+        <v>224</v>
+      </c>
+      <c r="C155" s="60"/>
+      <c r="D155" s="60"/>
+      <c r="E155" s="60"/>
+      <c r="F155" s="60"/>
+      <c r="G155" s="60"/>
+      <c r="H155" s="60"/>
+      <c r="I155" s="60"/>
+      <c r="J155" s="60"/>
+      <c r="K155" s="60"/>
+      <c r="L155" s="60"/>
     </row>
     <row r="156" spans="1:13">
       <c r="A156" s="12">
         <v>150</v>
       </c>
       <c r="B156" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="C156" s="29" t="s">
         <v>226</v>
       </c>
-      <c r="C156" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="D156" s="61"/>
+      <c r="D156" s="47"/>
       <c r="E156" s="29" t="s">
         <v>18</v>
       </c>
@@ -17424,14 +17445,14 @@
         <v>15000</v>
       </c>
       <c r="G156" s="31" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H156" s="31"/>
       <c r="I156" s="31"/>
       <c r="J156" s="31"/>
       <c r="K156" s="31"/>
       <c r="L156" s="29" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="157" spans="1:13">
@@ -17439,12 +17460,12 @@
         <v>151</v>
       </c>
       <c r="B157" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C157" s="29" t="s">
         <v>229</v>
       </c>
-      <c r="C157" s="29" t="s">
-        <v>230</v>
-      </c>
-      <c r="D157" s="61"/>
+      <c r="D157" s="47"/>
       <c r="E157" s="29" t="s">
         <v>18</v>
       </c>
@@ -17452,35 +17473,35 @@
         <v>15000</v>
       </c>
       <c r="G157" s="31" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H157" s="31"/>
       <c r="I157" s="31"/>
       <c r="J157" s="31"/>
       <c r="K157" s="31"/>
       <c r="L157" s="29" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="158" spans="1:13" ht="12.75" customHeight="1">
       <c r="A158" s="12">
         <v>152</v>
       </c>
-      <c r="B158" s="54" t="s">
-        <v>231</v>
-      </c>
-      <c r="C158" s="54"/>
-      <c r="D158" s="54"/>
-      <c r="E158" s="54"/>
-      <c r="F158" s="54"/>
-      <c r="G158" s="54"/>
-      <c r="H158" s="54"/>
-      <c r="I158" s="54"/>
-      <c r="J158" s="54"/>
-      <c r="K158" s="54"/>
-      <c r="L158" s="54"/>
+      <c r="B158" s="61" t="s">
+        <v>230</v>
+      </c>
+      <c r="C158" s="61"/>
+      <c r="D158" s="61"/>
+      <c r="E158" s="61"/>
+      <c r="F158" s="61"/>
+      <c r="G158" s="61"/>
+      <c r="H158" s="61"/>
+      <c r="I158" s="61"/>
+      <c r="J158" s="61"/>
+      <c r="K158" s="61"/>
+      <c r="L158" s="61"/>
       <c r="M158" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="159" spans="1:13">
@@ -17491,10 +17512,10 @@
         <v>998</v>
       </c>
       <c r="C159" s="32" t="s">
-        <v>232</v>
-      </c>
-      <c r="D159" s="63" t="s">
-        <v>75</v>
+        <v>231</v>
+      </c>
+      <c r="D159" s="49" t="s">
+        <v>74</v>
       </c>
       <c r="E159" s="32" t="s">
         <v>18</v>
@@ -17503,7 +17524,7 @@
         <v>20000</v>
       </c>
       <c r="G159" s="34" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H159" s="34"/>
       <c r="I159" s="34"/>
@@ -17519,10 +17540,10 @@
         <v>999</v>
       </c>
       <c r="C160" s="32" t="s">
-        <v>234</v>
-      </c>
-      <c r="D160" s="63" t="s">
-        <v>75</v>
+        <v>233</v>
+      </c>
+      <c r="D160" s="49" t="s">
+        <v>74</v>
       </c>
       <c r="E160" s="32" t="s">
         <v>18</v>
@@ -17531,7 +17552,7 @@
         <v>20000</v>
       </c>
       <c r="G160" s="34" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H160" s="34"/>
       <c r="I160" s="34"/>
@@ -17547,10 +17568,10 @@
         <v>989</v>
       </c>
       <c r="C161" s="32" t="s">
-        <v>235</v>
-      </c>
-      <c r="D161" s="63" t="s">
-        <v>75</v>
+        <v>234</v>
+      </c>
+      <c r="D161" s="49" t="s">
+        <v>74</v>
       </c>
       <c r="E161" s="32" t="s">
         <v>18</v>
@@ -17559,7 +17580,7 @@
         <v>20000</v>
       </c>
       <c r="G161" s="34" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H161" s="34"/>
       <c r="I161" s="34"/>
@@ -17575,10 +17596,10 @@
         <v>988</v>
       </c>
       <c r="C162" s="32" t="s">
-        <v>236</v>
-      </c>
-      <c r="D162" s="63" t="s">
-        <v>81</v>
+        <v>235</v>
+      </c>
+      <c r="D162" s="49" t="s">
+        <v>80</v>
       </c>
       <c r="E162" s="32" t="s">
         <v>48</v>
@@ -17587,7 +17608,7 @@
         <v>20000</v>
       </c>
       <c r="G162" s="34" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H162" s="34"/>
       <c r="I162" s="34"/>
@@ -17603,10 +17624,10 @@
         <v>980</v>
       </c>
       <c r="C163" s="32" t="s">
-        <v>237</v>
-      </c>
-      <c r="D163" s="63" t="s">
-        <v>81</v>
+        <v>236</v>
+      </c>
+      <c r="D163" s="49" t="s">
+        <v>80</v>
       </c>
       <c r="E163" s="32" t="s">
         <v>48</v>
@@ -17615,7 +17636,7 @@
         <v>20000</v>
       </c>
       <c r="G163" s="34" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H163" s="34"/>
       <c r="I163" s="34"/>
@@ -17631,10 +17652,10 @@
         <v>987</v>
       </c>
       <c r="C164" s="32" t="s">
-        <v>238</v>
-      </c>
-      <c r="D164" s="63" t="s">
-        <v>81</v>
+        <v>237</v>
+      </c>
+      <c r="D164" s="49" t="s">
+        <v>80</v>
       </c>
       <c r="E164" s="32" t="s">
         <v>18</v>
@@ -17643,7 +17664,7 @@
         <v>20000</v>
       </c>
       <c r="G164" s="34" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H164" s="34"/>
       <c r="I164" s="34"/>
@@ -17659,10 +17680,10 @@
         <v>986</v>
       </c>
       <c r="C165" s="32" t="s">
-        <v>239</v>
-      </c>
-      <c r="D165" s="63" t="s">
-        <v>81</v>
+        <v>238</v>
+      </c>
+      <c r="D165" s="49" t="s">
+        <v>80</v>
       </c>
       <c r="E165" s="32" t="s">
         <v>48</v>
@@ -17671,7 +17692,7 @@
         <v>20000</v>
       </c>
       <c r="G165" s="34" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H165" s="34"/>
       <c r="I165" s="34"/>
@@ -17687,10 +17708,10 @@
         <v>985</v>
       </c>
       <c r="C166" s="32" t="s">
-        <v>240</v>
-      </c>
-      <c r="D166" s="63" t="s">
-        <v>81</v>
+        <v>239</v>
+      </c>
+      <c r="D166" s="49" t="s">
+        <v>80</v>
       </c>
       <c r="E166" s="32" t="s">
         <v>18</v>
@@ -17699,7 +17720,7 @@
         <v>20000</v>
       </c>
       <c r="G166" s="34" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H166" s="34"/>
       <c r="I166" s="34"/>
@@ -17711,19 +17732,19 @@
       <c r="A167" s="12">
         <v>161</v>
       </c>
-      <c r="B167" s="54" t="s">
-        <v>241</v>
-      </c>
-      <c r="C167" s="54"/>
-      <c r="D167" s="54"/>
-      <c r="E167" s="54"/>
-      <c r="F167" s="54"/>
-      <c r="G167" s="54"/>
-      <c r="H167" s="54"/>
-      <c r="I167" s="54"/>
-      <c r="J167" s="54"/>
-      <c r="K167" s="54"/>
-      <c r="L167" s="54"/>
+      <c r="B167" s="61" t="s">
+        <v>240</v>
+      </c>
+      <c r="C167" s="61"/>
+      <c r="D167" s="61"/>
+      <c r="E167" s="61"/>
+      <c r="F167" s="61"/>
+      <c r="G167" s="61"/>
+      <c r="H167" s="61"/>
+      <c r="I167" s="61"/>
+      <c r="J167" s="61"/>
+      <c r="K167" s="61"/>
+      <c r="L167" s="61"/>
     </row>
     <row r="168" spans="1:12">
       <c r="A168" s="12">
@@ -17733,10 +17754,10 @@
         <v>911</v>
       </c>
       <c r="C168" s="32" t="s">
-        <v>242</v>
-      </c>
-      <c r="D168" s="63" t="s">
-        <v>75</v>
+        <v>241</v>
+      </c>
+      <c r="D168" s="49" t="s">
+        <v>74</v>
       </c>
       <c r="E168" s="32" t="s">
         <v>14</v>
@@ -17745,7 +17766,7 @@
         <v>4800</v>
       </c>
       <c r="G168" s="34" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H168" s="34"/>
       <c r="I168" s="34"/>
@@ -17761,10 +17782,10 @@
         <v>912</v>
       </c>
       <c r="C169" s="32" t="s">
-        <v>243</v>
-      </c>
-      <c r="D169" s="63" t="s">
-        <v>75</v>
+        <v>242</v>
+      </c>
+      <c r="D169" s="49" t="s">
+        <v>74</v>
       </c>
       <c r="E169" s="32" t="s">
         <v>14</v>
@@ -17773,7 +17794,7 @@
         <v>4800</v>
       </c>
       <c r="G169" s="34" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H169" s="34"/>
       <c r="I169" s="34"/>
@@ -17789,10 +17810,10 @@
         <v>913</v>
       </c>
       <c r="C170" s="32" t="s">
-        <v>244</v>
-      </c>
-      <c r="D170" s="63" t="s">
-        <v>75</v>
+        <v>243</v>
+      </c>
+      <c r="D170" s="49" t="s">
+        <v>74</v>
       </c>
       <c r="E170" s="32" t="s">
         <v>48</v>
@@ -17801,7 +17822,7 @@
         <v>4800</v>
       </c>
       <c r="G170" s="34" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H170" s="34"/>
       <c r="I170" s="34"/>
@@ -17817,10 +17838,10 @@
         <v>992</v>
       </c>
       <c r="C171" s="32" t="s">
-        <v>245</v>
-      </c>
-      <c r="D171" s="63" t="s">
-        <v>75</v>
+        <v>244</v>
+      </c>
+      <c r="D171" s="49" t="s">
+        <v>74</v>
       </c>
       <c r="E171" s="32" t="s">
         <v>18</v>
@@ -17829,7 +17850,7 @@
         <v>4800</v>
       </c>
       <c r="G171" s="34" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H171" s="34"/>
       <c r="I171" s="34"/>
@@ -17845,10 +17866,10 @@
         <v>993</v>
       </c>
       <c r="C172" s="32" t="s">
-        <v>246</v>
-      </c>
-      <c r="D172" s="63" t="s">
-        <v>75</v>
+        <v>245</v>
+      </c>
+      <c r="D172" s="49" t="s">
+        <v>74</v>
       </c>
       <c r="E172" s="32" t="s">
         <v>18</v>
@@ -17857,7 +17878,7 @@
         <v>4800</v>
       </c>
       <c r="G172" s="34" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H172" s="34"/>
       <c r="I172" s="34"/>
@@ -17873,10 +17894,10 @@
         <v>994</v>
       </c>
       <c r="C173" s="32" t="s">
-        <v>247</v>
-      </c>
-      <c r="D173" s="63" t="s">
-        <v>75</v>
+        <v>246</v>
+      </c>
+      <c r="D173" s="49" t="s">
+        <v>74</v>
       </c>
       <c r="E173" s="32" t="s">
         <v>18</v>
@@ -17885,7 +17906,7 @@
         <v>4800</v>
       </c>
       <c r="G173" s="34" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H173" s="34"/>
       <c r="I173" s="34"/>
@@ -17901,10 +17922,10 @@
         <v>995</v>
       </c>
       <c r="C174" s="32" t="s">
-        <v>248</v>
-      </c>
-      <c r="D174" s="63" t="s">
-        <v>75</v>
+        <v>247</v>
+      </c>
+      <c r="D174" s="49" t="s">
+        <v>74</v>
       </c>
       <c r="E174" s="32" t="s">
         <v>18</v>
@@ -17913,7 +17934,7 @@
         <v>4800</v>
       </c>
       <c r="G174" s="34" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H174" s="34"/>
       <c r="I174" s="34"/>
@@ -17929,10 +17950,10 @@
         <v>996</v>
       </c>
       <c r="C175" s="32" t="s">
-        <v>249</v>
-      </c>
-      <c r="D175" s="63" t="s">
-        <v>75</v>
+        <v>248</v>
+      </c>
+      <c r="D175" s="49" t="s">
+        <v>74</v>
       </c>
       <c r="E175" s="32" t="s">
         <v>18</v>
@@ -17941,7 +17962,7 @@
         <v>4800</v>
       </c>
       <c r="G175" s="34" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H175" s="34"/>
       <c r="I175" s="34"/>
@@ -17957,10 +17978,10 @@
         <v>997</v>
       </c>
       <c r="C176" s="32" t="s">
-        <v>250</v>
-      </c>
-      <c r="D176" s="63" t="s">
-        <v>75</v>
+        <v>249</v>
+      </c>
+      <c r="D176" s="49" t="s">
+        <v>74</v>
       </c>
       <c r="E176" s="32" t="s">
         <v>18</v>
@@ -17969,7 +17990,7 @@
         <v>4800</v>
       </c>
       <c r="G176" s="34" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H176" s="34"/>
       <c r="I176" s="34"/>
@@ -17985,10 +18006,10 @@
         <v>981</v>
       </c>
       <c r="C177" s="32" t="s">
-        <v>251</v>
-      </c>
-      <c r="D177" s="63" t="s">
-        <v>81</v>
+        <v>250</v>
+      </c>
+      <c r="D177" s="49" t="s">
+        <v>80</v>
       </c>
       <c r="E177" s="32" t="s">
         <v>48</v>
@@ -17997,7 +18018,7 @@
         <v>4800</v>
       </c>
       <c r="G177" s="34" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H177" s="34"/>
       <c r="I177" s="34"/>
@@ -18013,10 +18034,10 @@
         <v>982</v>
       </c>
       <c r="C178" s="32" t="s">
-        <v>252</v>
-      </c>
-      <c r="D178" s="63" t="s">
-        <v>81</v>
+        <v>251</v>
+      </c>
+      <c r="D178" s="49" t="s">
+        <v>80</v>
       </c>
       <c r="E178" s="32" t="s">
         <v>48</v>
@@ -18025,7 +18046,7 @@
         <v>4800</v>
       </c>
       <c r="G178" s="34" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H178" s="34"/>
       <c r="I178" s="34"/>
@@ -18041,10 +18062,10 @@
         <v>916</v>
       </c>
       <c r="C179" s="32" t="s">
-        <v>253</v>
-      </c>
-      <c r="D179" s="63" t="s">
-        <v>81</v>
+        <v>252</v>
+      </c>
+      <c r="D179" s="49" t="s">
+        <v>80</v>
       </c>
       <c r="E179" s="32" t="s">
         <v>48</v>
@@ -18053,7 +18074,7 @@
         <v>4800</v>
       </c>
       <c r="G179" s="34" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H179" s="34"/>
       <c r="I179" s="34"/>
@@ -18069,10 +18090,10 @@
         <v>914</v>
       </c>
       <c r="C180" s="32" t="s">
-        <v>254</v>
-      </c>
-      <c r="D180" s="63" t="s">
-        <v>81</v>
+        <v>253</v>
+      </c>
+      <c r="D180" s="49" t="s">
+        <v>80</v>
       </c>
       <c r="E180" s="32" t="s">
         <v>48</v>
@@ -18081,7 +18102,7 @@
         <v>4800</v>
       </c>
       <c r="G180" s="34" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H180" s="34"/>
       <c r="I180" s="34"/>
@@ -18097,10 +18118,10 @@
         <v>915</v>
       </c>
       <c r="C181" s="32" t="s">
-        <v>255</v>
-      </c>
-      <c r="D181" s="63" t="s">
-        <v>81</v>
+        <v>254</v>
+      </c>
+      <c r="D181" s="49" t="s">
+        <v>80</v>
       </c>
       <c r="E181" s="32" t="s">
         <v>48</v>
@@ -18109,7 +18130,7 @@
         <v>4800</v>
       </c>
       <c r="G181" s="34" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H181" s="34"/>
       <c r="I181" s="34"/>
@@ -18125,10 +18146,10 @@
         <v>917</v>
       </c>
       <c r="C182" s="32" t="s">
-        <v>256</v>
-      </c>
-      <c r="D182" s="63" t="s">
-        <v>81</v>
+        <v>255</v>
+      </c>
+      <c r="D182" s="49" t="s">
+        <v>80</v>
       </c>
       <c r="E182" s="32" t="s">
         <v>48</v>
@@ -18137,7 +18158,7 @@
         <v>4800</v>
       </c>
       <c r="G182" s="34" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H182" s="34"/>
       <c r="I182" s="34"/>
@@ -18149,19 +18170,19 @@
       <c r="A183" s="12">
         <v>177</v>
       </c>
-      <c r="B183" s="54" t="s">
-        <v>257</v>
-      </c>
-      <c r="C183" s="54"/>
-      <c r="D183" s="54"/>
-      <c r="E183" s="54"/>
-      <c r="F183" s="54"/>
-      <c r="G183" s="54"/>
-      <c r="H183" s="54"/>
-      <c r="I183" s="54"/>
-      <c r="J183" s="54"/>
-      <c r="K183" s="54"/>
-      <c r="L183" s="54"/>
+      <c r="B183" s="61" t="s">
+        <v>256</v>
+      </c>
+      <c r="C183" s="61"/>
+      <c r="D183" s="61"/>
+      <c r="E183" s="61"/>
+      <c r="F183" s="61"/>
+      <c r="G183" s="61"/>
+      <c r="H183" s="61"/>
+      <c r="I183" s="61"/>
+      <c r="J183" s="61"/>
+      <c r="K183" s="61"/>
+      <c r="L183" s="61"/>
     </row>
     <row r="184" spans="1:12">
       <c r="A184" s="12">
@@ -18171,10 +18192,10 @@
         <v>968</v>
       </c>
       <c r="C184" s="32" t="s">
+        <v>257</v>
+      </c>
+      <c r="D184" s="49" t="s">
         <v>258</v>
-      </c>
-      <c r="D184" s="63" t="s">
-        <v>259</v>
       </c>
       <c r="E184" s="32" t="s">
         <v>48</v>
@@ -18183,7 +18204,7 @@
         <v>4800</v>
       </c>
       <c r="G184" s="34" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H184" s="34"/>
       <c r="I184" s="34"/>
@@ -18199,10 +18220,10 @@
         <v>969</v>
       </c>
       <c r="C185" s="32" t="s">
-        <v>260</v>
-      </c>
-      <c r="D185" s="63" t="s">
         <v>259</v>
+      </c>
+      <c r="D185" s="49" t="s">
+        <v>258</v>
       </c>
       <c r="E185" s="32" t="s">
         <v>48</v>
@@ -18211,7 +18232,7 @@
         <v>4800</v>
       </c>
       <c r="G185" s="34" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H185" s="34"/>
       <c r="I185" s="34"/>
@@ -18227,10 +18248,10 @@
         <v>970</v>
       </c>
       <c r="C186" s="32" t="s">
-        <v>261</v>
-      </c>
-      <c r="D186" s="63" t="s">
-        <v>259</v>
+        <v>260</v>
+      </c>
+      <c r="D186" s="49" t="s">
+        <v>258</v>
       </c>
       <c r="E186" s="32" t="s">
         <v>48</v>
@@ -18239,7 +18260,7 @@
         <v>4800</v>
       </c>
       <c r="G186" s="34" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H186" s="34"/>
       <c r="I186" s="34"/>
@@ -18255,10 +18276,10 @@
         <v>971</v>
       </c>
       <c r="C187" s="32" t="s">
-        <v>262</v>
-      </c>
-      <c r="D187" s="63" t="s">
-        <v>259</v>
+        <v>261</v>
+      </c>
+      <c r="D187" s="49" t="s">
+        <v>258</v>
       </c>
       <c r="E187" s="32" t="s">
         <v>48</v>
@@ -18267,7 +18288,7 @@
         <v>4800</v>
       </c>
       <c r="G187" s="34" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H187" s="34"/>
       <c r="I187" s="34"/>
@@ -18283,10 +18304,10 @@
         <v>972</v>
       </c>
       <c r="C188" s="32" t="s">
-        <v>263</v>
-      </c>
-      <c r="D188" s="63" t="s">
-        <v>259</v>
+        <v>262</v>
+      </c>
+      <c r="D188" s="49" t="s">
+        <v>258</v>
       </c>
       <c r="E188" s="32" t="s">
         <v>48</v>
@@ -18295,7 +18316,7 @@
         <v>4800</v>
       </c>
       <c r="G188" s="34" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H188" s="34"/>
       <c r="I188" s="34"/>
@@ -18311,10 +18332,10 @@
         <v>934</v>
       </c>
       <c r="C189" s="32" t="s">
-        <v>264</v>
-      </c>
-      <c r="D189" s="63" t="s">
-        <v>259</v>
+        <v>263</v>
+      </c>
+      <c r="D189" s="49" t="s">
+        <v>258</v>
       </c>
       <c r="E189" s="32" t="s">
         <v>18</v>
@@ -18323,7 +18344,7 @@
         <v>4800</v>
       </c>
       <c r="G189" s="34" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H189" s="34"/>
       <c r="I189" s="34"/>
@@ -18339,10 +18360,10 @@
         <v>935</v>
       </c>
       <c r="C190" s="32" t="s">
-        <v>265</v>
-      </c>
-      <c r="D190" s="63" t="s">
-        <v>259</v>
+        <v>264</v>
+      </c>
+      <c r="D190" s="49" t="s">
+        <v>258</v>
       </c>
       <c r="E190" s="32" t="s">
         <v>18</v>
@@ -18351,7 +18372,7 @@
         <v>4800</v>
       </c>
       <c r="G190" s="34" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H190" s="34"/>
       <c r="I190" s="34"/>
@@ -18367,10 +18388,10 @@
         <v>936</v>
       </c>
       <c r="C191" s="32" t="s">
-        <v>266</v>
-      </c>
-      <c r="D191" s="63" t="s">
-        <v>259</v>
+        <v>265</v>
+      </c>
+      <c r="D191" s="49" t="s">
+        <v>258</v>
       </c>
       <c r="E191" s="32" t="s">
         <v>18</v>
@@ -18379,14 +18400,14 @@
         <v>4800</v>
       </c>
       <c r="G191" s="34" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H191" s="34"/>
       <c r="I191" s="34"/>
       <c r="J191" s="34"/>
       <c r="K191" s="34"/>
       <c r="L191" s="32" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="192" spans="1:12">
@@ -18397,10 +18418,10 @@
         <v>937</v>
       </c>
       <c r="C192" s="32" t="s">
-        <v>268</v>
-      </c>
-      <c r="D192" s="63" t="s">
-        <v>259</v>
+        <v>267</v>
+      </c>
+      <c r="D192" s="49" t="s">
+        <v>258</v>
       </c>
       <c r="E192" s="32" t="s">
         <v>18</v>
@@ -18409,7 +18430,7 @@
         <v>4800</v>
       </c>
       <c r="G192" s="34" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H192" s="34"/>
       <c r="I192" s="34"/>
@@ -18425,10 +18446,10 @@
         <v>938</v>
       </c>
       <c r="C193" s="32" t="s">
-        <v>269</v>
-      </c>
-      <c r="D193" s="63" t="s">
-        <v>259</v>
+        <v>268</v>
+      </c>
+      <c r="D193" s="49" t="s">
+        <v>258</v>
       </c>
       <c r="E193" s="32" t="s">
         <v>18</v>
@@ -18437,7 +18458,7 @@
         <v>4800</v>
       </c>
       <c r="G193" s="34" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H193" s="34"/>
       <c r="I193" s="34"/>
@@ -18453,10 +18474,10 @@
         <v>991</v>
       </c>
       <c r="C194" s="32" t="s">
-        <v>270</v>
-      </c>
-      <c r="D194" s="63" t="s">
-        <v>259</v>
+        <v>269</v>
+      </c>
+      <c r="D194" s="49" t="s">
+        <v>258</v>
       </c>
       <c r="E194" s="32" t="s">
         <v>18</v>
@@ -18465,7 +18486,7 @@
         <v>4800</v>
       </c>
       <c r="G194" s="34" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H194" s="34"/>
       <c r="I194" s="34"/>
@@ -18481,10 +18502,10 @@
         <v>931</v>
       </c>
       <c r="C195" s="32" t="s">
+        <v>270</v>
+      </c>
+      <c r="D195" s="49" t="s">
         <v>271</v>
-      </c>
-      <c r="D195" s="63" t="s">
-        <v>272</v>
       </c>
       <c r="E195" s="32" t="s">
         <v>48</v>
@@ -18493,7 +18514,7 @@
         <v>4200</v>
       </c>
       <c r="G195" s="34" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H195" s="34"/>
       <c r="I195" s="34"/>
@@ -18509,10 +18530,10 @@
         <v>932</v>
       </c>
       <c r="C196" s="32" t="s">
+        <v>272</v>
+      </c>
+      <c r="D196" s="49" t="s">
         <v>273</v>
-      </c>
-      <c r="D196" s="63" t="s">
-        <v>274</v>
       </c>
       <c r="E196" s="32" t="s">
         <v>48</v>
@@ -18521,7 +18542,7 @@
         <v>4200</v>
       </c>
       <c r="G196" s="34" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H196" s="34"/>
       <c r="I196" s="34"/>
@@ -18537,10 +18558,10 @@
         <v>933</v>
       </c>
       <c r="C197" s="32" t="s">
-        <v>275</v>
-      </c>
-      <c r="D197" s="63" t="s">
         <v>274</v>
+      </c>
+      <c r="D197" s="49" t="s">
+        <v>273</v>
       </c>
       <c r="E197" s="32" t="s">
         <v>48</v>
@@ -18549,7 +18570,7 @@
         <v>4200</v>
       </c>
       <c r="G197" s="34" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H197" s="34"/>
       <c r="I197" s="34"/>
@@ -18561,19 +18582,19 @@
       <c r="A198" s="12">
         <v>192</v>
       </c>
-      <c r="B198" s="54" t="s">
-        <v>276</v>
-      </c>
-      <c r="C198" s="54"/>
-      <c r="D198" s="54"/>
-      <c r="E198" s="54"/>
-      <c r="F198" s="54"/>
-      <c r="G198" s="54"/>
-      <c r="H198" s="54"/>
-      <c r="I198" s="54"/>
-      <c r="J198" s="54"/>
-      <c r="K198" s="54"/>
-      <c r="L198" s="54"/>
+      <c r="B198" s="61" t="s">
+        <v>275</v>
+      </c>
+      <c r="C198" s="61"/>
+      <c r="D198" s="61"/>
+      <c r="E198" s="61"/>
+      <c r="F198" s="61"/>
+      <c r="G198" s="61"/>
+      <c r="H198" s="61"/>
+      <c r="I198" s="61"/>
+      <c r="J198" s="61"/>
+      <c r="K198" s="61"/>
+      <c r="L198" s="61"/>
     </row>
     <row r="199" spans="1:12">
       <c r="A199" s="12">
@@ -18583,10 +18604,10 @@
         <v>941</v>
       </c>
       <c r="C199" s="32" t="s">
+        <v>276</v>
+      </c>
+      <c r="D199" s="50" t="s">
         <v>277</v>
-      </c>
-      <c r="D199" s="64" t="s">
-        <v>278</v>
       </c>
       <c r="E199" s="32" t="s">
         <v>48</v>
@@ -18595,7 +18616,7 @@
         <v>850</v>
       </c>
       <c r="G199" s="34" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H199" s="34"/>
       <c r="I199" s="34"/>
@@ -18611,10 +18632,10 @@
         <v>942</v>
       </c>
       <c r="C200" s="32" t="s">
-        <v>279</v>
-      </c>
-      <c r="D200" s="64" t="s">
         <v>278</v>
+      </c>
+      <c r="D200" s="50" t="s">
+        <v>277</v>
       </c>
       <c r="E200" s="32" t="s">
         <v>48</v>
@@ -18623,7 +18644,7 @@
         <v>850</v>
       </c>
       <c r="G200" s="34" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H200" s="34"/>
       <c r="I200" s="34"/>
@@ -18639,10 +18660,10 @@
         <v>943</v>
       </c>
       <c r="C201" s="32" t="s">
-        <v>280</v>
-      </c>
-      <c r="D201" s="64" t="s">
-        <v>278</v>
+        <v>279</v>
+      </c>
+      <c r="D201" s="50" t="s">
+        <v>277</v>
       </c>
       <c r="E201" s="32" t="s">
         <v>48</v>
@@ -18651,7 +18672,7 @@
         <v>850</v>
       </c>
       <c r="G201" s="34" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H201" s="34"/>
       <c r="I201" s="34"/>
@@ -18667,10 +18688,10 @@
         <v>944</v>
       </c>
       <c r="C202" s="32" t="s">
-        <v>281</v>
-      </c>
-      <c r="D202" s="64" t="s">
-        <v>278</v>
+        <v>280</v>
+      </c>
+      <c r="D202" s="50" t="s">
+        <v>277</v>
       </c>
       <c r="E202" s="32" t="s">
         <v>48</v>
@@ -18679,7 +18700,7 @@
         <v>850</v>
       </c>
       <c r="G202" s="34" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H202" s="34"/>
       <c r="I202" s="34"/>
@@ -18695,10 +18716,10 @@
         <v>945</v>
       </c>
       <c r="C203" s="32" t="s">
-        <v>282</v>
-      </c>
-      <c r="D203" s="64" t="s">
-        <v>278</v>
+        <v>281</v>
+      </c>
+      <c r="D203" s="50" t="s">
+        <v>277</v>
       </c>
       <c r="E203" s="32" t="s">
         <v>18</v>
@@ -18707,7 +18728,7 @@
         <v>850</v>
       </c>
       <c r="G203" s="34" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H203" s="34"/>
       <c r="I203" s="34"/>
@@ -18723,10 +18744,10 @@
         <v>946</v>
       </c>
       <c r="C204" s="32" t="s">
-        <v>283</v>
-      </c>
-      <c r="D204" s="64" t="s">
-        <v>278</v>
+        <v>282</v>
+      </c>
+      <c r="D204" s="50" t="s">
+        <v>277</v>
       </c>
       <c r="E204" s="32" t="s">
         <v>18</v>
@@ -18735,7 +18756,7 @@
         <v>850</v>
       </c>
       <c r="G204" s="34" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H204" s="34"/>
       <c r="I204" s="34"/>
@@ -18751,10 +18772,10 @@
         <v>947</v>
       </c>
       <c r="C205" s="32" t="s">
-        <v>284</v>
-      </c>
-      <c r="D205" s="64" t="s">
-        <v>278</v>
+        <v>283</v>
+      </c>
+      <c r="D205" s="50" t="s">
+        <v>277</v>
       </c>
       <c r="E205" s="32" t="s">
         <v>18</v>
@@ -18763,7 +18784,7 @@
         <v>850</v>
       </c>
       <c r="G205" s="34" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H205" s="34"/>
       <c r="I205" s="34"/>
@@ -18779,10 +18800,10 @@
         <v>948</v>
       </c>
       <c r="C206" s="32" t="s">
-        <v>285</v>
-      </c>
-      <c r="D206" s="64" t="s">
-        <v>278</v>
+        <v>284</v>
+      </c>
+      <c r="D206" s="50" t="s">
+        <v>277</v>
       </c>
       <c r="E206" s="32" t="s">
         <v>18</v>
@@ -18791,7 +18812,7 @@
         <v>850</v>
       </c>
       <c r="G206" s="34" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H206" s="34"/>
       <c r="I206" s="34"/>
@@ -18807,10 +18828,10 @@
         <v>949</v>
       </c>
       <c r="C207" s="32" t="s">
-        <v>286</v>
-      </c>
-      <c r="D207" s="64" t="s">
-        <v>278</v>
+        <v>285</v>
+      </c>
+      <c r="D207" s="50" t="s">
+        <v>277</v>
       </c>
       <c r="E207" s="32" t="s">
         <v>18</v>
@@ -18819,7 +18840,7 @@
         <v>850</v>
       </c>
       <c r="G207" s="34" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H207" s="34"/>
       <c r="I207" s="34"/>
@@ -18835,10 +18856,10 @@
         <v>950</v>
       </c>
       <c r="C208" s="32" t="s">
-        <v>287</v>
-      </c>
-      <c r="D208" s="64" t="s">
-        <v>278</v>
+        <v>286</v>
+      </c>
+      <c r="D208" s="50" t="s">
+        <v>277</v>
       </c>
       <c r="E208" s="32" t="s">
         <v>18</v>
@@ -18847,7 +18868,7 @@
         <v>850</v>
       </c>
       <c r="G208" s="34" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H208" s="34"/>
       <c r="I208" s="34"/>
@@ -18863,10 +18884,10 @@
         <v>990</v>
       </c>
       <c r="C209" s="32" t="s">
-        <v>288</v>
-      </c>
-      <c r="D209" s="63" t="s">
-        <v>259</v>
+        <v>287</v>
+      </c>
+      <c r="D209" s="49" t="s">
+        <v>258</v>
       </c>
       <c r="E209" s="32" t="s">
         <v>18</v>
@@ -18875,33 +18896,33 @@
         <v>850</v>
       </c>
       <c r="G209" s="34" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H209" s="34"/>
       <c r="I209" s="34"/>
       <c r="J209" s="34"/>
       <c r="K209" s="34"/>
       <c r="L209" s="32" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="210" spans="1:12" ht="12.75" customHeight="1">
       <c r="A210" s="12">
         <v>204</v>
       </c>
-      <c r="B210" s="55" t="s">
-        <v>289</v>
-      </c>
-      <c r="C210" s="55"/>
-      <c r="D210" s="55"/>
-      <c r="E210" s="55"/>
-      <c r="F210" s="55"/>
-      <c r="G210" s="55"/>
-      <c r="H210" s="55"/>
-      <c r="I210" s="55"/>
-      <c r="J210" s="55"/>
-      <c r="K210" s="55"/>
-      <c r="L210" s="55"/>
+      <c r="B210" s="58" t="s">
+        <v>288</v>
+      </c>
+      <c r="C210" s="58"/>
+      <c r="D210" s="58"/>
+      <c r="E210" s="58"/>
+      <c r="F210" s="58"/>
+      <c r="G210" s="58"/>
+      <c r="H210" s="58"/>
+      <c r="I210" s="58"/>
+      <c r="J210" s="58"/>
+      <c r="K210" s="58"/>
+      <c r="L210" s="58"/>
     </row>
     <row r="211" spans="1:12" ht="13.35" customHeight="1">
       <c r="A211" s="12">
@@ -18911,10 +18932,10 @@
         <v>407</v>
       </c>
       <c r="C211" s="37" t="s">
+        <v>289</v>
+      </c>
+      <c r="D211" s="59" t="s">
         <v>290</v>
-      </c>
-      <c r="D211" s="65" t="s">
-        <v>291</v>
       </c>
       <c r="E211" s="37" t="s">
         <v>18</v>
@@ -18923,7 +18944,7 @@
         <v>6000</v>
       </c>
       <c r="G211" s="39" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H211" s="39"/>
       <c r="I211" s="39"/>
@@ -18939,9 +18960,9 @@
         <v>408</v>
       </c>
       <c r="C212" s="37" t="s">
-        <v>293</v>
-      </c>
-      <c r="D212" s="65"/>
+        <v>292</v>
+      </c>
+      <c r="D212" s="59"/>
       <c r="E212" s="37" t="s">
         <v>18</v>
       </c>
@@ -18949,7 +18970,7 @@
         <v>6000</v>
       </c>
       <c r="G212" s="39" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H212" s="39"/>
       <c r="I212" s="39"/>
@@ -18965,9 +18986,9 @@
         <v>409</v>
       </c>
       <c r="C213" s="37" t="s">
-        <v>294</v>
-      </c>
-      <c r="D213" s="65"/>
+        <v>293</v>
+      </c>
+      <c r="D213" s="59"/>
       <c r="E213" s="37" t="s">
         <v>18</v>
       </c>
@@ -18975,7 +18996,7 @@
         <v>6000</v>
       </c>
       <c r="G213" s="39" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H213" s="39"/>
       <c r="I213" s="39"/>
@@ -18991,9 +19012,9 @@
         <v>410</v>
       </c>
       <c r="C214" s="37" t="s">
-        <v>295</v>
-      </c>
-      <c r="D214" s="65"/>
+        <v>294</v>
+      </c>
+      <c r="D214" s="59"/>
       <c r="E214" s="37" t="s">
         <v>18</v>
       </c>
@@ -19001,7 +19022,7 @@
         <v>6000</v>
       </c>
       <c r="G214" s="39" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H214" s="39"/>
       <c r="I214" s="39"/>
@@ -19017,9 +19038,9 @@
         <v>416</v>
       </c>
       <c r="C215" s="37" t="s">
-        <v>296</v>
-      </c>
-      <c r="D215" s="65"/>
+        <v>295</v>
+      </c>
+      <c r="D215" s="59"/>
       <c r="E215" s="37" t="s">
         <v>14</v>
       </c>
@@ -19027,7 +19048,7 @@
         <v>6000</v>
       </c>
       <c r="G215" s="39" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H215" s="39"/>
       <c r="I215" s="39"/>
@@ -19043,9 +19064,9 @@
         <v>417</v>
       </c>
       <c r="C216" s="37" t="s">
-        <v>297</v>
-      </c>
-      <c r="D216" s="65"/>
+        <v>296</v>
+      </c>
+      <c r="D216" s="59"/>
       <c r="E216" s="37" t="s">
         <v>14</v>
       </c>
@@ -19053,7 +19074,7 @@
         <v>6000</v>
       </c>
       <c r="G216" s="39" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H216" s="39"/>
       <c r="I216" s="39"/>
@@ -19069,9 +19090,9 @@
         <v>418</v>
       </c>
       <c r="C217" s="37" t="s">
-        <v>298</v>
-      </c>
-      <c r="D217" s="65"/>
+        <v>297</v>
+      </c>
+      <c r="D217" s="59"/>
       <c r="E217" s="37" t="s">
         <v>14</v>
       </c>
@@ -19079,7 +19100,7 @@
         <v>6000</v>
       </c>
       <c r="G217" s="39" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H217" s="39"/>
       <c r="I217" s="39"/>
@@ -19095,9 +19116,9 @@
         <v>419</v>
       </c>
       <c r="C218" s="37" t="s">
-        <v>299</v>
-      </c>
-      <c r="D218" s="65"/>
+        <v>298</v>
+      </c>
+      <c r="D218" s="59"/>
       <c r="E218" s="37" t="s">
         <v>14</v>
       </c>
@@ -19105,7 +19126,7 @@
         <v>6000</v>
       </c>
       <c r="G218" s="39" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H218" s="39"/>
       <c r="I218" s="39"/>
@@ -19117,19 +19138,19 @@
       <c r="A219" s="12">
         <v>213</v>
       </c>
-      <c r="B219" s="55" t="s">
-        <v>300</v>
-      </c>
-      <c r="C219" s="55"/>
-      <c r="D219" s="55"/>
-      <c r="E219" s="55"/>
-      <c r="F219" s="55"/>
-      <c r="G219" s="55"/>
-      <c r="H219" s="55"/>
-      <c r="I219" s="55"/>
-      <c r="J219" s="55"/>
-      <c r="K219" s="55"/>
-      <c r="L219" s="55"/>
+      <c r="B219" s="58" t="s">
+        <v>299</v>
+      </c>
+      <c r="C219" s="58"/>
+      <c r="D219" s="58"/>
+      <c r="E219" s="58"/>
+      <c r="F219" s="58"/>
+      <c r="G219" s="58"/>
+      <c r="H219" s="58"/>
+      <c r="I219" s="58"/>
+      <c r="J219" s="58"/>
+      <c r="K219" s="58"/>
+      <c r="L219" s="58"/>
     </row>
     <row r="220" spans="1:12">
       <c r="A220" s="12">
@@ -19139,9 +19160,9 @@
         <v>403</v>
       </c>
       <c r="C220" s="37" t="s">
-        <v>301</v>
-      </c>
-      <c r="D220" s="66"/>
+        <v>300</v>
+      </c>
+      <c r="D220" s="52"/>
       <c r="E220" s="37" t="s">
         <v>14</v>
       </c>
@@ -19149,7 +19170,7 @@
         <v>5500</v>
       </c>
       <c r="G220" s="39" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H220" s="39"/>
       <c r="I220" s="39"/>
@@ -19165,9 +19186,9 @@
         <v>404</v>
       </c>
       <c r="C221" s="37" t="s">
-        <v>302</v>
-      </c>
-      <c r="D221" s="66"/>
+        <v>301</v>
+      </c>
+      <c r="D221" s="52"/>
       <c r="E221" s="37" t="s">
         <v>14</v>
       </c>
@@ -19175,7 +19196,7 @@
         <v>5500</v>
       </c>
       <c r="G221" s="39" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H221" s="39"/>
       <c r="I221" s="39"/>
@@ -19191,9 +19212,9 @@
         <v>405</v>
       </c>
       <c r="C222" s="37" t="s">
-        <v>303</v>
-      </c>
-      <c r="D222" s="66"/>
+        <v>302</v>
+      </c>
+      <c r="D222" s="52"/>
       <c r="E222" s="37" t="s">
         <v>14</v>
       </c>
@@ -19201,7 +19222,7 @@
         <v>5500</v>
       </c>
       <c r="G222" s="39" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H222" s="39"/>
       <c r="I222" s="39"/>
@@ -19213,19 +19234,19 @@
       <c r="A223" s="12">
         <v>217</v>
       </c>
-      <c r="B223" s="55" t="s">
-        <v>304</v>
-      </c>
-      <c r="C223" s="55"/>
-      <c r="D223" s="55"/>
-      <c r="E223" s="55"/>
-      <c r="F223" s="55"/>
-      <c r="G223" s="55"/>
-      <c r="H223" s="55"/>
-      <c r="I223" s="55"/>
-      <c r="J223" s="55"/>
-      <c r="K223" s="55"/>
-      <c r="L223" s="55"/>
+      <c r="B223" s="58" t="s">
+        <v>303</v>
+      </c>
+      <c r="C223" s="58"/>
+      <c r="D223" s="58"/>
+      <c r="E223" s="58"/>
+      <c r="F223" s="58"/>
+      <c r="G223" s="58"/>
+      <c r="H223" s="58"/>
+      <c r="I223" s="58"/>
+      <c r="J223" s="58"/>
+      <c r="K223" s="58"/>
+      <c r="L223" s="58"/>
     </row>
     <row r="224" spans="1:12">
       <c r="A224" s="12">
@@ -19235,9 +19256,9 @@
         <v>411</v>
       </c>
       <c r="C224" s="37" t="s">
-        <v>305</v>
-      </c>
-      <c r="D224" s="66"/>
+        <v>304</v>
+      </c>
+      <c r="D224" s="52"/>
       <c r="E224" s="37" t="s">
         <v>18</v>
       </c>
@@ -19245,7 +19266,7 @@
         <v>12000</v>
       </c>
       <c r="G224" s="39" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H224" s="39"/>
       <c r="I224" s="38">
@@ -19263,9 +19284,9 @@
         <v>412</v>
       </c>
       <c r="C225" s="37" t="s">
-        <v>306</v>
-      </c>
-      <c r="D225" s="66"/>
+        <v>305</v>
+      </c>
+      <c r="D225" s="52"/>
       <c r="E225" s="37" t="s">
         <v>18</v>
       </c>
@@ -19273,7 +19294,7 @@
         <v>12000</v>
       </c>
       <c r="G225" s="39" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H225" s="39"/>
       <c r="I225" s="38">
@@ -19291,9 +19312,9 @@
         <v>413</v>
       </c>
       <c r="C226" s="37" t="s">
-        <v>307</v>
-      </c>
-      <c r="D226" s="66"/>
+        <v>306</v>
+      </c>
+      <c r="D226" s="52"/>
       <c r="E226" s="37" t="s">
         <v>18</v>
       </c>
@@ -19301,7 +19322,7 @@
         <v>12000</v>
       </c>
       <c r="G226" s="39" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H226" s="39"/>
       <c r="I226" s="38">
@@ -19319,9 +19340,9 @@
         <v>414</v>
       </c>
       <c r="C227" s="37" t="s">
-        <v>308</v>
-      </c>
-      <c r="D227" s="66"/>
+        <v>307</v>
+      </c>
+      <c r="D227" s="52"/>
       <c r="E227" s="37" t="s">
         <v>18</v>
       </c>
@@ -19329,7 +19350,7 @@
         <v>12000</v>
       </c>
       <c r="G227" s="39" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H227" s="39"/>
       <c r="I227" s="38">
@@ -19347,9 +19368,9 @@
         <v>420</v>
       </c>
       <c r="C228" s="37" t="s">
-        <v>309</v>
-      </c>
-      <c r="D228" s="66"/>
+        <v>308</v>
+      </c>
+      <c r="D228" s="52"/>
       <c r="E228" s="37" t="s">
         <v>18</v>
       </c>
@@ -19357,7 +19378,7 @@
         <v>12000</v>
       </c>
       <c r="G228" s="39" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H228" s="39"/>
       <c r="I228" s="38">
@@ -19375,9 +19396,9 @@
         <v>421</v>
       </c>
       <c r="C229" s="37" t="s">
-        <v>310</v>
-      </c>
-      <c r="D229" s="66"/>
+        <v>309</v>
+      </c>
+      <c r="D229" s="52"/>
       <c r="E229" s="37" t="s">
         <v>18</v>
       </c>
@@ -19385,7 +19406,7 @@
         <v>12000</v>
       </c>
       <c r="G229" s="39" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H229" s="39"/>
       <c r="I229" s="38">
@@ -19399,19 +19420,19 @@
       <c r="A230" s="12">
         <v>224</v>
       </c>
-      <c r="B230" s="55" t="s">
-        <v>311</v>
-      </c>
-      <c r="C230" s="55"/>
-      <c r="D230" s="55"/>
-      <c r="E230" s="55"/>
-      <c r="F230" s="55"/>
-      <c r="G230" s="55"/>
-      <c r="H230" s="55"/>
-      <c r="I230" s="55"/>
-      <c r="J230" s="55"/>
-      <c r="K230" s="55"/>
-      <c r="L230" s="55"/>
+      <c r="B230" s="58" t="s">
+        <v>310</v>
+      </c>
+      <c r="C230" s="58"/>
+      <c r="D230" s="58"/>
+      <c r="E230" s="58"/>
+      <c r="F230" s="58"/>
+      <c r="G230" s="58"/>
+      <c r="H230" s="58"/>
+      <c r="I230" s="58"/>
+      <c r="J230" s="58"/>
+      <c r="K230" s="58"/>
+      <c r="L230" s="58"/>
     </row>
     <row r="231" spans="1:12">
       <c r="A231" s="12">
@@ -19421,9 +19442,9 @@
         <v>406</v>
       </c>
       <c r="C231" s="37" t="s">
-        <v>312</v>
-      </c>
-      <c r="D231" s="66"/>
+        <v>311</v>
+      </c>
+      <c r="D231" s="52"/>
       <c r="E231" s="37" t="s">
         <v>14</v>
       </c>
@@ -19431,7 +19452,7 @@
         <v>7000</v>
       </c>
       <c r="G231" s="39" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H231" s="39"/>
       <c r="I231" s="39"/>
@@ -19443,19 +19464,19 @@
       <c r="A232" s="12">
         <v>226</v>
       </c>
-      <c r="B232" s="55" t="s">
-        <v>313</v>
-      </c>
-      <c r="C232" s="55"/>
-      <c r="D232" s="55"/>
-      <c r="E232" s="55"/>
-      <c r="F232" s="55"/>
-      <c r="G232" s="55"/>
-      <c r="H232" s="55"/>
-      <c r="I232" s="55"/>
-      <c r="J232" s="55"/>
-      <c r="K232" s="55"/>
-      <c r="L232" s="55"/>
+      <c r="B232" s="58" t="s">
+        <v>312</v>
+      </c>
+      <c r="C232" s="58"/>
+      <c r="D232" s="58"/>
+      <c r="E232" s="58"/>
+      <c r="F232" s="58"/>
+      <c r="G232" s="58"/>
+      <c r="H232" s="58"/>
+      <c r="I232" s="58"/>
+      <c r="J232" s="58"/>
+      <c r="K232" s="58"/>
+      <c r="L232" s="58"/>
     </row>
     <row r="233" spans="1:12">
       <c r="A233" s="12">
@@ -19465,10 +19486,10 @@
         <v>330</v>
       </c>
       <c r="C233" s="37" t="s">
-        <v>314</v>
-      </c>
-      <c r="D233" s="67" t="s">
-        <v>75</v>
+        <v>313</v>
+      </c>
+      <c r="D233" s="53" t="s">
+        <v>74</v>
       </c>
       <c r="E233" s="37" t="s">
         <v>48</v>
@@ -19477,7 +19498,7 @@
         <v>3600</v>
       </c>
       <c r="G233" s="39" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H233" s="39"/>
       <c r="I233" s="39"/>
@@ -19493,10 +19514,10 @@
         <v>331</v>
       </c>
       <c r="C234" s="41" t="s">
-        <v>316</v>
-      </c>
-      <c r="D234" s="67" t="s">
-        <v>75</v>
+        <v>315</v>
+      </c>
+      <c r="D234" s="53" t="s">
+        <v>74</v>
       </c>
       <c r="E234" s="37" t="s">
         <v>48</v>
@@ -19505,7 +19526,7 @@
         <v>3600</v>
       </c>
       <c r="G234" s="39" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H234" s="39"/>
       <c r="I234" s="39"/>
@@ -19521,10 +19542,10 @@
         <v>332</v>
       </c>
       <c r="C235" s="41" t="s">
-        <v>317</v>
-      </c>
-      <c r="D235" s="67" t="s">
-        <v>75</v>
+        <v>316</v>
+      </c>
+      <c r="D235" s="53" t="s">
+        <v>74</v>
       </c>
       <c r="E235" s="37" t="s">
         <v>48</v>
@@ -19533,7 +19554,7 @@
         <v>3600</v>
       </c>
       <c r="G235" s="39" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H235" s="39"/>
       <c r="I235" s="39"/>
@@ -19549,10 +19570,10 @@
         <v>333</v>
       </c>
       <c r="C236" s="41" t="s">
-        <v>318</v>
-      </c>
-      <c r="D236" s="67" t="s">
-        <v>75</v>
+        <v>317</v>
+      </c>
+      <c r="D236" s="53" t="s">
+        <v>74</v>
       </c>
       <c r="E236" s="37" t="s">
         <v>48</v>
@@ -19561,7 +19582,7 @@
         <v>3600</v>
       </c>
       <c r="G236" s="39" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H236" s="39"/>
       <c r="I236" s="39"/>
@@ -19577,10 +19598,10 @@
         <v>334</v>
       </c>
       <c r="C237" s="41" t="s">
-        <v>319</v>
-      </c>
-      <c r="D237" s="67" t="s">
-        <v>81</v>
+        <v>318</v>
+      </c>
+      <c r="D237" s="53" t="s">
+        <v>80</v>
       </c>
       <c r="E237" s="37" t="s">
         <v>48</v>
@@ -19589,7 +19610,7 @@
         <v>3600</v>
       </c>
       <c r="G237" s="39" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H237" s="39"/>
       <c r="I237" s="39"/>
@@ -19605,10 +19626,10 @@
         <v>335</v>
       </c>
       <c r="C238" s="41" t="s">
-        <v>320</v>
-      </c>
-      <c r="D238" s="67" t="s">
-        <v>81</v>
+        <v>319</v>
+      </c>
+      <c r="D238" s="53" t="s">
+        <v>80</v>
       </c>
       <c r="E238" s="37" t="s">
         <v>48</v>
@@ -19617,7 +19638,7 @@
         <v>3600</v>
       </c>
       <c r="G238" s="39" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H238" s="39"/>
       <c r="I238" s="39"/>
@@ -19633,10 +19654,10 @@
         <v>336</v>
       </c>
       <c r="C239" s="41" t="s">
-        <v>321</v>
-      </c>
-      <c r="D239" s="67" t="s">
-        <v>81</v>
+        <v>320</v>
+      </c>
+      <c r="D239" s="53" t="s">
+        <v>80</v>
       </c>
       <c r="E239" s="37" t="s">
         <v>48</v>
@@ -19645,7 +19666,7 @@
         <v>3600</v>
       </c>
       <c r="G239" s="39" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H239" s="39"/>
       <c r="I239" s="39"/>
@@ -19661,10 +19682,10 @@
         <v>337</v>
       </c>
       <c r="C240" s="41" t="s">
-        <v>322</v>
-      </c>
-      <c r="D240" s="67" t="s">
-        <v>81</v>
+        <v>321</v>
+      </c>
+      <c r="D240" s="53" t="s">
+        <v>80</v>
       </c>
       <c r="E240" s="37" t="s">
         <v>48</v>
@@ -19673,7 +19694,7 @@
         <v>3600</v>
       </c>
       <c r="G240" s="39" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H240" s="39"/>
       <c r="I240" s="39"/>
@@ -19689,10 +19710,10 @@
         <v>338</v>
       </c>
       <c r="C241" s="41" t="s">
-        <v>323</v>
-      </c>
-      <c r="D241" s="67" t="s">
-        <v>81</v>
+        <v>322</v>
+      </c>
+      <c r="D241" s="53" t="s">
+        <v>80</v>
       </c>
       <c r="E241" s="37" t="s">
         <v>48</v>
@@ -19701,7 +19722,7 @@
         <v>3600</v>
       </c>
       <c r="G241" s="39" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H241" s="39"/>
       <c r="I241" s="39"/>
@@ -19717,10 +19738,10 @@
         <v>339</v>
       </c>
       <c r="C242" s="41" t="s">
-        <v>324</v>
-      </c>
-      <c r="D242" s="67" t="s">
-        <v>81</v>
+        <v>323</v>
+      </c>
+      <c r="D242" s="53" t="s">
+        <v>80</v>
       </c>
       <c r="E242" s="37" t="s">
         <v>48</v>
@@ -19729,7 +19750,7 @@
         <v>3600</v>
       </c>
       <c r="G242" s="39" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H242" s="39"/>
       <c r="I242" s="39"/>
@@ -19745,10 +19766,10 @@
         <v>340</v>
       </c>
       <c r="C243" s="41" t="s">
-        <v>325</v>
-      </c>
-      <c r="D243" s="67" t="s">
-        <v>81</v>
+        <v>324</v>
+      </c>
+      <c r="D243" s="53" t="s">
+        <v>80</v>
       </c>
       <c r="E243" s="37" t="s">
         <v>14</v>
@@ -19757,7 +19778,7 @@
         <v>3600</v>
       </c>
       <c r="G243" s="39" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H243" s="39"/>
       <c r="I243" s="39"/>
@@ -19773,10 +19794,10 @@
         <v>341</v>
       </c>
       <c r="C244" s="41" t="s">
-        <v>326</v>
-      </c>
-      <c r="D244" s="67" t="s">
-        <v>81</v>
+        <v>325</v>
+      </c>
+      <c r="D244" s="53" t="s">
+        <v>80</v>
       </c>
       <c r="E244" s="37" t="s">
         <v>14</v>
@@ -19785,7 +19806,7 @@
         <v>3600</v>
       </c>
       <c r="G244" s="39" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H244" s="39"/>
       <c r="I244" s="39"/>
@@ -19801,19 +19822,19 @@
         <v>342</v>
       </c>
       <c r="C245" s="37" t="s">
-        <v>327</v>
-      </c>
-      <c r="D245" s="67" t="s">
-        <v>81</v>
+        <v>326</v>
+      </c>
+      <c r="D245" s="53" t="s">
+        <v>80</v>
       </c>
       <c r="E245" s="37" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F245" s="38">
         <v>3600</v>
       </c>
       <c r="G245" s="39" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H245" s="39"/>
       <c r="I245" s="39"/>
@@ -19829,19 +19850,19 @@
         <v>343</v>
       </c>
       <c r="C246" s="37" t="s">
-        <v>327</v>
-      </c>
-      <c r="D246" s="67" t="s">
-        <v>81</v>
+        <v>326</v>
+      </c>
+      <c r="D246" s="53" t="s">
+        <v>80</v>
       </c>
       <c r="E246" s="37" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F246" s="38">
         <v>3600</v>
       </c>
       <c r="G246" s="39" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H246" s="39"/>
       <c r="I246" s="39"/>
@@ -19853,19 +19874,19 @@
       <c r="A247" s="12">
         <v>241</v>
       </c>
-      <c r="B247" s="55" t="s">
-        <v>328</v>
-      </c>
-      <c r="C247" s="55"/>
-      <c r="D247" s="55"/>
-      <c r="E247" s="55"/>
-      <c r="F247" s="55"/>
-      <c r="G247" s="55"/>
-      <c r="H247" s="55"/>
-      <c r="I247" s="55"/>
-      <c r="J247" s="55"/>
-      <c r="K247" s="55"/>
-      <c r="L247" s="55"/>
+      <c r="B247" s="58" t="s">
+        <v>327</v>
+      </c>
+      <c r="C247" s="58"/>
+      <c r="D247" s="58"/>
+      <c r="E247" s="58"/>
+      <c r="F247" s="58"/>
+      <c r="G247" s="58"/>
+      <c r="H247" s="58"/>
+      <c r="I247" s="58"/>
+      <c r="J247" s="58"/>
+      <c r="K247" s="58"/>
+      <c r="L247" s="58"/>
     </row>
     <row r="248" spans="1:12">
       <c r="A248" s="12">
@@ -19875,19 +19896,19 @@
         <v>320</v>
       </c>
       <c r="C248" s="37" t="s">
-        <v>329</v>
-      </c>
-      <c r="D248" s="67" t="s">
-        <v>203</v>
+        <v>328</v>
+      </c>
+      <c r="D248" s="53" t="s">
+        <v>202</v>
       </c>
       <c r="E248" s="37" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F248" s="38">
         <v>2250</v>
       </c>
       <c r="G248" s="39" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H248" s="39"/>
       <c r="I248" s="39"/>
@@ -19903,19 +19924,19 @@
         <v>314</v>
       </c>
       <c r="C249" s="37" t="s">
+        <v>329</v>
+      </c>
+      <c r="D249" s="51" t="s">
         <v>330</v>
       </c>
-      <c r="D249" s="68" t="s">
-        <v>331</v>
-      </c>
       <c r="E249" s="37" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F249" s="38">
         <v>2250</v>
       </c>
       <c r="G249" s="39" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H249" s="39"/>
       <c r="I249" s="39"/>
@@ -19931,19 +19952,19 @@
         <v>315</v>
       </c>
       <c r="C250" s="37" t="s">
-        <v>332</v>
-      </c>
-      <c r="D250" s="68" t="s">
         <v>331</v>
       </c>
+      <c r="D250" s="51" t="s">
+        <v>330</v>
+      </c>
       <c r="E250" s="37" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F250" s="38">
         <v>2250</v>
       </c>
       <c r="G250" s="39" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H250" s="39"/>
       <c r="I250" s="39"/>
@@ -19959,19 +19980,19 @@
         <v>316</v>
       </c>
       <c r="C251" s="37" t="s">
-        <v>333</v>
-      </c>
-      <c r="D251" s="68" t="s">
-        <v>331</v>
+        <v>332</v>
+      </c>
+      <c r="D251" s="51" t="s">
+        <v>330</v>
       </c>
       <c r="E251" s="37" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F251" s="38">
         <v>2250</v>
       </c>
       <c r="G251" s="39" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H251" s="39"/>
       <c r="I251" s="39"/>
@@ -19987,19 +20008,19 @@
         <v>321</v>
       </c>
       <c r="C252" s="37" t="s">
-        <v>334</v>
-      </c>
-      <c r="D252" s="68" t="s">
-        <v>331</v>
+        <v>333</v>
+      </c>
+      <c r="D252" s="51" t="s">
+        <v>330</v>
       </c>
       <c r="E252" s="37" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F252" s="38">
         <v>2250</v>
       </c>
       <c r="G252" s="39" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H252" s="39"/>
       <c r="I252" s="39"/>
@@ -20015,19 +20036,19 @@
         <v>322</v>
       </c>
       <c r="C253" s="37" t="s">
-        <v>335</v>
-      </c>
-      <c r="D253" s="68" t="s">
-        <v>331</v>
+        <v>334</v>
+      </c>
+      <c r="D253" s="51" t="s">
+        <v>330</v>
       </c>
       <c r="E253" s="37" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F253" s="38">
         <v>2250</v>
       </c>
       <c r="G253" s="39" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H253" s="39"/>
       <c r="I253" s="39"/>
@@ -20043,19 +20064,19 @@
         <v>323</v>
       </c>
       <c r="C254" s="37" t="s">
-        <v>336</v>
-      </c>
-      <c r="D254" s="68" t="s">
-        <v>331</v>
+        <v>335</v>
+      </c>
+      <c r="D254" s="51" t="s">
+        <v>330</v>
       </c>
       <c r="E254" s="37" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F254" s="38">
         <v>2250</v>
       </c>
       <c r="G254" s="39" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H254" s="39"/>
       <c r="I254" s="39"/>
@@ -20071,19 +20092,19 @@
         <v>327</v>
       </c>
       <c r="C255" s="37" t="s">
-        <v>337</v>
-      </c>
-      <c r="D255" s="68" t="s">
-        <v>331</v>
+        <v>336</v>
+      </c>
+      <c r="D255" s="51" t="s">
+        <v>330</v>
       </c>
       <c r="E255" s="37" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F255" s="38">
         <v>2250</v>
       </c>
       <c r="G255" s="39" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H255" s="39"/>
       <c r="I255" s="39"/>
@@ -20099,19 +20120,19 @@
         <v>328</v>
       </c>
       <c r="C256" s="37" t="s">
-        <v>338</v>
-      </c>
-      <c r="D256" s="68" t="s">
-        <v>331</v>
+        <v>337</v>
+      </c>
+      <c r="D256" s="51" t="s">
+        <v>330</v>
       </c>
       <c r="E256" s="37" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F256" s="38">
         <v>2250</v>
       </c>
       <c r="G256" s="39" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H256" s="39"/>
       <c r="I256" s="39"/>
@@ -20127,19 +20148,19 @@
         <v>324</v>
       </c>
       <c r="C257" s="37" t="s">
-        <v>339</v>
-      </c>
-      <c r="D257" s="68" t="s">
-        <v>331</v>
+        <v>338</v>
+      </c>
+      <c r="D257" s="51" t="s">
+        <v>330</v>
       </c>
       <c r="E257" s="37" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F257" s="38">
         <v>2250</v>
       </c>
       <c r="G257" s="39" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H257" s="39"/>
       <c r="I257" s="39"/>
@@ -20155,19 +20176,19 @@
         <v>325</v>
       </c>
       <c r="C258" s="37" t="s">
-        <v>340</v>
-      </c>
-      <c r="D258" s="68" t="s">
-        <v>331</v>
+        <v>339</v>
+      </c>
+      <c r="D258" s="51" t="s">
+        <v>330</v>
       </c>
       <c r="E258" s="37" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F258" s="38">
         <v>2250</v>
       </c>
       <c r="G258" s="39" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H258" s="39"/>
       <c r="I258" s="39"/>
@@ -20183,19 +20204,19 @@
         <v>326</v>
       </c>
       <c r="C259" s="37" t="s">
-        <v>341</v>
-      </c>
-      <c r="D259" s="68" t="s">
-        <v>331</v>
+        <v>340</v>
+      </c>
+      <c r="D259" s="51" t="s">
+        <v>330</v>
       </c>
       <c r="E259" s="37" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F259" s="38">
         <v>2250</v>
       </c>
       <c r="G259" s="39" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H259" s="39"/>
       <c r="I259" s="39"/>
@@ -20211,19 +20232,19 @@
         <v>329</v>
       </c>
       <c r="C260" s="37" t="s">
-        <v>342</v>
-      </c>
-      <c r="D260" s="68" t="s">
-        <v>331</v>
+        <v>341</v>
+      </c>
+      <c r="D260" s="51" t="s">
+        <v>330</v>
       </c>
       <c r="E260" s="37" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F260" s="38">
         <v>2250</v>
       </c>
       <c r="G260" s="39" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H260" s="39"/>
       <c r="I260" s="39"/>
@@ -20235,19 +20256,19 @@
       <c r="A261" s="12">
         <v>255</v>
       </c>
-      <c r="B261" s="55" t="s">
-        <v>343</v>
-      </c>
-      <c r="C261" s="55"/>
-      <c r="D261" s="55"/>
-      <c r="E261" s="55"/>
-      <c r="F261" s="55"/>
-      <c r="G261" s="55"/>
-      <c r="H261" s="55"/>
-      <c r="I261" s="55"/>
-      <c r="J261" s="55"/>
-      <c r="K261" s="55"/>
-      <c r="L261" s="55"/>
+      <c r="B261" s="58" t="s">
+        <v>342</v>
+      </c>
+      <c r="C261" s="58"/>
+      <c r="D261" s="58"/>
+      <c r="E261" s="58"/>
+      <c r="F261" s="58"/>
+      <c r="G261" s="58"/>
+      <c r="H261" s="58"/>
+      <c r="I261" s="58"/>
+      <c r="J261" s="58"/>
+      <c r="K261" s="58"/>
+      <c r="L261" s="58"/>
     </row>
     <row r="262" spans="1:12">
       <c r="A262" s="12">
@@ -20257,10 +20278,10 @@
         <v>364</v>
       </c>
       <c r="C262" s="37" t="s">
+        <v>343</v>
+      </c>
+      <c r="D262" s="51" t="s">
         <v>344</v>
-      </c>
-      <c r="D262" s="68" t="s">
-        <v>345</v>
       </c>
       <c r="E262" s="37" t="s">
         <v>48</v>
@@ -20269,7 +20290,7 @@
         <v>3000</v>
       </c>
       <c r="G262" s="39" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H262" s="39"/>
       <c r="I262" s="39"/>
@@ -20285,10 +20306,10 @@
         <v>365</v>
       </c>
       <c r="C263" s="37" t="s">
-        <v>346</v>
-      </c>
-      <c r="D263" s="68" t="s">
         <v>345</v>
+      </c>
+      <c r="D263" s="51" t="s">
+        <v>344</v>
       </c>
       <c r="E263" s="37" t="s">
         <v>48</v>
@@ -20297,7 +20318,7 @@
         <v>3000</v>
       </c>
       <c r="G263" s="39" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H263" s="39"/>
       <c r="I263" s="39"/>
@@ -20313,10 +20334,10 @@
         <v>366</v>
       </c>
       <c r="C264" s="37" t="s">
+        <v>346</v>
+      </c>
+      <c r="D264" s="51" t="s">
         <v>347</v>
-      </c>
-      <c r="D264" s="68" t="s">
-        <v>348</v>
       </c>
       <c r="E264" s="37" t="s">
         <v>48</v>
@@ -20325,7 +20346,7 @@
         <v>3950</v>
       </c>
       <c r="G264" s="39" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H264" s="39"/>
       <c r="I264" s="39"/>
@@ -20341,10 +20362,10 @@
         <v>367</v>
       </c>
       <c r="C265" s="37" t="s">
-        <v>349</v>
-      </c>
-      <c r="D265" s="68" t="s">
         <v>348</v>
+      </c>
+      <c r="D265" s="51" t="s">
+        <v>347</v>
       </c>
       <c r="E265" s="37" t="s">
         <v>48</v>
@@ -20353,7 +20374,7 @@
         <v>3950</v>
       </c>
       <c r="G265" s="39" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H265" s="39"/>
       <c r="I265" s="39"/>
@@ -20369,10 +20390,10 @@
         <v>368</v>
       </c>
       <c r="C266" s="37" t="s">
+        <v>349</v>
+      </c>
+      <c r="D266" s="51" t="s">
         <v>350</v>
-      </c>
-      <c r="D266" s="68" t="s">
-        <v>351</v>
       </c>
       <c r="E266" s="37" t="s">
         <v>48</v>
@@ -20381,7 +20402,7 @@
         <v>3950</v>
       </c>
       <c r="G266" s="39" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H266" s="39"/>
       <c r="I266" s="39"/>
@@ -20397,10 +20418,10 @@
         <v>369</v>
       </c>
       <c r="C267" s="37" t="s">
-        <v>352</v>
-      </c>
-      <c r="D267" s="68" t="s">
         <v>351</v>
+      </c>
+      <c r="D267" s="51" t="s">
+        <v>350</v>
       </c>
       <c r="E267" s="37" t="s">
         <v>48</v>
@@ -20409,7 +20430,7 @@
         <v>3950</v>
       </c>
       <c r="G267" s="39" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H267" s="39"/>
       <c r="I267" s="39"/>
@@ -20425,10 +20446,10 @@
         <v>370</v>
       </c>
       <c r="C268" s="37" t="s">
-        <v>353</v>
-      </c>
-      <c r="D268" s="68" t="s">
-        <v>351</v>
+        <v>352</v>
+      </c>
+      <c r="D268" s="51" t="s">
+        <v>350</v>
       </c>
       <c r="E268" s="37" t="s">
         <v>18</v>
@@ -20437,7 +20458,7 @@
         <v>3950</v>
       </c>
       <c r="G268" s="39" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H268" s="39"/>
       <c r="I268" s="39"/>
@@ -20453,10 +20474,10 @@
         <v>371</v>
       </c>
       <c r="C269" s="37" t="s">
-        <v>354</v>
-      </c>
-      <c r="D269" s="68" t="s">
-        <v>351</v>
+        <v>353</v>
+      </c>
+      <c r="D269" s="51" t="s">
+        <v>350</v>
       </c>
       <c r="E269" s="37" t="s">
         <v>18</v>
@@ -20465,7 +20486,7 @@
         <v>3950</v>
       </c>
       <c r="G269" s="39" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H269" s="39"/>
       <c r="I269" s="39"/>
@@ -20481,10 +20502,10 @@
         <v>372</v>
       </c>
       <c r="C270" s="37" t="s">
-        <v>355</v>
-      </c>
-      <c r="D270" s="68" t="s">
-        <v>351</v>
+        <v>354</v>
+      </c>
+      <c r="D270" s="51" t="s">
+        <v>350</v>
       </c>
       <c r="E270" s="37" t="s">
         <v>18</v>
@@ -20493,7 +20514,7 @@
         <v>3950</v>
       </c>
       <c r="G270" s="39" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H270" s="39"/>
       <c r="I270" s="39"/>
@@ -20509,10 +20530,10 @@
         <v>373</v>
       </c>
       <c r="C271" s="37" t="s">
-        <v>356</v>
-      </c>
-      <c r="D271" s="68" t="s">
-        <v>351</v>
+        <v>355</v>
+      </c>
+      <c r="D271" s="51" t="s">
+        <v>350</v>
       </c>
       <c r="E271" s="37" t="s">
         <v>18</v>
@@ -20521,7 +20542,7 @@
         <v>3950</v>
       </c>
       <c r="G271" s="39" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H271" s="39"/>
       <c r="I271" s="39"/>
@@ -20537,10 +20558,10 @@
         <v>374</v>
       </c>
       <c r="C272" s="37" t="s">
-        <v>357</v>
-      </c>
-      <c r="D272" s="68" t="s">
-        <v>351</v>
+        <v>356</v>
+      </c>
+      <c r="D272" s="51" t="s">
+        <v>350</v>
       </c>
       <c r="E272" s="37" t="s">
         <v>18</v>
@@ -20549,7 +20570,7 @@
         <v>3950</v>
       </c>
       <c r="G272" s="39" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H272" s="39"/>
       <c r="I272" s="39"/>
@@ -20565,10 +20586,10 @@
         <v>375</v>
       </c>
       <c r="C273" s="37" t="s">
-        <v>358</v>
-      </c>
-      <c r="D273" s="68" t="s">
-        <v>351</v>
+        <v>357</v>
+      </c>
+      <c r="D273" s="51" t="s">
+        <v>350</v>
       </c>
       <c r="E273" s="37" t="s">
         <v>18</v>
@@ -20577,7 +20598,7 @@
         <v>3950</v>
       </c>
       <c r="G273" s="39" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H273" s="39"/>
       <c r="I273" s="39"/>
@@ -20589,19 +20610,19 @@
       <c r="A274" s="12">
         <v>268</v>
       </c>
-      <c r="B274" s="55" t="s">
-        <v>359</v>
-      </c>
-      <c r="C274" s="55"/>
-      <c r="D274" s="55"/>
-      <c r="E274" s="55"/>
-      <c r="F274" s="55"/>
-      <c r="G274" s="55"/>
-      <c r="H274" s="55"/>
-      <c r="I274" s="55"/>
-      <c r="J274" s="55"/>
-      <c r="K274" s="55"/>
-      <c r="L274" s="55"/>
+      <c r="B274" s="58" t="s">
+        <v>358</v>
+      </c>
+      <c r="C274" s="58"/>
+      <c r="D274" s="58"/>
+      <c r="E274" s="58"/>
+      <c r="F274" s="58"/>
+      <c r="G274" s="58"/>
+      <c r="H274" s="58"/>
+      <c r="I274" s="58"/>
+      <c r="J274" s="58"/>
+      <c r="K274" s="58"/>
+      <c r="L274" s="58"/>
     </row>
     <row r="275" spans="1:12">
       <c r="A275" s="12">
@@ -20611,10 +20632,10 @@
         <v>309</v>
       </c>
       <c r="C275" s="37" t="s">
+        <v>359</v>
+      </c>
+      <c r="D275" s="51" t="s">
         <v>360</v>
-      </c>
-      <c r="D275" s="68" t="s">
-        <v>361</v>
       </c>
       <c r="E275" s="37" t="s">
         <v>18</v>
@@ -20623,7 +20644,7 @@
         <v>2100</v>
       </c>
       <c r="G275" s="39" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H275" s="39"/>
       <c r="I275" s="39"/>
@@ -20639,10 +20660,10 @@
         <v>310</v>
       </c>
       <c r="C276" s="37" t="s">
-        <v>362</v>
-      </c>
-      <c r="D276" s="68" t="s">
         <v>361</v>
+      </c>
+      <c r="D276" s="51" t="s">
+        <v>360</v>
       </c>
       <c r="E276" s="37" t="s">
         <v>18</v>
@@ -20651,7 +20672,7 @@
         <v>2100</v>
       </c>
       <c r="G276" s="39" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H276" s="39"/>
       <c r="I276" s="39"/>
@@ -20667,10 +20688,10 @@
         <v>311</v>
       </c>
       <c r="C277" s="37" t="s">
-        <v>363</v>
-      </c>
-      <c r="D277" s="68" t="s">
-        <v>361</v>
+        <v>362</v>
+      </c>
+      <c r="D277" s="51" t="s">
+        <v>360</v>
       </c>
       <c r="E277" s="37" t="s">
         <v>18</v>
@@ -20679,7 +20700,7 @@
         <v>2100</v>
       </c>
       <c r="G277" s="39" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H277" s="39"/>
       <c r="I277" s="39"/>
@@ -20695,10 +20716,10 @@
         <v>312</v>
       </c>
       <c r="C278" s="37" t="s">
-        <v>364</v>
-      </c>
-      <c r="D278" s="68" t="s">
-        <v>361</v>
+        <v>363</v>
+      </c>
+      <c r="D278" s="51" t="s">
+        <v>360</v>
       </c>
       <c r="E278" s="37" t="s">
         <v>18</v>
@@ -20707,7 +20728,7 @@
         <v>2100</v>
       </c>
       <c r="G278" s="39" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H278" s="39"/>
       <c r="I278" s="39"/>
@@ -20723,10 +20744,10 @@
         <v>313</v>
       </c>
       <c r="C279" s="37" t="s">
-        <v>365</v>
-      </c>
-      <c r="D279" s="68" t="s">
-        <v>361</v>
+        <v>364</v>
+      </c>
+      <c r="D279" s="51" t="s">
+        <v>360</v>
       </c>
       <c r="E279" s="37" t="s">
         <v>18</v>
@@ -20735,7 +20756,7 @@
         <v>2100</v>
       </c>
       <c r="G279" s="39" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H279" s="39"/>
       <c r="I279" s="39"/>
@@ -20751,10 +20772,10 @@
         <v>359</v>
       </c>
       <c r="C280" s="37" t="s">
-        <v>366</v>
-      </c>
-      <c r="D280" s="68" t="s">
-        <v>331</v>
+        <v>365</v>
+      </c>
+      <c r="D280" s="51" t="s">
+        <v>330</v>
       </c>
       <c r="E280" s="37" t="s">
         <v>14</v>
@@ -20763,7 +20784,7 @@
         <v>2100</v>
       </c>
       <c r="G280" s="39" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H280" s="39"/>
       <c r="I280" s="39"/>
@@ -20779,10 +20800,10 @@
         <v>360</v>
       </c>
       <c r="C281" s="37" t="s">
-        <v>367</v>
-      </c>
-      <c r="D281" s="68" t="s">
-        <v>331</v>
+        <v>366</v>
+      </c>
+      <c r="D281" s="51" t="s">
+        <v>330</v>
       </c>
       <c r="E281" s="37" t="s">
         <v>14</v>
@@ -20791,7 +20812,7 @@
         <v>2100</v>
       </c>
       <c r="G281" s="39" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H281" s="39"/>
       <c r="I281" s="39"/>
@@ -20807,10 +20828,10 @@
         <v>362</v>
       </c>
       <c r="C282" s="37" t="s">
-        <v>368</v>
-      </c>
-      <c r="D282" s="68" t="s">
-        <v>331</v>
+        <v>367</v>
+      </c>
+      <c r="D282" s="51" t="s">
+        <v>330</v>
       </c>
       <c r="E282" s="37" t="s">
         <v>14</v>
@@ -20819,7 +20840,7 @@
         <v>2100</v>
       </c>
       <c r="G282" s="39" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H282" s="39"/>
       <c r="I282" s="39"/>
@@ -20835,10 +20856,10 @@
         <v>363</v>
       </c>
       <c r="C283" s="37" t="s">
-        <v>369</v>
-      </c>
-      <c r="D283" s="68" t="s">
-        <v>331</v>
+        <v>368</v>
+      </c>
+      <c r="D283" s="51" t="s">
+        <v>330</v>
       </c>
       <c r="E283" s="37" t="s">
         <v>14</v>
@@ -20847,7 +20868,7 @@
         <v>2100</v>
       </c>
       <c r="G283" s="39" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H283" s="39"/>
       <c r="I283" s="39"/>
@@ -20863,10 +20884,10 @@
         <v>305</v>
       </c>
       <c r="C284" s="37" t="s">
-        <v>370</v>
-      </c>
-      <c r="D284" s="68" t="s">
-        <v>331</v>
+        <v>369</v>
+      </c>
+      <c r="D284" s="51" t="s">
+        <v>330</v>
       </c>
       <c r="E284" s="37" t="s">
         <v>18</v>
@@ -20875,7 +20896,7 @@
         <v>2100</v>
       </c>
       <c r="G284" s="39" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H284" s="39"/>
       <c r="I284" s="39"/>
@@ -20891,10 +20912,10 @@
         <v>306</v>
       </c>
       <c r="C285" s="37" t="s">
-        <v>371</v>
-      </c>
-      <c r="D285" s="68" t="s">
-        <v>331</v>
+        <v>370</v>
+      </c>
+      <c r="D285" s="51" t="s">
+        <v>330</v>
       </c>
       <c r="E285" s="37" t="s">
         <v>18</v>
@@ -20903,7 +20924,7 @@
         <v>2100</v>
       </c>
       <c r="G285" s="39" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H285" s="39"/>
       <c r="I285" s="39"/>
@@ -20919,10 +20940,10 @@
         <v>307</v>
       </c>
       <c r="C286" s="37" t="s">
-        <v>372</v>
-      </c>
-      <c r="D286" s="68" t="s">
-        <v>331</v>
+        <v>371</v>
+      </c>
+      <c r="D286" s="51" t="s">
+        <v>330</v>
       </c>
       <c r="E286" s="37" t="s">
         <v>18</v>
@@ -20931,7 +20952,7 @@
         <v>2100</v>
       </c>
       <c r="G286" s="39" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H286" s="39"/>
       <c r="I286" s="39"/>
@@ -20947,10 +20968,10 @@
         <v>308</v>
       </c>
       <c r="C287" s="37" t="s">
-        <v>373</v>
-      </c>
-      <c r="D287" s="68" t="s">
-        <v>331</v>
+        <v>372</v>
+      </c>
+      <c r="D287" s="51" t="s">
+        <v>330</v>
       </c>
       <c r="E287" s="37" t="s">
         <v>18</v>
@@ -20959,7 +20980,7 @@
         <v>2100</v>
       </c>
       <c r="G287" s="39" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H287" s="39"/>
       <c r="I287" s="39"/>
@@ -20972,7 +20993,7 @@
         <v>282</v>
       </c>
       <c r="B288" s="56" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C288" s="56"/>
       <c r="D288" s="56"/>
@@ -20995,7 +21016,7 @@
       <c r="C289" s="42">
         <v>3315</v>
       </c>
-      <c r="D289" s="69">
+      <c r="D289" s="54">
         <v>3317</v>
       </c>
       <c r="E289" s="42">
@@ -21021,7 +21042,7 @@
       <c r="C290" s="42">
         <v>3129</v>
       </c>
-      <c r="D290" s="69">
+      <c r="D290" s="54">
         <v>3233</v>
       </c>
       <c r="E290" s="42">
@@ -21047,7 +21068,7 @@
       <c r="C291" s="42">
         <v>3357</v>
       </c>
-      <c r="D291" s="69">
+      <c r="D291" s="54">
         <v>3359</v>
       </c>
       <c r="E291" s="42">
@@ -21073,7 +21094,7 @@
       <c r="C292" s="42">
         <v>3116</v>
       </c>
-      <c r="D292" s="69">
+      <c r="D292" s="54">
         <v>3128</v>
       </c>
       <c r="E292" s="42">
@@ -21094,7 +21115,7 @@
         <v>287</v>
       </c>
       <c r="B293" s="56" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C293" s="56"/>
       <c r="D293" s="56"/>
@@ -21117,7 +21138,7 @@
       <c r="C294" s="42">
         <v>3325</v>
       </c>
-      <c r="D294" s="69">
+      <c r="D294" s="54">
         <v>3327</v>
       </c>
       <c r="E294" s="42">
@@ -21141,7 +21162,7 @@
       <c r="C295" s="42">
         <v>3329</v>
       </c>
-      <c r="D295" s="69">
+      <c r="D295" s="54">
         <v>3330</v>
       </c>
       <c r="E295" s="44"/>
@@ -21158,7 +21179,7 @@
         <v>290</v>
       </c>
       <c r="B296" s="56" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C296" s="56"/>
       <c r="D296" s="56"/>
@@ -21179,11 +21200,11 @@
         <v>770</v>
       </c>
       <c r="C297" s="45" t="s">
+        <v>376</v>
+      </c>
+      <c r="D297" s="55"/>
+      <c r="E297" s="45" t="s">
         <v>377</v>
-      </c>
-      <c r="D297" s="70"/>
-      <c r="E297" s="45" t="s">
-        <v>378</v>
       </c>
       <c r="F297" s="42">
         <v>520</v>
@@ -21203,11 +21224,11 @@
         <v>773</v>
       </c>
       <c r="C298" s="45" t="s">
-        <v>379</v>
-      </c>
-      <c r="D298" s="70"/>
+        <v>378</v>
+      </c>
+      <c r="D298" s="55"/>
       <c r="E298" s="45" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F298" s="42">
         <v>520</v>
@@ -21227,11 +21248,11 @@
         <v>774</v>
       </c>
       <c r="C299" s="45" t="s">
-        <v>380</v>
-      </c>
-      <c r="D299" s="70"/>
+        <v>379</v>
+      </c>
+      <c r="D299" s="55"/>
       <c r="E299" s="45" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F299" s="42">
         <v>520</v>
@@ -21251,11 +21272,11 @@
         <v>775</v>
       </c>
       <c r="C300" s="45" t="s">
-        <v>381</v>
-      </c>
-      <c r="D300" s="70"/>
+        <v>380</v>
+      </c>
+      <c r="D300" s="55"/>
       <c r="E300" s="45" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F300" s="42">
         <v>520</v>
@@ -21272,7 +21293,7 @@
         <v>295</v>
       </c>
       <c r="B301" s="57" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C301" s="57"/>
       <c r="D301" s="57"/>
@@ -21288,6 +21309,37 @@
   </sheetData>
   <autoFilter ref="A1:L301" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="39">
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="B11:L11"/>
+    <mergeCell ref="D12:D19"/>
+    <mergeCell ref="B20:L20"/>
+    <mergeCell ref="D21:D28"/>
+    <mergeCell ref="B6:L6"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="D34:D45"/>
+    <mergeCell ref="B46:L46"/>
+    <mergeCell ref="B53:L53"/>
+    <mergeCell ref="B56:L56"/>
+    <mergeCell ref="B59:L59"/>
+    <mergeCell ref="B61:L61"/>
+    <mergeCell ref="B64:L64"/>
+    <mergeCell ref="B69:L69"/>
+    <mergeCell ref="B102:L102"/>
+    <mergeCell ref="B105:L105"/>
+    <mergeCell ref="B140:L140"/>
+    <mergeCell ref="B143:L143"/>
+    <mergeCell ref="B153:L153"/>
+    <mergeCell ref="B155:L155"/>
+    <mergeCell ref="B158:L158"/>
+    <mergeCell ref="B167:L167"/>
+    <mergeCell ref="B183:L183"/>
+    <mergeCell ref="B198:L198"/>
+    <mergeCell ref="B210:L210"/>
+    <mergeCell ref="D211:D218"/>
+    <mergeCell ref="B219:L219"/>
+    <mergeCell ref="B223:L223"/>
+    <mergeCell ref="B230:L230"/>
     <mergeCell ref="B293:L293"/>
     <mergeCell ref="B296:L296"/>
     <mergeCell ref="B301:L301"/>
@@ -21296,37 +21348,6 @@
     <mergeCell ref="B261:L261"/>
     <mergeCell ref="B274:L274"/>
     <mergeCell ref="B288:L288"/>
-    <mergeCell ref="B210:L210"/>
-    <mergeCell ref="D211:D218"/>
-    <mergeCell ref="B219:L219"/>
-    <mergeCell ref="B223:L223"/>
-    <mergeCell ref="B230:L230"/>
-    <mergeCell ref="B155:L155"/>
-    <mergeCell ref="B158:L158"/>
-    <mergeCell ref="B167:L167"/>
-    <mergeCell ref="B183:L183"/>
-    <mergeCell ref="B198:L198"/>
-    <mergeCell ref="B102:L102"/>
-    <mergeCell ref="B105:L105"/>
-    <mergeCell ref="B140:L140"/>
-    <mergeCell ref="B143:L143"/>
-    <mergeCell ref="B153:L153"/>
-    <mergeCell ref="B56:L56"/>
-    <mergeCell ref="B59:L59"/>
-    <mergeCell ref="B61:L61"/>
-    <mergeCell ref="B64:L64"/>
-    <mergeCell ref="B69:L69"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="D34:D45"/>
-    <mergeCell ref="B46:L46"/>
-    <mergeCell ref="B53:L53"/>
-    <mergeCell ref="B2:L2"/>
-    <mergeCell ref="B11:L11"/>
-    <mergeCell ref="D12:D19"/>
-    <mergeCell ref="B20:L20"/>
-    <mergeCell ref="D21:D28"/>
-    <mergeCell ref="B6:L6"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -21346,7 +21367,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -21364,18 +21385,18 @@
         <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="46" t="s">
+        <v>384</v>
+      </c>
+      <c r="B3" t="s">
         <v>385</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>386</v>
-      </c>
-      <c r="C3" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -21413,7 +21434,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B7">
         <v>118</v>

--- a/WarShips/中国海军舰艇大全.xlsx
+++ b/WarShips/中国海军舰艇大全.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\james_home\local_src\codebase\WarShips\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8DBEAF0-F43E-42B0-9402-6B8ABEE720E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{283DF55F-BA49-43BD-B9EE-29A66C90EAC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -6279,7 +6279,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -6335,6 +6335,17 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Noto Sans CJK SC"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="11">
@@ -6473,7 +6484,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -6605,42 +6616,17 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -6650,6 +6636,40 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -12769,9 +12789,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M301"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12:D19"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F275" sqref="F275:F287"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
@@ -12832,19 +12852,19 @@
       <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="12">
@@ -12942,19 +12962,19 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="12"/>
-      <c r="B6" s="68" t="s">
+      <c r="B6" s="60" t="s">
         <v>407</v>
       </c>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="70"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="62"/>
       <c r="M6" t="s">
         <v>399</v>
       </c>
@@ -13065,19 +13085,19 @@
       <c r="A11" s="12">
         <v>5</v>
       </c>
-      <c r="B11" s="67" t="s">
+      <c r="B11" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="67"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="67"/>
-      <c r="G11" s="67"/>
-      <c r="H11" s="67"/>
-      <c r="I11" s="67"/>
-      <c r="J11" s="67"/>
-      <c r="K11" s="67"/>
-      <c r="L11" s="67"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
       <c r="M11" t="s">
         <v>23</v>
       </c>
@@ -13092,7 +13112,7 @@
       <c r="C12" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="64" t="s">
+      <c r="D12" s="58" t="s">
         <v>25</v>
       </c>
       <c r="E12" s="18" t="s">
@@ -13131,7 +13151,7 @@
       <c r="C13" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="64"/>
+      <c r="D13" s="58"/>
       <c r="E13" s="18" t="s">
         <v>14</v>
       </c>
@@ -13165,7 +13185,7 @@
       <c r="C14" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="64"/>
+      <c r="D14" s="58"/>
       <c r="E14" s="18" t="s">
         <v>14</v>
       </c>
@@ -13199,7 +13219,7 @@
       <c r="C15" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="64"/>
+      <c r="D15" s="58"/>
       <c r="E15" s="18" t="s">
         <v>14</v>
       </c>
@@ -13233,7 +13253,7 @@
       <c r="C16" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="64"/>
+      <c r="D16" s="58"/>
       <c r="E16" s="18" t="s">
         <v>18</v>
       </c>
@@ -13267,7 +13287,7 @@
       <c r="C17" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="64"/>
+      <c r="D17" s="58"/>
       <c r="E17" s="18" t="s">
         <v>18</v>
       </c>
@@ -13301,7 +13321,7 @@
       <c r="C18" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="64"/>
+      <c r="D18" s="58"/>
       <c r="E18" s="18" t="s">
         <v>18</v>
       </c>
@@ -13335,7 +13355,7 @@
       <c r="C19" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="64"/>
+      <c r="D19" s="58"/>
       <c r="E19" s="18" t="s">
         <v>18</v>
       </c>
@@ -13363,19 +13383,19 @@
       <c r="A20" s="12">
         <v>14</v>
       </c>
-      <c r="B20" s="63" t="s">
+      <c r="B20" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="63"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="63"/>
-      <c r="G20" s="63"/>
-      <c r="H20" s="63"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="63"/>
-      <c r="K20" s="63"/>
-      <c r="L20" s="63"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="59"/>
+      <c r="J20" s="59"/>
+      <c r="K20" s="59"/>
+      <c r="L20" s="59"/>
       <c r="M20" t="s">
         <v>38</v>
       </c>
@@ -13390,7 +13410,7 @@
       <c r="C21" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="64" t="s">
+      <c r="D21" s="58" t="s">
         <v>40</v>
       </c>
       <c r="E21" s="18" t="s">
@@ -13429,7 +13449,7 @@
       <c r="C22" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="64"/>
+      <c r="D22" s="58"/>
       <c r="E22" s="18" t="s">
         <v>18</v>
       </c>
@@ -13463,7 +13483,7 @@
       <c r="C23" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="64"/>
+      <c r="D23" s="58"/>
       <c r="E23" s="18" t="s">
         <v>18</v>
       </c>
@@ -13497,7 +13517,7 @@
       <c r="C24" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="64"/>
+      <c r="D24" s="58"/>
       <c r="E24" s="18" t="s">
         <v>18</v>
       </c>
@@ -13531,7 +13551,7 @@
       <c r="C25" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D25" s="64"/>
+      <c r="D25" s="58"/>
       <c r="E25" s="18" t="s">
         <v>14</v>
       </c>
@@ -13565,7 +13585,7 @@
       <c r="C26" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="D26" s="64"/>
+      <c r="D26" s="58"/>
       <c r="E26" s="18" t="s">
         <v>48</v>
       </c>
@@ -13599,7 +13619,7 @@
       <c r="C27" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="D27" s="64"/>
+      <c r="D27" s="58"/>
       <c r="E27" s="18" t="s">
         <v>14</v>
       </c>
@@ -13633,7 +13653,7 @@
       <c r="C28" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="D28" s="64"/>
+      <c r="D28" s="58"/>
       <c r="E28" s="18" t="s">
         <v>14</v>
       </c>
@@ -13667,7 +13687,7 @@
       <c r="C29" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="D29" s="64" t="s">
+      <c r="D29" s="58" t="s">
         <v>52</v>
       </c>
       <c r="E29" s="18" t="s">
@@ -13703,7 +13723,7 @@
       <c r="C30" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D30" s="64"/>
+      <c r="D30" s="58"/>
       <c r="E30" s="18" t="s">
         <v>14</v>
       </c>
@@ -13737,7 +13757,7 @@
       <c r="C31" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D31" s="64" t="s">
+      <c r="D31" s="58" t="s">
         <v>55</v>
       </c>
       <c r="E31" s="18" t="s">
@@ -13773,7 +13793,7 @@
       <c r="C32" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="D32" s="64"/>
+      <c r="D32" s="58"/>
       <c r="E32" s="18" t="s">
         <v>18</v>
       </c>
@@ -13807,7 +13827,7 @@
       <c r="C33" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="D33" s="64"/>
+      <c r="D33" s="58"/>
       <c r="E33" s="18" t="s">
         <v>14</v>
       </c>
@@ -13841,7 +13861,7 @@
       <c r="C34" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="D34" s="65" t="s">
+      <c r="D34" s="63" t="s">
         <v>60</v>
       </c>
       <c r="E34" s="18" t="s">
@@ -13877,7 +13897,7 @@
       <c r="C35" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="D35" s="65"/>
+      <c r="D35" s="63"/>
       <c r="E35" s="18" t="s">
         <v>14</v>
       </c>
@@ -13911,7 +13931,7 @@
       <c r="C36" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="D36" s="65"/>
+      <c r="D36" s="63"/>
       <c r="E36" s="18" t="s">
         <v>48</v>
       </c>
@@ -13945,7 +13965,7 @@
       <c r="C37" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="D37" s="65"/>
+      <c r="D37" s="63"/>
       <c r="E37" s="18" t="s">
         <v>14</v>
       </c>
@@ -13979,7 +13999,7 @@
       <c r="C38" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="D38" s="65"/>
+      <c r="D38" s="63"/>
       <c r="E38" s="18" t="s">
         <v>18</v>
       </c>
@@ -14013,7 +14033,7 @@
       <c r="C39" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="D39" s="65"/>
+      <c r="D39" s="63"/>
       <c r="E39" s="18" t="s">
         <v>14</v>
       </c>
@@ -14047,7 +14067,7 @@
       <c r="C40" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="D40" s="65"/>
+      <c r="D40" s="63"/>
       <c r="E40" s="18" t="s">
         <v>18</v>
       </c>
@@ -14081,7 +14101,7 @@
       <c r="C41" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="D41" s="65"/>
+      <c r="D41" s="63"/>
       <c r="E41" s="18" t="s">
         <v>48</v>
       </c>
@@ -14115,7 +14135,7 @@
       <c r="C42" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="D42" s="65"/>
+      <c r="D42" s="63"/>
       <c r="E42" s="18" t="s">
         <v>48</v>
       </c>
@@ -14149,7 +14169,7 @@
       <c r="C43" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="D43" s="65"/>
+      <c r="D43" s="63"/>
       <c r="E43" s="18" t="s">
         <v>18</v>
       </c>
@@ -14183,7 +14203,7 @@
       <c r="C44" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="D44" s="65"/>
+      <c r="D44" s="63"/>
       <c r="E44" s="18" t="s">
         <v>18</v>
       </c>
@@ -14217,7 +14237,7 @@
       <c r="C45" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="D45" s="65"/>
+      <c r="D45" s="63"/>
       <c r="E45" s="18" t="s">
         <v>48</v>
       </c>
@@ -14245,19 +14265,19 @@
       <c r="A46" s="12">
         <v>40</v>
       </c>
-      <c r="B46" s="63" t="s">
+      <c r="B46" s="59" t="s">
         <v>72</v>
       </c>
-      <c r="C46" s="63"/>
-      <c r="D46" s="63"/>
-      <c r="E46" s="63"/>
-      <c r="F46" s="63"/>
-      <c r="G46" s="63"/>
-      <c r="H46" s="63"/>
-      <c r="I46" s="63"/>
-      <c r="J46" s="63"/>
-      <c r="K46" s="63"/>
-      <c r="L46" s="63"/>
+      <c r="C46" s="59"/>
+      <c r="D46" s="59"/>
+      <c r="E46" s="59"/>
+      <c r="F46" s="59"/>
+      <c r="G46" s="59"/>
+      <c r="H46" s="59"/>
+      <c r="I46" s="59"/>
+      <c r="J46" s="59"/>
+      <c r="K46" s="59"/>
+      <c r="L46" s="59"/>
       <c r="M46" t="s">
         <v>406</v>
       </c>
@@ -14504,19 +14524,19 @@
       <c r="A53" s="12">
         <v>47</v>
       </c>
-      <c r="B53" s="63" t="s">
+      <c r="B53" s="59" t="s">
         <v>84</v>
       </c>
-      <c r="C53" s="63"/>
-      <c r="D53" s="63"/>
-      <c r="E53" s="63"/>
-      <c r="F53" s="63"/>
-      <c r="G53" s="63"/>
-      <c r="H53" s="63"/>
-      <c r="I53" s="63"/>
-      <c r="J53" s="63"/>
-      <c r="K53" s="63"/>
-      <c r="L53" s="63"/>
+      <c r="C53" s="59"/>
+      <c r="D53" s="59"/>
+      <c r="E53" s="59"/>
+      <c r="F53" s="59"/>
+      <c r="G53" s="59"/>
+      <c r="H53" s="59"/>
+      <c r="I53" s="59"/>
+      <c r="J53" s="59"/>
+      <c r="K53" s="59"/>
+      <c r="L53" s="59"/>
       <c r="M53" s="22" t="s">
         <v>85</v>
       </c>
@@ -14599,19 +14619,19 @@
       <c r="A56" s="12">
         <v>50</v>
       </c>
-      <c r="B56" s="63" t="s">
+      <c r="B56" s="59" t="s">
         <v>91</v>
       </c>
-      <c r="C56" s="63"/>
-      <c r="D56" s="63"/>
-      <c r="E56" s="63"/>
-      <c r="F56" s="63"/>
-      <c r="G56" s="63"/>
-      <c r="H56" s="63"/>
-      <c r="I56" s="63"/>
-      <c r="J56" s="63"/>
-      <c r="K56" s="63"/>
-      <c r="L56" s="63"/>
+      <c r="C56" s="59"/>
+      <c r="D56" s="59"/>
+      <c r="E56" s="59"/>
+      <c r="F56" s="59"/>
+      <c r="G56" s="59"/>
+      <c r="H56" s="59"/>
+      <c r="I56" s="59"/>
+      <c r="J56" s="59"/>
+      <c r="K56" s="59"/>
+      <c r="L56" s="59"/>
       <c r="M56" s="22" t="s">
         <v>92</v>
       </c>
@@ -14694,19 +14714,19 @@
       <c r="A59" s="12">
         <v>53</v>
       </c>
-      <c r="B59" s="63" t="s">
+      <c r="B59" s="59" t="s">
         <v>98</v>
       </c>
-      <c r="C59" s="63"/>
-      <c r="D59" s="63"/>
-      <c r="E59" s="63"/>
-      <c r="F59" s="63"/>
-      <c r="G59" s="63"/>
-      <c r="H59" s="63"/>
-      <c r="I59" s="63"/>
-      <c r="J59" s="63"/>
-      <c r="K59" s="63"/>
-      <c r="L59" s="63"/>
+      <c r="C59" s="59"/>
+      <c r="D59" s="59"/>
+      <c r="E59" s="59"/>
+      <c r="F59" s="59"/>
+      <c r="G59" s="59"/>
+      <c r="H59" s="59"/>
+      <c r="I59" s="59"/>
+      <c r="J59" s="59"/>
+      <c r="K59" s="59"/>
+      <c r="L59" s="59"/>
       <c r="M59" s="22" t="s">
         <v>99</v>
       </c>
@@ -14752,19 +14772,19 @@
       <c r="A61" s="12">
         <v>55</v>
       </c>
-      <c r="B61" s="63" t="s">
+      <c r="B61" s="59" t="s">
         <v>102</v>
       </c>
-      <c r="C61" s="63"/>
-      <c r="D61" s="63"/>
-      <c r="E61" s="63"/>
-      <c r="F61" s="63"/>
-      <c r="G61" s="63"/>
-      <c r="H61" s="63"/>
-      <c r="I61" s="63"/>
-      <c r="J61" s="63"/>
-      <c r="K61" s="63"/>
-      <c r="L61" s="63"/>
+      <c r="C61" s="59"/>
+      <c r="D61" s="59"/>
+      <c r="E61" s="59"/>
+      <c r="F61" s="59"/>
+      <c r="G61" s="59"/>
+      <c r="H61" s="59"/>
+      <c r="I61" s="59"/>
+      <c r="J61" s="59"/>
+      <c r="K61" s="59"/>
+      <c r="L61" s="59"/>
     </row>
     <row r="62" spans="1:13">
       <c r="A62" s="12">
@@ -14836,19 +14856,19 @@
       <c r="A64" s="12">
         <v>58</v>
       </c>
-      <c r="B64" s="63" t="s">
+      <c r="B64" s="59" t="s">
         <v>107</v>
       </c>
-      <c r="C64" s="63"/>
-      <c r="D64" s="63"/>
-      <c r="E64" s="63"/>
-      <c r="F64" s="63"/>
-      <c r="G64" s="63"/>
-      <c r="H64" s="63"/>
-      <c r="I64" s="63"/>
-      <c r="J64" s="63"/>
-      <c r="K64" s="63"/>
-      <c r="L64" s="63"/>
+      <c r="C64" s="59"/>
+      <c r="D64" s="59"/>
+      <c r="E64" s="59"/>
+      <c r="F64" s="59"/>
+      <c r="G64" s="59"/>
+      <c r="H64" s="59"/>
+      <c r="I64" s="59"/>
+      <c r="J64" s="59"/>
+      <c r="K64" s="59"/>
+      <c r="L64" s="59"/>
     </row>
     <row r="65" spans="1:13">
       <c r="A65" s="12">
@@ -15002,19 +15022,19 @@
       <c r="A69" s="12">
         <v>63</v>
       </c>
-      <c r="B69" s="62" t="s">
+      <c r="B69" s="64" t="s">
         <v>117</v>
       </c>
-      <c r="C69" s="62"/>
-      <c r="D69" s="62"/>
-      <c r="E69" s="62"/>
-      <c r="F69" s="62"/>
-      <c r="G69" s="62"/>
-      <c r="H69" s="62"/>
-      <c r="I69" s="62"/>
-      <c r="J69" s="62"/>
-      <c r="K69" s="62"/>
-      <c r="L69" s="62"/>
+      <c r="C69" s="64"/>
+      <c r="D69" s="64"/>
+      <c r="E69" s="64"/>
+      <c r="F69" s="64"/>
+      <c r="G69" s="64"/>
+      <c r="H69" s="64"/>
+      <c r="I69" s="64"/>
+      <c r="J69" s="64"/>
+      <c r="K69" s="64"/>
+      <c r="L69" s="64"/>
       <c r="M69" t="s">
         <v>118</v>
       </c>
@@ -15645,7 +15665,7 @@
       <c r="E89" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="F89" s="28">
+      <c r="F89" s="26">
         <v>4500</v>
       </c>
       <c r="G89" s="26" t="s">
@@ -15677,7 +15697,7 @@
       <c r="E90" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="F90" s="28">
+      <c r="F90" s="26">
         <v>4500</v>
       </c>
       <c r="G90" s="26" t="s">
@@ -15709,7 +15729,7 @@
       <c r="E91" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="F91" s="28">
+      <c r="F91" s="26">
         <v>4500</v>
       </c>
       <c r="G91" s="26" t="s">
@@ -15741,7 +15761,7 @@
       <c r="E92" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="F92" s="28">
+      <c r="F92" s="26">
         <v>4500</v>
       </c>
       <c r="G92" s="26" t="s">
@@ -15773,7 +15793,7 @@
       <c r="E93" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="F93" s="28">
+      <c r="F93" s="26">
         <v>4500</v>
       </c>
       <c r="G93" s="26" t="s">
@@ -15805,7 +15825,7 @@
       <c r="E94" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="F94" s="28">
+      <c r="F94" s="26">
         <v>4500</v>
       </c>
       <c r="G94" s="26" t="s">
@@ -15837,7 +15857,7 @@
       <c r="E95" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="F95" s="28">
+      <c r="F95" s="26">
         <v>4500</v>
       </c>
       <c r="G95" s="26" t="s">
@@ -15869,7 +15889,7 @@
       <c r="E96" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="F96" s="28">
+      <c r="F96" s="26">
         <v>4500</v>
       </c>
       <c r="G96" s="26" t="s">
@@ -15901,7 +15921,7 @@
       <c r="E97" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="F97" s="28">
+      <c r="F97" s="26">
         <v>4500</v>
       </c>
       <c r="G97" s="26" t="s">
@@ -15933,7 +15953,7 @@
       <c r="E98" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="F98" s="28">
+      <c r="F98" s="26">
         <v>4500</v>
       </c>
       <c r="G98" s="26" t="s">
@@ -15965,7 +15985,7 @@
       <c r="E99" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="F99" s="28">
+      <c r="F99" s="26">
         <v>4500</v>
       </c>
       <c r="G99" s="26" t="s">
@@ -15997,7 +16017,7 @@
       <c r="E100" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="F100" s="28">
+      <c r="F100" s="26">
         <v>4500</v>
       </c>
       <c r="G100" s="26" t="s">
@@ -16051,19 +16071,19 @@
       <c r="A102" s="12">
         <v>96</v>
       </c>
-      <c r="B102" s="62" t="s">
+      <c r="B102" s="64" t="s">
         <v>155</v>
       </c>
-      <c r="C102" s="62"/>
-      <c r="D102" s="62"/>
-      <c r="E102" s="62"/>
-      <c r="F102" s="62"/>
-      <c r="G102" s="62"/>
-      <c r="H102" s="62"/>
-      <c r="I102" s="62"/>
-      <c r="J102" s="62"/>
-      <c r="K102" s="62"/>
-      <c r="L102" s="62"/>
+      <c r="C102" s="64"/>
+      <c r="D102" s="64"/>
+      <c r="E102" s="64"/>
+      <c r="F102" s="64"/>
+      <c r="G102" s="64"/>
+      <c r="H102" s="64"/>
+      <c r="I102" s="64"/>
+      <c r="J102" s="64"/>
+      <c r="K102" s="64"/>
+      <c r="L102" s="64"/>
     </row>
     <row r="103" spans="1:12">
       <c r="A103" s="12">
@@ -16125,19 +16145,19 @@
       <c r="A105" s="12">
         <v>99</v>
       </c>
-      <c r="B105" s="62" t="s">
+      <c r="B105" s="64" t="s">
         <v>158</v>
       </c>
-      <c r="C105" s="62"/>
-      <c r="D105" s="62"/>
-      <c r="E105" s="62"/>
-      <c r="F105" s="62"/>
-      <c r="G105" s="62"/>
-      <c r="H105" s="62"/>
-      <c r="I105" s="62"/>
-      <c r="J105" s="62"/>
-      <c r="K105" s="62"/>
-      <c r="L105" s="62"/>
+      <c r="C105" s="64"/>
+      <c r="D105" s="64"/>
+      <c r="E105" s="64"/>
+      <c r="F105" s="64"/>
+      <c r="G105" s="64"/>
+      <c r="H105" s="64"/>
+      <c r="I105" s="64"/>
+      <c r="J105" s="64"/>
+      <c r="K105" s="64"/>
+      <c r="L105" s="64"/>
     </row>
     <row r="106" spans="1:12">
       <c r="A106" s="12">
@@ -17027,19 +17047,19 @@
       <c r="A140" s="12">
         <v>134</v>
       </c>
-      <c r="B140" s="60" t="s">
+      <c r="B140" s="65" t="s">
         <v>193</v>
       </c>
-      <c r="C140" s="60"/>
-      <c r="D140" s="60"/>
-      <c r="E140" s="60"/>
-      <c r="F140" s="60"/>
-      <c r="G140" s="60"/>
-      <c r="H140" s="60"/>
-      <c r="I140" s="60"/>
-      <c r="J140" s="60"/>
-      <c r="K140" s="60"/>
-      <c r="L140" s="60"/>
+      <c r="C140" s="65"/>
+      <c r="D140" s="65"/>
+      <c r="E140" s="65"/>
+      <c r="F140" s="65"/>
+      <c r="G140" s="65"/>
+      <c r="H140" s="65"/>
+      <c r="I140" s="65"/>
+      <c r="J140" s="65"/>
+      <c r="K140" s="65"/>
+      <c r="L140" s="65"/>
     </row>
     <row r="141" spans="1:12">
       <c r="A141" s="12">
@@ -17097,19 +17117,19 @@
       <c r="A143" s="12">
         <v>137</v>
       </c>
-      <c r="B143" s="60" t="s">
+      <c r="B143" s="65" t="s">
         <v>199</v>
       </c>
-      <c r="C143" s="60"/>
-      <c r="D143" s="60"/>
-      <c r="E143" s="60"/>
-      <c r="F143" s="60"/>
-      <c r="G143" s="60"/>
-      <c r="H143" s="60"/>
-      <c r="I143" s="60"/>
-      <c r="J143" s="60"/>
-      <c r="K143" s="60"/>
-      <c r="L143" s="60"/>
+      <c r="C143" s="65"/>
+      <c r="D143" s="65"/>
+      <c r="E143" s="65"/>
+      <c r="F143" s="65"/>
+      <c r="G143" s="65"/>
+      <c r="H143" s="65"/>
+      <c r="I143" s="65"/>
+      <c r="J143" s="65"/>
+      <c r="K143" s="65"/>
+      <c r="L143" s="65"/>
     </row>
     <row r="144" spans="1:12">
       <c r="A144" s="12">
@@ -17367,19 +17387,19 @@
       <c r="A153" s="12">
         <v>147</v>
       </c>
-      <c r="B153" s="60" t="s">
+      <c r="B153" s="65" t="s">
         <v>220</v>
       </c>
-      <c r="C153" s="60"/>
-      <c r="D153" s="60"/>
-      <c r="E153" s="60"/>
-      <c r="F153" s="60"/>
-      <c r="G153" s="60"/>
-      <c r="H153" s="60"/>
-      <c r="I153" s="60"/>
-      <c r="J153" s="60"/>
-      <c r="K153" s="60"/>
-      <c r="L153" s="60"/>
+      <c r="C153" s="65"/>
+      <c r="D153" s="65"/>
+      <c r="E153" s="65"/>
+      <c r="F153" s="65"/>
+      <c r="G153" s="65"/>
+      <c r="H153" s="65"/>
+      <c r="I153" s="65"/>
+      <c r="J153" s="65"/>
+      <c r="K153" s="65"/>
+      <c r="L153" s="65"/>
     </row>
     <row r="154" spans="1:13">
       <c r="A154" s="12">
@@ -17413,19 +17433,19 @@
       <c r="A155" s="12">
         <v>149</v>
       </c>
-      <c r="B155" s="60" t="s">
+      <c r="B155" s="65" t="s">
         <v>224</v>
       </c>
-      <c r="C155" s="60"/>
-      <c r="D155" s="60"/>
-      <c r="E155" s="60"/>
-      <c r="F155" s="60"/>
-      <c r="G155" s="60"/>
-      <c r="H155" s="60"/>
-      <c r="I155" s="60"/>
-      <c r="J155" s="60"/>
-      <c r="K155" s="60"/>
-      <c r="L155" s="60"/>
+      <c r="C155" s="65"/>
+      <c r="D155" s="65"/>
+      <c r="E155" s="65"/>
+      <c r="F155" s="65"/>
+      <c r="G155" s="65"/>
+      <c r="H155" s="65"/>
+      <c r="I155" s="65"/>
+      <c r="J155" s="65"/>
+      <c r="K155" s="65"/>
+      <c r="L155" s="65"/>
     </row>
     <row r="156" spans="1:13">
       <c r="A156" s="12">
@@ -17487,19 +17507,19 @@
       <c r="A158" s="12">
         <v>152</v>
       </c>
-      <c r="B158" s="61" t="s">
+      <c r="B158" s="66" t="s">
         <v>230</v>
       </c>
-      <c r="C158" s="61"/>
-      <c r="D158" s="61"/>
-      <c r="E158" s="61"/>
-      <c r="F158" s="61"/>
-      <c r="G158" s="61"/>
-      <c r="H158" s="61"/>
-      <c r="I158" s="61"/>
-      <c r="J158" s="61"/>
-      <c r="K158" s="61"/>
-      <c r="L158" s="61"/>
+      <c r="C158" s="66"/>
+      <c r="D158" s="66"/>
+      <c r="E158" s="66"/>
+      <c r="F158" s="66"/>
+      <c r="G158" s="66"/>
+      <c r="H158" s="66"/>
+      <c r="I158" s="66"/>
+      <c r="J158" s="66"/>
+      <c r="K158" s="66"/>
+      <c r="L158" s="66"/>
       <c r="M158" t="s">
         <v>400</v>
       </c>
@@ -17732,19 +17752,19 @@
       <c r="A167" s="12">
         <v>161</v>
       </c>
-      <c r="B167" s="61" t="s">
+      <c r="B167" s="66" t="s">
         <v>240</v>
       </c>
-      <c r="C167" s="61"/>
-      <c r="D167" s="61"/>
-      <c r="E167" s="61"/>
-      <c r="F167" s="61"/>
-      <c r="G167" s="61"/>
-      <c r="H167" s="61"/>
-      <c r="I167" s="61"/>
-      <c r="J167" s="61"/>
-      <c r="K167" s="61"/>
-      <c r="L167" s="61"/>
+      <c r="C167" s="66"/>
+      <c r="D167" s="66"/>
+      <c r="E167" s="66"/>
+      <c r="F167" s="66"/>
+      <c r="G167" s="66"/>
+      <c r="H167" s="66"/>
+      <c r="I167" s="66"/>
+      <c r="J167" s="66"/>
+      <c r="K167" s="66"/>
+      <c r="L167" s="66"/>
     </row>
     <row r="168" spans="1:12">
       <c r="A168" s="12">
@@ -18170,19 +18190,19 @@
       <c r="A183" s="12">
         <v>177</v>
       </c>
-      <c r="B183" s="61" t="s">
+      <c r="B183" s="66" t="s">
         <v>256</v>
       </c>
-      <c r="C183" s="61"/>
-      <c r="D183" s="61"/>
-      <c r="E183" s="61"/>
-      <c r="F183" s="61"/>
-      <c r="G183" s="61"/>
-      <c r="H183" s="61"/>
-      <c r="I183" s="61"/>
-      <c r="J183" s="61"/>
-      <c r="K183" s="61"/>
-      <c r="L183" s="61"/>
+      <c r="C183" s="66"/>
+      <c r="D183" s="66"/>
+      <c r="E183" s="66"/>
+      <c r="F183" s="66"/>
+      <c r="G183" s="66"/>
+      <c r="H183" s="66"/>
+      <c r="I183" s="66"/>
+      <c r="J183" s="66"/>
+      <c r="K183" s="66"/>
+      <c r="L183" s="66"/>
     </row>
     <row r="184" spans="1:12">
       <c r="A184" s="12">
@@ -18582,19 +18602,19 @@
       <c r="A198" s="12">
         <v>192</v>
       </c>
-      <c r="B198" s="61" t="s">
+      <c r="B198" s="66" t="s">
         <v>275</v>
       </c>
-      <c r="C198" s="61"/>
-      <c r="D198" s="61"/>
-      <c r="E198" s="61"/>
-      <c r="F198" s="61"/>
-      <c r="G198" s="61"/>
-      <c r="H198" s="61"/>
-      <c r="I198" s="61"/>
-      <c r="J198" s="61"/>
-      <c r="K198" s="61"/>
-      <c r="L198" s="61"/>
+      <c r="C198" s="66"/>
+      <c r="D198" s="66"/>
+      <c r="E198" s="66"/>
+      <c r="F198" s="66"/>
+      <c r="G198" s="66"/>
+      <c r="H198" s="66"/>
+      <c r="I198" s="66"/>
+      <c r="J198" s="66"/>
+      <c r="K198" s="66"/>
+      <c r="L198" s="66"/>
     </row>
     <row r="199" spans="1:12">
       <c r="A199" s="12">
@@ -18910,19 +18930,19 @@
       <c r="A210" s="12">
         <v>204</v>
       </c>
-      <c r="B210" s="58" t="s">
+      <c r="B210" s="67" t="s">
         <v>288</v>
       </c>
-      <c r="C210" s="58"/>
-      <c r="D210" s="58"/>
-      <c r="E210" s="58"/>
-      <c r="F210" s="58"/>
-      <c r="G210" s="58"/>
-      <c r="H210" s="58"/>
-      <c r="I210" s="58"/>
-      <c r="J210" s="58"/>
-      <c r="K210" s="58"/>
-      <c r="L210" s="58"/>
+      <c r="C210" s="67"/>
+      <c r="D210" s="67"/>
+      <c r="E210" s="67"/>
+      <c r="F210" s="67"/>
+      <c r="G210" s="67"/>
+      <c r="H210" s="67"/>
+      <c r="I210" s="67"/>
+      <c r="J210" s="67"/>
+      <c r="K210" s="67"/>
+      <c r="L210" s="67"/>
     </row>
     <row r="211" spans="1:12" ht="13.35" customHeight="1">
       <c r="A211" s="12">
@@ -18934,7 +18954,7 @@
       <c r="C211" s="37" t="s">
         <v>289</v>
       </c>
-      <c r="D211" s="59" t="s">
+      <c r="D211" s="68" t="s">
         <v>290</v>
       </c>
       <c r="E211" s="37" t="s">
@@ -18962,7 +18982,7 @@
       <c r="C212" s="37" t="s">
         <v>292</v>
       </c>
-      <c r="D212" s="59"/>
+      <c r="D212" s="68"/>
       <c r="E212" s="37" t="s">
         <v>18</v>
       </c>
@@ -18988,7 +19008,7 @@
       <c r="C213" s="37" t="s">
         <v>293</v>
       </c>
-      <c r="D213" s="59"/>
+      <c r="D213" s="68"/>
       <c r="E213" s="37" t="s">
         <v>18</v>
       </c>
@@ -19014,7 +19034,7 @@
       <c r="C214" s="37" t="s">
         <v>294</v>
       </c>
-      <c r="D214" s="59"/>
+      <c r="D214" s="68"/>
       <c r="E214" s="37" t="s">
         <v>18</v>
       </c>
@@ -19040,7 +19060,7 @@
       <c r="C215" s="37" t="s">
         <v>295</v>
       </c>
-      <c r="D215" s="59"/>
+      <c r="D215" s="68"/>
       <c r="E215" s="37" t="s">
         <v>14</v>
       </c>
@@ -19066,7 +19086,7 @@
       <c r="C216" s="37" t="s">
         <v>296</v>
       </c>
-      <c r="D216" s="59"/>
+      <c r="D216" s="68"/>
       <c r="E216" s="37" t="s">
         <v>14</v>
       </c>
@@ -19092,7 +19112,7 @@
       <c r="C217" s="37" t="s">
         <v>297</v>
       </c>
-      <c r="D217" s="59"/>
+      <c r="D217" s="68"/>
       <c r="E217" s="37" t="s">
         <v>14</v>
       </c>
@@ -19118,7 +19138,7 @@
       <c r="C218" s="37" t="s">
         <v>298</v>
       </c>
-      <c r="D218" s="59"/>
+      <c r="D218" s="68"/>
       <c r="E218" s="37" t="s">
         <v>14</v>
       </c>
@@ -19138,19 +19158,19 @@
       <c r="A219" s="12">
         <v>213</v>
       </c>
-      <c r="B219" s="58" t="s">
+      <c r="B219" s="67" t="s">
         <v>299</v>
       </c>
-      <c r="C219" s="58"/>
-      <c r="D219" s="58"/>
-      <c r="E219" s="58"/>
-      <c r="F219" s="58"/>
-      <c r="G219" s="58"/>
-      <c r="H219" s="58"/>
-      <c r="I219" s="58"/>
-      <c r="J219" s="58"/>
-      <c r="K219" s="58"/>
-      <c r="L219" s="58"/>
+      <c r="C219" s="67"/>
+      <c r="D219" s="67"/>
+      <c r="E219" s="67"/>
+      <c r="F219" s="67"/>
+      <c r="G219" s="67"/>
+      <c r="H219" s="67"/>
+      <c r="I219" s="67"/>
+      <c r="J219" s="67"/>
+      <c r="K219" s="67"/>
+      <c r="L219" s="67"/>
     </row>
     <row r="220" spans="1:12">
       <c r="A220" s="12">
@@ -19234,19 +19254,19 @@
       <c r="A223" s="12">
         <v>217</v>
       </c>
-      <c r="B223" s="58" t="s">
+      <c r="B223" s="67" t="s">
         <v>303</v>
       </c>
-      <c r="C223" s="58"/>
-      <c r="D223" s="58"/>
-      <c r="E223" s="58"/>
-      <c r="F223" s="58"/>
-      <c r="G223" s="58"/>
-      <c r="H223" s="58"/>
-      <c r="I223" s="58"/>
-      <c r="J223" s="58"/>
-      <c r="K223" s="58"/>
-      <c r="L223" s="58"/>
+      <c r="C223" s="67"/>
+      <c r="D223" s="67"/>
+      <c r="E223" s="67"/>
+      <c r="F223" s="67"/>
+      <c r="G223" s="67"/>
+      <c r="H223" s="67"/>
+      <c r="I223" s="67"/>
+      <c r="J223" s="67"/>
+      <c r="K223" s="67"/>
+      <c r="L223" s="67"/>
     </row>
     <row r="224" spans="1:12">
       <c r="A224" s="12">
@@ -19420,19 +19440,19 @@
       <c r="A230" s="12">
         <v>224</v>
       </c>
-      <c r="B230" s="58" t="s">
+      <c r="B230" s="67" t="s">
         <v>310</v>
       </c>
-      <c r="C230" s="58"/>
-      <c r="D230" s="58"/>
-      <c r="E230" s="58"/>
-      <c r="F230" s="58"/>
-      <c r="G230" s="58"/>
-      <c r="H230" s="58"/>
-      <c r="I230" s="58"/>
-      <c r="J230" s="58"/>
-      <c r="K230" s="58"/>
-      <c r="L230" s="58"/>
+      <c r="C230" s="67"/>
+      <c r="D230" s="67"/>
+      <c r="E230" s="67"/>
+      <c r="F230" s="67"/>
+      <c r="G230" s="67"/>
+      <c r="H230" s="67"/>
+      <c r="I230" s="67"/>
+      <c r="J230" s="67"/>
+      <c r="K230" s="67"/>
+      <c r="L230" s="67"/>
     </row>
     <row r="231" spans="1:12">
       <c r="A231" s="12">
@@ -19464,19 +19484,19 @@
       <c r="A232" s="12">
         <v>226</v>
       </c>
-      <c r="B232" s="58" t="s">
+      <c r="B232" s="67" t="s">
         <v>312</v>
       </c>
-      <c r="C232" s="58"/>
-      <c r="D232" s="58"/>
-      <c r="E232" s="58"/>
-      <c r="F232" s="58"/>
-      <c r="G232" s="58"/>
-      <c r="H232" s="58"/>
-      <c r="I232" s="58"/>
-      <c r="J232" s="58"/>
-      <c r="K232" s="58"/>
-      <c r="L232" s="58"/>
+      <c r="C232" s="67"/>
+      <c r="D232" s="67"/>
+      <c r="E232" s="67"/>
+      <c r="F232" s="67"/>
+      <c r="G232" s="67"/>
+      <c r="H232" s="67"/>
+      <c r="I232" s="67"/>
+      <c r="J232" s="67"/>
+      <c r="K232" s="67"/>
+      <c r="L232" s="67"/>
     </row>
     <row r="233" spans="1:12">
       <c r="A233" s="12">
@@ -19874,19 +19894,19 @@
       <c r="A247" s="12">
         <v>241</v>
       </c>
-      <c r="B247" s="58" t="s">
+      <c r="B247" s="67" t="s">
         <v>327</v>
       </c>
-      <c r="C247" s="58"/>
-      <c r="D247" s="58"/>
-      <c r="E247" s="58"/>
-      <c r="F247" s="58"/>
-      <c r="G247" s="58"/>
-      <c r="H247" s="58"/>
-      <c r="I247" s="58"/>
-      <c r="J247" s="58"/>
-      <c r="K247" s="58"/>
-      <c r="L247" s="58"/>
+      <c r="C247" s="67"/>
+      <c r="D247" s="67"/>
+      <c r="E247" s="67"/>
+      <c r="F247" s="67"/>
+      <c r="G247" s="67"/>
+      <c r="H247" s="67"/>
+      <c r="I247" s="67"/>
+      <c r="J247" s="67"/>
+      <c r="K247" s="67"/>
+      <c r="L247" s="67"/>
     </row>
     <row r="248" spans="1:12">
       <c r="A248" s="12">
@@ -20256,19 +20276,19 @@
       <c r="A261" s="12">
         <v>255</v>
       </c>
-      <c r="B261" s="58" t="s">
+      <c r="B261" s="67" t="s">
         <v>342</v>
       </c>
-      <c r="C261" s="58"/>
-      <c r="D261" s="58"/>
-      <c r="E261" s="58"/>
-      <c r="F261" s="58"/>
-      <c r="G261" s="58"/>
-      <c r="H261" s="58"/>
-      <c r="I261" s="58"/>
-      <c r="J261" s="58"/>
-      <c r="K261" s="58"/>
-      <c r="L261" s="58"/>
+      <c r="C261" s="67"/>
+      <c r="D261" s="67"/>
+      <c r="E261" s="67"/>
+      <c r="F261" s="67"/>
+      <c r="G261" s="67"/>
+      <c r="H261" s="67"/>
+      <c r="I261" s="67"/>
+      <c r="J261" s="67"/>
+      <c r="K261" s="67"/>
+      <c r="L261" s="67"/>
     </row>
     <row r="262" spans="1:12">
       <c r="A262" s="12">
@@ -20610,19 +20630,19 @@
       <c r="A274" s="12">
         <v>268</v>
       </c>
-      <c r="B274" s="58" t="s">
+      <c r="B274" s="67" t="s">
         <v>358</v>
       </c>
-      <c r="C274" s="58"/>
-      <c r="D274" s="58"/>
-      <c r="E274" s="58"/>
-      <c r="F274" s="58"/>
-      <c r="G274" s="58"/>
-      <c r="H274" s="58"/>
-      <c r="I274" s="58"/>
-      <c r="J274" s="58"/>
-      <c r="K274" s="58"/>
-      <c r="L274" s="58"/>
+      <c r="C274" s="67"/>
+      <c r="D274" s="67"/>
+      <c r="E274" s="67"/>
+      <c r="F274" s="67"/>
+      <c r="G274" s="67"/>
+      <c r="H274" s="67"/>
+      <c r="I274" s="67"/>
+      <c r="J274" s="67"/>
+      <c r="K274" s="67"/>
+      <c r="L274" s="67"/>
     </row>
     <row r="275" spans="1:12">
       <c r="A275" s="12">
@@ -20640,7 +20660,7 @@
       <c r="E275" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="F275" s="38">
+      <c r="F275" s="73">
         <v>2100</v>
       </c>
       <c r="G275" s="39" t="s">
@@ -20668,7 +20688,7 @@
       <c r="E276" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="F276" s="38">
+      <c r="F276" s="73">
         <v>2100</v>
       </c>
       <c r="G276" s="39" t="s">
@@ -20696,7 +20716,7 @@
       <c r="E277" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="F277" s="38">
+      <c r="F277" s="73">
         <v>2100</v>
       </c>
       <c r="G277" s="39" t="s">
@@ -20724,13 +20744,13 @@
       <c r="E278" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="F278" s="38">
+      <c r="F278" s="73">
         <v>2100</v>
       </c>
       <c r="G278" s="39" t="s">
         <v>314</v>
       </c>
-      <c r="H278" s="39"/>
+      <c r="H278" s="72"/>
       <c r="I278" s="39"/>
       <c r="J278" s="39"/>
       <c r="K278" s="39"/>
@@ -20752,7 +20772,7 @@
       <c r="E279" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="F279" s="38">
+      <c r="F279" s="73">
         <v>2100</v>
       </c>
       <c r="G279" s="39" t="s">
@@ -20780,7 +20800,7 @@
       <c r="E280" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="F280" s="38">
+      <c r="F280" s="73">
         <v>2100</v>
       </c>
       <c r="G280" s="39" t="s">
@@ -20808,7 +20828,7 @@
       <c r="E281" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="F281" s="38">
+      <c r="F281" s="73">
         <v>2100</v>
       </c>
       <c r="G281" s="39" t="s">
@@ -20836,7 +20856,7 @@
       <c r="E282" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="F282" s="38">
+      <c r="F282" s="73">
         <v>2100</v>
       </c>
       <c r="G282" s="39" t="s">
@@ -20864,7 +20884,7 @@
       <c r="E283" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="F283" s="38">
+      <c r="F283" s="73">
         <v>2100</v>
       </c>
       <c r="G283" s="39" t="s">
@@ -20892,7 +20912,7 @@
       <c r="E284" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="F284" s="38">
+      <c r="F284" s="73">
         <v>2100</v>
       </c>
       <c r="G284" s="39" t="s">
@@ -20920,7 +20940,7 @@
       <c r="E285" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="F285" s="38">
+      <c r="F285" s="73">
         <v>2100</v>
       </c>
       <c r="G285" s="39" t="s">
@@ -20948,7 +20968,7 @@
       <c r="E286" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="F286" s="38">
+      <c r="F286" s="73">
         <v>2100</v>
       </c>
       <c r="G286" s="39" t="s">
@@ -20976,7 +20996,7 @@
       <c r="E287" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="F287" s="38">
+      <c r="F287" s="73">
         <v>2100</v>
       </c>
       <c r="G287" s="39" t="s">
@@ -20992,19 +21012,19 @@
       <c r="A288" s="12">
         <v>282</v>
       </c>
-      <c r="B288" s="56" t="s">
+      <c r="B288" s="69" t="s">
         <v>373</v>
       </c>
-      <c r="C288" s="56"/>
-      <c r="D288" s="56"/>
-      <c r="E288" s="56"/>
-      <c r="F288" s="56"/>
-      <c r="G288" s="56"/>
-      <c r="H288" s="56"/>
-      <c r="I288" s="56"/>
-      <c r="J288" s="56"/>
-      <c r="K288" s="56"/>
-      <c r="L288" s="56"/>
+      <c r="C288" s="69"/>
+      <c r="D288" s="69"/>
+      <c r="E288" s="69"/>
+      <c r="F288" s="69"/>
+      <c r="G288" s="69"/>
+      <c r="H288" s="69"/>
+      <c r="I288" s="69"/>
+      <c r="J288" s="69"/>
+      <c r="K288" s="69"/>
+      <c r="L288" s="69"/>
     </row>
     <row r="289" spans="1:12">
       <c r="A289" s="12">
@@ -21114,19 +21134,19 @@
       <c r="A293" s="12">
         <v>287</v>
       </c>
-      <c r="B293" s="56" t="s">
+      <c r="B293" s="69" t="s">
         <v>374</v>
       </c>
-      <c r="C293" s="56"/>
-      <c r="D293" s="56"/>
-      <c r="E293" s="56"/>
-      <c r="F293" s="56"/>
-      <c r="G293" s="56"/>
-      <c r="H293" s="56"/>
-      <c r="I293" s="56"/>
-      <c r="J293" s="56"/>
-      <c r="K293" s="56"/>
-      <c r="L293" s="56"/>
+      <c r="C293" s="69"/>
+      <c r="D293" s="69"/>
+      <c r="E293" s="69"/>
+      <c r="F293" s="69"/>
+      <c r="G293" s="69"/>
+      <c r="H293" s="69"/>
+      <c r="I293" s="69"/>
+      <c r="J293" s="69"/>
+      <c r="K293" s="69"/>
+      <c r="L293" s="69"/>
     </row>
     <row r="294" spans="1:12">
       <c r="A294" s="12">
@@ -21178,19 +21198,19 @@
       <c r="A296" s="12">
         <v>290</v>
       </c>
-      <c r="B296" s="56" t="s">
+      <c r="B296" s="69" t="s">
         <v>375</v>
       </c>
-      <c r="C296" s="56"/>
-      <c r="D296" s="56"/>
-      <c r="E296" s="56"/>
-      <c r="F296" s="56"/>
-      <c r="G296" s="56"/>
-      <c r="H296" s="56"/>
-      <c r="I296" s="56"/>
-      <c r="J296" s="56"/>
-      <c r="K296" s="56"/>
-      <c r="L296" s="56"/>
+      <c r="C296" s="69"/>
+      <c r="D296" s="69"/>
+      <c r="E296" s="69"/>
+      <c r="F296" s="69"/>
+      <c r="G296" s="69"/>
+      <c r="H296" s="69"/>
+      <c r="I296" s="69"/>
+      <c r="J296" s="69"/>
+      <c r="K296" s="69"/>
+      <c r="L296" s="69"/>
     </row>
     <row r="297" spans="1:12">
       <c r="A297" s="12">
@@ -21206,7 +21226,7 @@
       <c r="E297" s="45" t="s">
         <v>377</v>
       </c>
-      <c r="F297" s="42">
+      <c r="F297" s="71">
         <v>520</v>
       </c>
       <c r="G297" s="42"/>
@@ -21230,7 +21250,7 @@
       <c r="E298" s="45" t="s">
         <v>377</v>
       </c>
-      <c r="F298" s="42">
+      <c r="F298" s="71">
         <v>520</v>
       </c>
       <c r="G298" s="42"/>
@@ -21254,7 +21274,7 @@
       <c r="E299" s="45" t="s">
         <v>377</v>
       </c>
-      <c r="F299" s="42">
+      <c r="F299" s="71">
         <v>520</v>
       </c>
       <c r="G299" s="42"/>
@@ -21278,7 +21298,7 @@
       <c r="E300" s="45" t="s">
         <v>377</v>
       </c>
-      <c r="F300" s="42">
+      <c r="F300" s="71">
         <v>520</v>
       </c>
       <c r="G300" s="42"/>
@@ -21292,54 +21312,23 @@
       <c r="A301" s="12">
         <v>295</v>
       </c>
-      <c r="B301" s="57" t="s">
+      <c r="B301" s="70" t="s">
         <v>381</v>
       </c>
-      <c r="C301" s="57"/>
-      <c r="D301" s="57"/>
-      <c r="E301" s="57"/>
-      <c r="F301" s="57"/>
-      <c r="G301" s="57"/>
-      <c r="H301" s="57"/>
-      <c r="I301" s="57"/>
-      <c r="J301" s="57"/>
-      <c r="K301" s="57"/>
-      <c r="L301" s="57"/>
+      <c r="C301" s="70"/>
+      <c r="D301" s="70"/>
+      <c r="E301" s="70"/>
+      <c r="F301" s="70"/>
+      <c r="G301" s="70"/>
+      <c r="H301" s="70"/>
+      <c r="I301" s="70"/>
+      <c r="J301" s="70"/>
+      <c r="K301" s="70"/>
+      <c r="L301" s="70"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:L301" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="39">
-    <mergeCell ref="B2:L2"/>
-    <mergeCell ref="B11:L11"/>
-    <mergeCell ref="D12:D19"/>
-    <mergeCell ref="B20:L20"/>
-    <mergeCell ref="D21:D28"/>
-    <mergeCell ref="B6:L6"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="D34:D45"/>
-    <mergeCell ref="B46:L46"/>
-    <mergeCell ref="B53:L53"/>
-    <mergeCell ref="B56:L56"/>
-    <mergeCell ref="B59:L59"/>
-    <mergeCell ref="B61:L61"/>
-    <mergeCell ref="B64:L64"/>
-    <mergeCell ref="B69:L69"/>
-    <mergeCell ref="B102:L102"/>
-    <mergeCell ref="B105:L105"/>
-    <mergeCell ref="B140:L140"/>
-    <mergeCell ref="B143:L143"/>
-    <mergeCell ref="B153:L153"/>
-    <mergeCell ref="B155:L155"/>
-    <mergeCell ref="B158:L158"/>
-    <mergeCell ref="B167:L167"/>
-    <mergeCell ref="B183:L183"/>
-    <mergeCell ref="B198:L198"/>
-    <mergeCell ref="B210:L210"/>
-    <mergeCell ref="D211:D218"/>
-    <mergeCell ref="B219:L219"/>
-    <mergeCell ref="B223:L223"/>
-    <mergeCell ref="B230:L230"/>
     <mergeCell ref="B293:L293"/>
     <mergeCell ref="B296:L296"/>
     <mergeCell ref="B301:L301"/>
@@ -21348,6 +21337,37 @@
     <mergeCell ref="B261:L261"/>
     <mergeCell ref="B274:L274"/>
     <mergeCell ref="B288:L288"/>
+    <mergeCell ref="B210:L210"/>
+    <mergeCell ref="D211:D218"/>
+    <mergeCell ref="B219:L219"/>
+    <mergeCell ref="B223:L223"/>
+    <mergeCell ref="B230:L230"/>
+    <mergeCell ref="B155:L155"/>
+    <mergeCell ref="B158:L158"/>
+    <mergeCell ref="B167:L167"/>
+    <mergeCell ref="B183:L183"/>
+    <mergeCell ref="B198:L198"/>
+    <mergeCell ref="B102:L102"/>
+    <mergeCell ref="B105:L105"/>
+    <mergeCell ref="B140:L140"/>
+    <mergeCell ref="B143:L143"/>
+    <mergeCell ref="B153:L153"/>
+    <mergeCell ref="B56:L56"/>
+    <mergeCell ref="B59:L59"/>
+    <mergeCell ref="B61:L61"/>
+    <mergeCell ref="B64:L64"/>
+    <mergeCell ref="B69:L69"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="D34:D45"/>
+    <mergeCell ref="B46:L46"/>
+    <mergeCell ref="B53:L53"/>
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="B11:L11"/>
+    <mergeCell ref="D12:D19"/>
+    <mergeCell ref="B20:L20"/>
+    <mergeCell ref="D21:D28"/>
+    <mergeCell ref="B6:L6"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
